--- a/ExamplePolarisMaxDaily.xlsx
+++ b/ExamplePolarisMaxDaily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19132\Google Drive\PAF Papers\Excel Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D839D7-C52A-46CB-8DE2-E3C747E80FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AB2341-1DEE-4D3C-A2BE-A0EBDF88B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" firstSheet="2" activeTab="7" xr2:uid="{3904170A-37BB-48F0-B322-9CC8A1F1D6E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" firstSheet="5" activeTab="7" xr2:uid="{3904170A-37BB-48F0-B322-9CC8A1F1D6E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Calculation D 8+ Classic" sheetId="12" r:id="rId6"/>
     <sheet name="Calculation D 8+ MAPS" sheetId="7" r:id="rId7"/>
     <sheet name="Calculation D 8+ DYN" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="Activation_Time">'Calculation D 8+ StructRef'!$B$2</definedName>
@@ -63,16 +64,17 @@
     <definedName name="VA.IncomeCredit">_xlfn.LAMBDA(_xlpm.payPeriod,_xlpm.prevIncomeCreditBase,_xlpm.isActivated,_xlpm.isAnniversary,_xlpm.incomeCredRate, _xlfn.LET(_xlpm.picb, IF(_xlpm.payPeriod &gt; 0, _xlpm.prevIncomeCreditBase, 0), _xlpm.isPreSysWdOnAnniversary, AND(NOT(_xlpm.isActivated), _xlpm.isAnniversary), IF(_xlpm.isPreSysWdOnAnniversary, _xlpm.picb * _xlpm.incomeCredRate, 0)))</definedName>
     <definedName name="VA.IncomeCreditBase">_xlfn.LAMBDA(_xlpm.isActivated,_xlpm.isAnniversary,_xlpm.hasIncomeCredit,_xlpm.anniversaryCv,_xlpm.purchasePayments,_xlpm.wdPenaltyMult,_xlpm.prevIncomeCreditBase, IF(NOT(_xlpm.isActivated), IF(_xlpm.hasIncomeCredit, _xlpm.prevIncomeCreditBase, IF(_xlpm.isAnniversary, MAX(_xlpm.prevIncomeCreditBase, _xlpm.anniversaryCv + _xlpm.purchasePayments), _xlpm.prevIncomeCreditBase + _xlpm.purchasePayments)) * _xlpm.wdPenaltyMult, 0))</definedName>
     <definedName name="VA.InitialCurrentIncomeBase">_xlfn.LAMBDA(_xlpm.isAnniversary,_xlpm.prevIB,_xlpm.anniversaryCv,_xlpm.purchasePayments,_xlpm.wdPenaltyMult, IF(_xlpm.isAnniversary, MAX(_xlpm.prevIB, _xlpm.anniversaryCv + _xlpm.purchasePayments), _xlpm.prevIB + _xlpm.purchasePayments) * _xlpm.wdPenaltyMult)</definedName>
+    <definedName name="VA.InterestOnPayments">_xlfn.LAMBDA(_xlpm.prevYear,_xlpm.accumPay,_xlpm.FvTotal,_xlpm.year,_xlpm.pay,_xlpm.hasWdOccurrAfterAct,_xlpm.mibPercent, _xlfn.LET(_xlpm.ap, _xlpm.accumPay + _xlpm.pay, _xlpm.interestPay, IF(_xlpm.prevYear &lt;&gt; _xlpm.year, _xlpm.ap * _xlpm.mibPercent, 0), _xlpm.fv, IF(_xlpm.hasWdOccurrAfterAct, 0, _xlpm.FvTotal + _xlpm.interestPay + _xlpm.pay), _xlfn.HSTACK(_xlpm.year, _xlpm.ap, _xlpm.fv)))</definedName>
     <definedName name="VA.IsActivated">_xlfn.LAMBDA(_xlpm.payPeriod,_xlpm.activationPeriod, _xlpm.payPeriod &gt;= _xlpm.activationPeriod)</definedName>
     <definedName name="VA.IsAnniversary">_xlfn.LAMBDA(_xlpm.payPeriod, _xlpm.payPeriod - INT(_xlpm.payPeriod) = 0)</definedName>
     <definedName name="VA.MawStack">_xlfn.LAMBDA(_xlpm.prevCv,_xlpm.prevIB,_xlpm.prevICB,_xlpm.prevMawa,_xlpm.payPeriod,_xlpm.wdTaken,_xlpm.cv,_xlpm.isAnniversary,_xlpm.isActivated,_xlpm.purchasePayments,_xlpm.mawdRate,_xlpm.incomeCredRate, _xlfn.LET(_xlpm.anniversaryCv, VA.AnniversaryCv(_xlpm.isAnniversary, _xlpm.payPeriod, _xlpm.cv), _xlpm.wdPenaltyMult, VA.WithdrawalPenalty(_xlpm.isActivated, _xlpm.wdTaken, _xlpm.prevCv, _xlpm.cv, _xlpm.prevMawa), _xlpm.incomeCredit, VA.IncomeCredit(_xlpm.payPeriod, _xlpm.prevICB, _xlpm.isActivated, _xlpm.isAnniversary, _xlpm.incomeCredRate), _xlpm.initialCurrIB, VA.InitialCurrentIncomeBase(_xlpm.isAnniversary, _xlpm.prevIB, _xlpm.anniversaryCv, _xlpm.purchasePayments, _xlpm.wdPenaltyMult), _xlpm.adjustment, VA.IncomeBaseAdjustment(_xlpm.initialCurrIB, _xlpm.prevIB, _xlpm.isAnniversary, _xlpm.isActivated, _xlpm.incomeCredit), _xlpm.hasIncomeCredit, _xlpm.adjustment &gt; 0, _xlpm.incomeCreditBase, VA.IncomeCreditBase(_xlpm.isActivated, _xlpm.isAnniversary, _xlpm.hasIncomeCredit, _xlpm.anniversaryCv, _xlpm.purchasePayments, _xlpm.wdPenaltyMult, _xlpm.prevICB), _xlpm.incomeBase, VA.IncomeBase(_xlpm.initialCurrIB, _xlpm.adjustment), _xlpm.mawa, VA.MaxAllowableWdAmount(_xlpm.cv, _xlpm.incomeBase, _xlpm.mawdRate), _xlfn.HSTACK(_xlpm.cv, _xlpm.incomeBase, _xlpm.incomeCreditBase, _xlpm.mawa, _xlpm.wdPenaltyMult, _xlpm.adjustment, _xlpm.incomeCredit)))</definedName>
-    <definedName name="VA.MawStackDaily">_xlfn.LAMBDA(_xlpm.prevYear,_xlpm.accumPay,_xlpm.accumTotal,_xlpm.accumPenalty,_xlpm.prevIncomeBase,_xlpm.prevStepUp,_xlpm.prevMaxValue,_xlpm.prevYearMaxValue,_xlpm.prevMawa,_xlpm.year,_xlpm.pay,_xlpm.hasWdOccurrAfterAct,_xlpm.cv,_xlpm.timeFromVal,_xlpm.isAnniversary,_xlpm.isActivated,_xlpm.hasLifetimeIncomeStarted,_xlpm.wdTaken,_xlpm.mawd, _xlfn.LET(_xlpm.wdPenalty, VA.WithdrawalPenaltyDaily(_xlpm.hasLifetimeIncomeStarted, _xlpm.wdTaken, _xlpm.isActivated, _xlpm.cv, _xlpm.prevMawa), _xlpm.preActIBAll, VA.PreActivationIncomeBase(_xlpm.prevYear, _xlpm.accumPay, _xlpm.accumTotal, _xlpm.accumPenalty, _xlpm.prevIncomeBase, _xlpm.prevStepUp, _xlpm.year, _xlpm.pay, _xlpm.hasWdOccurrAfterAct, _xlpm.wdPenalty, _xlpm.cv), _xlpm.preActIB, _xlfn.CHOOSECOLS(_xlpm.preActIBAll, 5), _xlpm.stepUpValue, _xlfn.CHOOSECOLS(_xlpm.preActIBAll, 6), _xlpm.minimumIncomeBase, _xlfn.CHOOSECOLS(_xlpm.preActIBAll, 7), _xlpm.maxStepValues, VA.MaxStepValuePreviousYear(_xlpm.prevYear, _xlpm.prevMaxValue, _xlpm.prevYearMaxValue, _xlpm.year, _xlpm.stepUpValue), _xlpm.maxStepValuePreviousYear, _xlfn.CHOOSECOLS(_xlpm.maxStepValues, 3), _xlpm.postActIB, VA.PostActivationIncomeBase(_xlpm.prevIncomeBase, _xlpm.timeFromVal, _xlpm.hasWdOccurrAfterAct, _xlpm.isAnniversary, _xlpm.cv, _xlpm.year, _xlpm.isActivated, _xlpm.wdPenalty, _xlpm.maxStepValuePreviousYear), _xlpm.incomeBase, _xlpm.preActIB + _xlpm.postActIB, _xlpm.mawa, VA.MaxAllowWdAmountDaily(_xlpm.hasLifetimeIncomeStarted, _xlpm.incomeBase, _xlpm.mawd), _xlfn.HSTACK(_xlfn.TAKE(_xlpm.preActIBAll, , 4), _xlpm.incomeBase, _xlpm.stepUpValue, _xlfn.DROP(_xlpm.maxStepValues, , 1), _xlpm.mawa, _xlpm.wdPenalty, _xlpm.minimumIncomeBase)))</definedName>
+    <definedName name="VA.MawStackDaily">_xlfn.LAMBDA(_xlpm.prevYear,_xlpm.accumPenalty,_xlpm.prevIncomeBase,_xlpm.prevStepUp,_xlpm.prevMaxValue,_xlpm.prevYearMaxValue,_xlpm.prevMawa,_xlpm.year,_xlpm.pay,_xlpm.hasWdOccurrAfterAct,_xlpm.cv,_xlpm.timeFromVal,_xlpm.isAnniversary,_xlpm.isActivated,_xlpm.hasLifetimeIncomeStarted,_xlpm.wdTaken,_xlpm.fv,_xlpm.mawd, _xlfn.LET(_xlpm.wdPenalty, VA.WithdrawalPenaltyDaily(_xlpm.hasLifetimeIncomeStarted, _xlpm.wdTaken, _xlpm.isActivated, _xlpm.cv, _xlpm.prevMawa), _xlpm.preActIBAll, VA.PreActivationIncomeBase(_xlpm.accumPenalty, _xlpm.prevIncomeBase, _xlpm.prevStepUp, _xlpm.pay, _xlpm.hasWdOccurrAfterAct, _xlpm.wdPenalty, _xlpm.cv, _xlpm.fv), _xlpm.awp, _xlfn.CHOOSECOLS(_xlpm.preActIBAll, 1), _xlpm.preActIB, _xlfn.CHOOSECOLS(_xlpm.preActIBAll, 2), _xlpm.stepUpValue, _xlfn.CHOOSECOLS(_xlpm.preActIBAll, 3), _xlpm.minimumIncomeBase, _xlfn.CHOOSECOLS(_xlpm.preActIBAll, 4), _xlpm.maxStepValues, VA.MaxStepValuePreviousYear(_xlpm.prevYear, _xlpm.prevMaxValue, _xlpm.prevYearMaxValue, _xlpm.year, _xlpm.stepUpValue), _xlpm.mv, _xlfn.CHOOSECOLS(_xlpm.maxStepValues, 2), _xlpm.maxStepValuePY, _xlfn.CHOOSECOLS(_xlpm.maxStepValues, 3), _xlpm.postActIB, VA.PostActivationIncomeBase(_xlpm.prevIncomeBase, _xlpm.timeFromVal, _xlpm.hasWdOccurrAfterAct, _xlpm.isAnniversary, _xlpm.cv, _xlpm.isActivated, _xlpm.wdPenalty, _xlpm.maxStepValuePY), _xlpm.incomeBase, _xlpm.preActIB + _xlpm.postActIB, _xlpm.mawa, VA.MaxAllowWdAmountDaily(_xlpm.hasLifetimeIncomeStarted, _xlpm.incomeBase, _xlpm.mawd), _xlfn.HSTACK(_xlpm.year, _xlpm.awp, _xlpm.incomeBase, _xlpm.stepUpValue, _xlpm.mv, _xlpm.maxStepValuePY, _xlpm.mawa, _xlpm.wdPenalty, _xlpm.minimumIncomeBase)))</definedName>
     <definedName name="VA.MaxAllowableWdAmount">_xlfn.LAMBDA(_xlpm.cv,_xlpm.incomeBase,_xlpm.mawdRate, IF(_xlpm.cv &gt; 0, _xlpm.incomeBase * _xlpm.mawdRate, 0))</definedName>
     <definedName name="VA.MaxAllowWdAmountDaily">_xlfn.LAMBDA(_xlpm.hasLifetimeIncomeStarted,_xlpm.IB,_xlpm.mawd, IF(NOT(_xlpm.hasLifetimeIncomeStarted), _xlpm.IB * _xlpm.mawd, 0))</definedName>
-    <definedName name="VA.MaxStepValuePreviousYear">_xlfn.LAMBDA(_xlpm.prevYear,_xlpm.prevMaxValue,_xlpm.prevYearMaxValue,_xlpm.year,_xlpm.stepUpValue, _xlfn.LET(_xlpm.mv, IF(_xlpm.prevYear &lt;&gt; _xlpm.year, _xlpm.stepUpValue, MAX(_xlpm.prevMaxValue, _xlpm.stepUpValue)), _xlpm.pymv, IF(_xlpm.prevYear &lt;&gt; _xlpm.year, _xlpm.prevMaxValue, _xlpm.prevYearMaxValue), _xlfn.HSTACK(_xlpm.year, _xlpm.mv, _xlpm.pymv)))</definedName>
-    <definedName name="VA.MinimumIncomeBase">_xlfn.LAMBDA(_xlpm.prevYear,_xlpm.accumPay,_xlpm.accumTotal,_xlpm.accumPenalty,_xlpm.year,_xlpm.pay,_xlpm.hasWdOccurrAfterAct,_xlpm.wdPenalty, _xlfn.LET(_xlpm.ap, _xlpm.accumPay + _xlpm.pay, _xlpm.interestPay, IF(_xlpm.prevYear &lt;&gt; _xlpm.year, _xlpm.ap * Minimum_Income_Base_Percentage, 0), _xlpm.at, IF(_xlpm.hasWdOccurrAfterAct, 0, _xlpm.accumTotal + _xlpm.interestPay + _xlpm.pay), _xlpm.awp, _xlpm.accumPenalty * _xlpm.wdPenalty, _xlpm.minIncomeBase, _xlpm.at * _xlpm.awp, _xlfn.HSTACK(_xlpm.year, _xlpm.ap, _xlpm.at, _xlpm.awp, _xlpm.minIncomeBase)))</definedName>
-    <definedName name="VA.PostActivationIncomeBase">_xlfn.LAMBDA(_xlpm.prevIB,_xlpm.timeFromVal,_xlpm.hasWdOccurredAfterActivation,_xlpm.isAnniversary,_xlpm.cv,_xlpm.year,_xlpm.isActivated,_xlpm.wdPenalty,_xlpm.maxStepValuePreviousYear, IF(_xlpm.timeFromVal = 0, 0, IF(AND(_xlpm.hasWdOccurredAfterActivation, _xlpm.isAnniversary), MAX(_xlpm.cv, _xlpm.prevIB, _xlpm.maxStepValuePreviousYear), IF(_xlpm.isActivated, _xlpm.prevIB) * _xlpm.wdPenalty)))</definedName>
-    <definedName name="VA.PreActivationIncomeBase">_xlfn.LAMBDA(_xlpm.prevYear,_xlpm.accumPay,_xlpm.accumTotal,_xlpm.accumPenalty,_xlpm.prevIncomeBase,_xlpm.prevStepUp,_xlpm.year,_xlpm.pay,_xlpm.hasWdOccurrAfterAct,_xlpm.wdPenalty,_xlpm.cv, _xlfn.LET(_xlpm.minIbAll, VA.MinimumIncomeBase(_xlpm.prevYear, _xlpm.accumPay, _xlpm.accumTotal, _xlpm.accumPenalty, _xlpm.year, _xlpm.pay, _xlpm.hasWdOccurrAfterAct, _xlpm.wdPenalty), _xlpm.minIb, _xlfn.DROP(_xlpm.minIbAll, 0, 4), _xlpm.stepUpValue, VA.StepUpValue(_xlpm.prevStepUp, _xlpm.prevIncomeBase, _xlpm.cv, _xlpm.pay), _xlpm.PreActIB, IF(_xlpm.hasWdOccurrAfterAct, 0, MAX(_xlpm.pay + _xlpm.prevIncomeBase, _xlpm.stepUpValue, _xlpm.minIb) * _xlpm.wdPenalty), _xlfn.HSTACK(_xlfn.TAKE(_xlpm.minIbAll, , 4), _xlpm.PreActIB, _xlpm.stepUpValue, _xlpm.minIb)))</definedName>
+    <definedName name="VA.MaxStepValuePreviousYear">_xlfn.LAMBDA(_xlpm.prevYear,_xlpm.prevMaxValue,_xlpm.prevYearMaxValue,_xlpm.year,_xlpm.sUpValue, _xlfn.LET(_xlpm.mv, IF(_xlpm.prevYear &lt;&gt; _xlpm.year, _xlpm.sUpValue, MAX(_xlpm.prevMaxValue, _xlpm.sUpValue)), _xlpm.pymv, IF(_xlpm.prevYear &lt;&gt; _xlpm.year, _xlpm.prevMaxValue, _xlpm.prevYearMaxValue), _xlfn.HSTACK(_xlpm.year, _xlpm.mv, _xlpm.pymv)))</definedName>
+    <definedName name="VA.PostActivationIncomeBase">_xlfn.LAMBDA(_xlpm.prevIB,_xlpm.timeFromVal,_xlpm.hasWdOccurredAfterActivation,_xlpm.isAnniversary,_xlpm.cv,_xlpm.isActivated,_xlpm.wdPenalty,_xlpm.maxStepValuePY, IF(_xlpm.timeFromVal = 0, 0, IF(AND(_xlpm.hasWdOccurredAfterActivation, _xlpm.isAnniversary), MAX(_xlpm.cv, _xlpm.prevIB, _xlpm.maxStepValuePY), IF(_xlpm.isActivated, _xlpm.prevIB, 0) * _xlpm.wdPenalty)))</definedName>
+    <definedName name="VA.PreActivationIncomeBase">_xlfn.LAMBDA(_xlpm.accumPenalty,_xlpm.prevIncomeBase,_xlpm.prevStepUp,_xlpm.pay,_xlpm.hasWdOccurrAfterAct,_xlpm.wdPenalty,_xlpm.cv,_xlpm.fv, _xlfn.LET(_xlpm.awp, _xlpm.accumPenalty * _xlpm.wdPenalty, _xlpm.minIb, _xlpm.fv * _xlpm.awp, _xlpm.sUpValue, VA.StepUpValue(_xlpm.prevStepUp, _xlpm.prevIncomeBase, _xlpm.cv, _xlpm.pay), _xlpm.PreActIB, IF(_xlpm.hasWdOccurrAfterAct, 0, MAX(_xlpm.pay + _xlpm.prevIncomeBase, _xlpm.sUpValue, _xlpm.minIb) * _xlpm.wdPenalty), _xlfn.HSTACK(_xlpm.awp, _xlpm.PreActIB, _xlpm.sUpValue, _xlpm.minIb)))</definedName>
+    <definedName name="VA.ProtectedIncomeDaily">_xlfn.LAMBDA(_xlpm.HasLifetimeIncomeStarted,_xlpm.IsAnn,_xlpm.IncomeBase,_xlpm.protectedIncPer, IF(AND(_xlpm.HasLifetimeIncomeStarted, _xlpm.IsAnn), _xlpm.protectedIncPer * _xlpm.IncomeBase, 0))</definedName>
     <definedName name="VA.ProtectedIncomePayment">_xlfn.LAMBDA(_xlpm.cv,_xlpm.incomeBase,_xlpm.pip_rate, IF(_xlpm.cv = 0, _xlpm.pip_rate * _xlpm.incomeBase, 0))</definedName>
     <definedName name="VA.StepUpValue">_xlfn.LAMBDA(_xlpm.prevStepUp,_xlpm.prevIncomeBase,_xlpm.contractValue,_xlpm.ppInvested, IF(_xlpm.contractValue - _xlpm.ppInvested &gt; MAX(_xlpm.prevStepUp, _xlpm.prevIncomeBase), _xlpm.contractValue, 0))</definedName>
     <definedName name="VA.WdHaircutAfterActivation">_xlfn.LAMBDA(_xlpm.prevMawa,_xlpm.isActivated,_xlpm.wdTaken,_xlpm.cv, _xlfn.LET(_xlpm.haircut, (_xlpm.wdTaken - _xlpm.prevMawa) / (_xlpm.cv - _xlpm.prevMawa), IF(AND(_xlpm.isActivated, _xlpm.wdTaken &gt; _xlpm.prevMawa), _xlpm.haircut, 0)))</definedName>
@@ -299,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="96">
   <si>
     <t>Step-up Value</t>
   </si>
@@ -558,6 +560,37 @@
   <si>
     <t xml:space="preserve"> Protected Income Payment Percentage </t>
   </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>=MAP(B12#,C12#,LAMBDA(year,day,year+day/365-1))</t>
+  </si>
+  <si>
+    <t>=MAP($D12#,SEQUENCE(COUNT($D12#),,Activation_Time,0),LAMBDA(TimeFromValuation,ActivationTime,TimeFromValuation&gt;=ActivationTime))</t>
+  </si>
+  <si>
+    <t>=LET(f,LAMBDA(TimeFromValuation,PurchasePayTime,PurchasePay,IF(ABS(TimeFromValuation-PurchasePayTime)&lt;0.001,PurchasePay,0)),
+     MAP($D12#,LAMBDA(t,f(t,0,InitialPurchasePayment)+f(t,Purchase_Pay_1_Time,Purchase_Pay_1)+f(t,Purchase_Pay_2_Time,Purchase_Pay_2))))</t>
+  </si>
+  <si>
+    <t>=AK12:AK43</t>
+  </si>
+  <si>
+    <t>=AL12:AL43</t>
+  </si>
+  <si>
+    <t>=G12#&lt;0.01</t>
+  </si>
+  <si>
+    <t>=MAP(E12#, SCAN(FALSE,H12#,LAMBDA(prevAns,wdTaken,OR(prevAns,wdTaken&gt;0))),LAMBDA(isActivated,wdTaken,AND(isActivated,wdTaken)))</t>
+  </si>
+  <si>
+    <t>=$C12#=0</t>
+  </si>
+  <si>
+    <t>Is Activated</t>
+  </si>
 </sst>
 </file>
 
@@ -650,7 +683,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,6 +802,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -1034,7 +1073,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1351,6 +1390,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2916,8 +2961,8 @@
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>762000</xdr:colOff>
           <xdr:row>404</xdr:row>
           <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
@@ -3452,7 +3497,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="898" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="4">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -3832,7 +3877,7 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -10510,18 +10555,18 @@
   <dimension ref="A1:AS138"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="10" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -16984,8 +17029,8 @@
                 <xdr:rowOff>123825</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>762000</xdr:colOff>
                 <xdr:row>404</xdr:row>
                 <xdr:rowOff>142875</xdr:rowOff>
               </to>
@@ -17009,10 +17054,10 @@
   <dimension ref="A4:AS78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="N12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="U12" sqref="U12"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23566,14 +23611,14 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A3:AQ43"/>
+  <dimension ref="A3:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="S12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="Q24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="AC9" sqref="AC9"/>
+      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23587,9 +23632,7 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="11" max="13" width="15.5703125" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" customWidth="1"/>
@@ -23615,7 +23658,7 @@
     <col min="43" max="43" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>78</v>
       </c>
@@ -23623,7 +23666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="Q4" t="s">
         <v>70</v>
       </c>
@@ -23631,7 +23674,7 @@
         <v>0.54794520547945202</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="Q5" t="s">
         <v>73</v>
       </c>
@@ -23639,12 +23682,11 @@
         <v>1.493150684931507</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="T6" s="78"/>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="I7" s="78"/>
-      <c r="M7" s="78"/>
       <c r="Q7" s="78"/>
       <c r="AI7" s="160" t="s">
         <v>45</v>
@@ -23653,7 +23695,7 @@
       <c r="AK7" s="161"/>
       <c r="AL7" s="161"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="Y8" s="160" t="s">
         <v>48</v>
       </c>
@@ -23665,15 +23707,13 @@
       <c r="AK8" s="161"/>
       <c r="AL8" s="161"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="Y9" s="160"/>
       <c r="Z9" s="160"/>
       <c r="AA9" s="161"/>
       <c r="AB9" s="161"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N10" s="159"/>
       <c r="O10" s="159"/>
       <c r="P10" s="159"/>
@@ -23687,7 +23727,7 @@
         <v>3.0409559320160042</v>
       </c>
     </row>
-    <row r="11" spans="1:43" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
         <v>76</v>
       </c>
@@ -23701,7 +23741,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>77</v>
@@ -23724,7 +23764,7 @@
       <c r="L11" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="158" t="s">
+      <c r="M11" s="163" t="s">
         <v>84</v>
       </c>
       <c r="N11" s="158" t="s">
@@ -23812,8 +23852,11 @@
       <c r="AQ11" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS11" s="162" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="103" t="str" cm="1">
         <f t="array" ref="A12:A43">Y12:Y43</f>
         <v>Benefit Effective Date</v>
@@ -23859,16 +23902,17 @@
         <f t="array" ref="K12:K43">_xlfn.ANCHORARRAY($C12)=0</f>
         <v>1</v>
       </c>
-      <c r="L12" s="91" cm="1">
-        <f t="array" ref="L12:U43">_xlfn.DROP(Utils.MultiSCAN(_xlfn.HSTACK(1,0,0,1,0,0,0,0,0),
-                 _xlfn.HSTACK(_xlfn.ANCHORARRAY($B12),_xlfn.ANCHORARRAY($F12),_xlfn.ANCHORARRAY($J12),_xlfn.ANCHORARRAY($G12),_xlfn.ANCHORARRAY($D12),_xlfn.ANCHORARRAY($K12),_xlfn.ANCHORARRAY($E12),_xlfn.ANCHORARRAY($I12),_xlfn.ANCHORARRAY($H12),_xlfn.SEQUENCE(COUNT(_xlfn.ANCHORARRAY($B12)),,MAW,0)),
+      <c r="L12" s="90" cm="1">
+        <f t="array" ref="L12:M43">_xlfn.DROP(Utils.MultiSCAN(_xlfn.HSTACK(1,0,0),_xlfn.HSTACK(_xlfn.ANCHORARRAY($B$12),_xlfn.ANCHORARRAY($F$12),_xlfn.ANCHORARRAY($J$12),_xlfn.SEQUENCE(COUNT(_xlfn.ANCHORARRAY($B$12)),,Minimum_Income_Base_Percentage,0)),VA.InterestOnPayments),,1)</f>
+        <v>100000</v>
+      </c>
+      <c r="M12" s="90">
+        <v>100000</v>
+      </c>
+      <c r="N12" s="91" cm="1">
+        <f t="array" ref="N12:U43">_xlfn.DROP(Utils.MultiSCAN(_xlfn.HSTACK(1,1,0,0,0,0,0),
+                 _xlfn.HSTACK(_xlfn.ANCHORARRAY($B12),_xlfn.ANCHORARRAY($F12),_xlfn.ANCHORARRAY($J12),_xlfn.ANCHORARRAY($G12),_xlfn.ANCHORARRAY($D12),_xlfn.ANCHORARRAY($K12),_xlfn.ANCHORARRAY($E12),_xlfn.ANCHORARRAY($I12),_xlfn.ANCHORARRAY($H12),_xlfn.DROP(_xlfn.ANCHORARRAY($L$12),,1),_xlfn.SEQUENCE(COUNT(_xlfn.ANCHORARRAY($B12)),,MAW,0)),
                  VA.MawStackDaily),,1)</f>
-        <v>100000</v>
-      </c>
-      <c r="M12" s="91">
-        <v>100000</v>
-      </c>
-      <c r="N12" s="91">
         <v>1</v>
       </c>
       <c r="O12" s="93">
@@ -23893,7 +23937,7 @@
         <v>100000</v>
       </c>
       <c r="V12" s="94" cm="1">
-        <f t="array" ref="V12:V43">_xlfn.MAP(_xlfn.ANCHORARRAY($I12),_xlfn.ANCHORARRAY($K12),_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY($L12),4),_xlfn.ANCHORARRAY($W12),_xlfn.LAMBDA(_xlpm.HasLifetimeIncomeStarted,_xlpm.IsAnn,_xlpm.IncomeBase,_xlpm.protectedIncPer,IF(AND(_xlpm.HasLifetimeIncomeStarted,_xlpm.IsAnn),_xlpm.protectedIncPer*_xlpm.IncomeBase,0)))</f>
+        <f t="array" ref="V12:V43">_xlfn.MAP(_xlfn.ANCHORARRAY($I12),_xlfn.ANCHORARRAY($K12),_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY($N$12),2),_xlfn.ANCHORARRAY($W12),VA.ProtectedIncomeDaily)</f>
         <v>0</v>
       </c>
       <c r="W12" s="94" cm="1">
@@ -23905,15 +23949,15 @@
         <v>1</v>
       </c>
       <c r="Z12" s="14">
-        <f t="shared" ref="Z12:Z43" si="0">F12-AJ12</f>
+        <f>F12-AJ12</f>
         <v>0</v>
       </c>
       <c r="AA12" s="14">
-        <f t="shared" ref="AA12:AA43" si="1">G12-AK12</f>
+        <f>G12-AK12</f>
         <v>0</v>
       </c>
       <c r="AB12" s="14">
-        <f t="shared" ref="AB12:AB43" si="2">H12-AL12</f>
+        <f>H12-AL12</f>
         <v>0</v>
       </c>
       <c r="AC12" s="14">
@@ -23933,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="14">
-        <f t="shared" ref="AG12:AG43" si="3">V12-AQ12</f>
+        <f t="shared" ref="AG12:AG43" si="0">V12-AQ12</f>
         <v>0</v>
       </c>
       <c r="AI12" s="23" t="s">
@@ -23963,8 +24007,12 @@
       <c r="AQ12" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS12" t="str" cm="1">
+        <f t="array" ref="AS12">_xlfn.REDUCE("[",_xlfn.ANCHORARRAY(H12),_xlfn.LAMBDA(_xlpm.acc,_xlpm.curr,_xlfn.CONCAT(_xlpm.acc,IF(_xlpm.acc="[","",","),TEXT(_xlpm.curr,"0.00"))))&amp;"]"</f>
+        <v>[0.00,0.00,0.00,0.00,0.00,0.00,0.00,0.00,0.00,0.00,5000.00,0.00,0.00,0.00,10000.00,0.00,0.00,0.00,19200.00,0.00,0.00,0.00,26400.00,0.00,0.00,26000.00,0.00,19059.00,19059.00,19059.00,19059.00,0.00]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104" t="str">
         <v>Year 1 – Day 25</v>
       </c>
@@ -23998,10 +24046,10 @@
       <c r="K13" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="60">
         <v>100000</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="60">
         <v>100000</v>
       </c>
       <c r="N13" s="61">
@@ -24039,35 +24087,35 @@
         <v>2</v>
       </c>
       <c r="Z13" s="14">
+        <f>F13-AJ13</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="14">
+        <f>G13-AK13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="14">
+        <f>H13-AL13</f>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <f t="shared" ref="AC13:AC43" si="1">P13-AM13</f>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
+        <f t="shared" ref="AD13:AD43" si="2">U13-AN13</f>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="14">
+        <f t="shared" ref="AE13:AE43" si="3">O13-AO13</f>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="14">
+        <f t="shared" ref="AF13:AF43" si="4">S13-AP13</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="14">
-        <f t="shared" ref="AC13:AC43" si="4">P13-AM13</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="14">
-        <f t="shared" ref="AD13:AD43" si="5">U13-AN13</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="14">
-        <f t="shared" ref="AE13:AE43" si="6">O13-AO13</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="14">
-        <f t="shared" ref="AF13:AF43" si="7">S13-AP13</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13" s="26" t="s">
@@ -24098,7 +24146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="103" t="str">
         <v>Year 1 – Day 105</v>
       </c>
@@ -24132,10 +24180,10 @@
       <c r="K14" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="90">
         <v>100000</v>
       </c>
-      <c r="M14" s="89">
+      <c r="M14" s="90">
         <v>100000</v>
       </c>
       <c r="N14" s="91">
@@ -24173,35 +24221,35 @@
         <v>3</v>
       </c>
       <c r="Z14" s="14">
+        <f>F14-AJ14</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="14">
+        <f>G14-AK14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <f>H14-AL14</f>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI14" s="26" t="s">
@@ -24232,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="104" t="str">
         <v>Year 1 – Day 200</v>
       </c>
@@ -24266,10 +24314,10 @@
       <c r="K15" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="60">
         <v>160000</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="60">
         <v>160000</v>
       </c>
       <c r="N15" s="61">
@@ -24307,35 +24355,35 @@
         <v>4</v>
       </c>
       <c r="Z15" s="14">
+        <f>F15-AJ15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="14">
+        <f>G15-AK15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14">
+        <f>H15-AL15</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" s="26" t="s">
@@ -24366,7 +24414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="103" t="str">
         <v>Year 1 – Day 300</v>
       </c>
@@ -24400,10 +24448,10 @@
       <c r="K16" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="90">
         <v>160000</v>
       </c>
-      <c r="M16" s="89">
+      <c r="M16" s="90">
         <v>160000</v>
       </c>
       <c r="N16" s="91">
@@ -24441,35 +24489,35 @@
         <v>5</v>
       </c>
       <c r="Z16" s="14">
+        <f>F16-AJ16</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="14">
+        <f>G16-AK16</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <f>H16-AL16</f>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI16" s="26" t="s">
@@ -24534,10 +24582,10 @@
       <c r="K17" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="60">
         <v>160000</v>
       </c>
-      <c r="M17" s="59">
+      <c r="M17" s="60">
         <v>168000</v>
       </c>
       <c r="N17" s="61">
@@ -24575,35 +24623,35 @@
         <v>6</v>
       </c>
       <c r="Z17" s="14">
+        <f>F17-AJ17</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="14">
+        <f>G17-AK17</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14">
+        <f>H17-AL17</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI17" s="26" t="s">
@@ -24668,10 +24716,10 @@
       <c r="K18" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L18" s="89">
+      <c r="L18" s="90">
         <v>250000</v>
       </c>
-      <c r="M18" s="89">
+      <c r="M18" s="90">
         <v>258000</v>
       </c>
       <c r="N18" s="91">
@@ -24709,35 +24757,35 @@
         <v>7</v>
       </c>
       <c r="Z18" s="14">
+        <f>F18-AJ18</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="14">
+        <f>G18-AK18</f>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14">
+        <f>H18-AL18</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI18" s="26" t="s">
@@ -24802,10 +24850,10 @@
       <c r="K19" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="60">
         <v>250000</v>
       </c>
-      <c r="M19" s="59">
+      <c r="M19" s="60">
         <v>258000</v>
       </c>
       <c r="N19" s="61">
@@ -24843,35 +24891,35 @@
         <v>8</v>
       </c>
       <c r="Z19" s="14">
+        <f>F19-AJ19</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="14">
+        <f>G19-AK19</f>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="14">
+        <f>H19-AL19</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI19" s="26" t="s">
@@ -24936,10 +24984,10 @@
       <c r="K20" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="L20" s="89">
+      <c r="L20" s="90">
         <v>250000</v>
       </c>
-      <c r="M20" s="89">
+      <c r="M20" s="90">
         <v>270500</v>
       </c>
       <c r="N20" s="91">
@@ -24977,35 +25025,35 @@
         <v>9</v>
       </c>
       <c r="Z20" s="14">
+        <f>F20-AJ20</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="14">
+        <f>G20-AK20</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="14">
+        <f>H20-AL20</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI20" s="26" t="s">
@@ -25070,10 +25118,10 @@
       <c r="K21" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="60">
         <v>250000</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="60">
         <v>270500</v>
       </c>
       <c r="N21" s="61">
@@ -25111,35 +25159,35 @@
         <v>11</v>
       </c>
       <c r="Z21" s="14">
+        <f>F21-AJ21</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14">
+        <f>G21-AK21</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="14">
+        <f>H21-AL21</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI21" s="26" t="s">
@@ -25204,10 +25252,10 @@
       <c r="K22" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L22" s="89">
+      <c r="L22" s="90">
         <v>250000</v>
       </c>
-      <c r="M22" s="89">
+      <c r="M22" s="90">
         <v>270500</v>
       </c>
       <c r="N22" s="91">
@@ -25245,35 +25293,35 @@
         <v>12</v>
       </c>
       <c r="Z22" s="14">
+        <f>F22-AJ22</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="14">
+        <f>G22-AK22</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14">
+        <f>H22-AL22</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="14">
+        <f t="shared" si="2"/>
+        <v>0.3859649122459814</v>
+      </c>
+      <c r="AE22" s="14">
+        <f t="shared" si="3"/>
+        <v>0.28070175438188016</v>
+      </c>
+      <c r="AF22" s="14">
+        <f t="shared" si="4"/>
+        <v>-0.26315789473665063</v>
+      </c>
+      <c r="AG22" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="14">
-        <f t="shared" si="5"/>
-        <v>0.3859649122459814</v>
-      </c>
-      <c r="AE22" s="14">
-        <f t="shared" si="6"/>
-        <v>0.28070175438188016</v>
-      </c>
-      <c r="AF22" s="14">
-        <f t="shared" si="7"/>
-        <v>-0.26315789473665063</v>
-      </c>
-      <c r="AG22" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI22" s="26" t="s">
@@ -25338,10 +25386,10 @@
       <c r="K23" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="60">
         <v>250000</v>
       </c>
-      <c r="M23" s="59">
+      <c r="M23" s="60">
         <v>270500</v>
       </c>
       <c r="N23" s="61">
@@ -25379,35 +25427,35 @@
         <v>13</v>
       </c>
       <c r="Z23" s="14">
+        <f>F23-AJ23</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14">
+        <f>G23-AK23</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14">
+        <f>H23-AL23</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <f t="shared" si="2"/>
+        <v>0.3859649122459814</v>
+      </c>
+      <c r="AE23" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="14">
-        <f t="shared" si="5"/>
-        <v>0.3859649122459814</v>
-      </c>
-      <c r="AE23" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI23" s="26" t="s">
@@ -25472,10 +25520,10 @@
       <c r="K24" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="90">
         <v>250000</v>
       </c>
-      <c r="M24" s="89">
+      <c r="M24" s="90">
         <v>283000</v>
       </c>
       <c r="N24" s="91">
@@ -25513,35 +25561,35 @@
         <v>14</v>
       </c>
       <c r="Z24" s="14">
+        <f>F24-AJ24</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14">
+        <f>G24-AK24</f>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
+        <f>H24-AL24</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="14">
+        <f t="shared" si="2"/>
+        <v>8.7719298258889467E-2</v>
+      </c>
+      <c r="AE24" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="14">
-        <f t="shared" si="5"/>
-        <v>8.7719298258889467E-2</v>
-      </c>
-      <c r="AE24" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI24" s="26" t="s">
@@ -25606,10 +25654,10 @@
       <c r="K25" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="60">
         <v>250000</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="60">
         <v>283000</v>
       </c>
       <c r="N25" s="61">
@@ -25647,35 +25695,35 @@
         <v>35</v>
       </c>
       <c r="Z25" s="14">
+        <f>F25-AJ25</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="14">
+        <f>G25-AK25</f>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="14">
+        <f>H25-AL25</f>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="14">
+        <f t="shared" si="2"/>
+        <v>8.7719298258889467E-2</v>
+      </c>
+      <c r="AE25" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="14">
-        <f t="shared" si="5"/>
-        <v>8.7719298258889467E-2</v>
-      </c>
-      <c r="AE25" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI25" s="27" t="s">
@@ -25741,10 +25789,10 @@
       <c r="K26" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L26" s="89">
+      <c r="L26" s="90">
         <v>250000</v>
       </c>
-      <c r="M26" s="89">
+      <c r="M26" s="90">
         <v>0</v>
       </c>
       <c r="N26" s="91">
@@ -25782,35 +25830,35 @@
         <v>36</v>
       </c>
       <c r="Z26" s="14">
+        <f>F26-AJ26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="14">
+        <f>G26-AK26</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <f>H26-AL26</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI26" s="27" t="s">
@@ -25875,10 +25923,10 @@
       <c r="K27" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="60">
         <v>250000</v>
       </c>
-      <c r="M27" s="59">
+      <c r="M27" s="60">
         <v>0</v>
       </c>
       <c r="N27" s="61">
@@ -25916,35 +25964,35 @@
         <v>37</v>
       </c>
       <c r="Z27" s="14">
+        <f>F27-AJ27</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="14">
+        <f>G27-AK27</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14">
+        <f>H27-AL27</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI27" s="27" t="s">
@@ -26009,10 +26057,10 @@
       <c r="K28" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="L28" s="89">
+      <c r="L28" s="90">
         <v>250000</v>
       </c>
-      <c r="M28" s="89">
+      <c r="M28" s="90">
         <v>0</v>
       </c>
       <c r="N28" s="91">
@@ -26050,35 +26098,35 @@
         <v>38</v>
       </c>
       <c r="Z28" s="14">
+        <f>F28-AJ28</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="14">
+        <f>G28-AK28</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <f>H28-AL28</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI28" s="27" t="s">
@@ -26143,10 +26191,10 @@
       <c r="K29" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L29" s="59">
+      <c r="L29" s="60">
         <v>250000</v>
       </c>
-      <c r="M29" s="59">
+      <c r="M29" s="60">
         <v>0</v>
       </c>
       <c r="N29" s="61">
@@ -26184,35 +26232,35 @@
         <v>39</v>
       </c>
       <c r="Z29" s="14">
+        <f>F29-AJ29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="14">
+        <f>G29-AK29</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14">
+        <f>H29-AL29</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI29" s="27" t="s">
@@ -26277,10 +26325,10 @@
       <c r="K30" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L30" s="89">
+      <c r="L30" s="90">
         <v>250000</v>
       </c>
-      <c r="M30" s="89">
+      <c r="M30" s="90">
         <v>0</v>
       </c>
       <c r="N30" s="91">
@@ -26317,35 +26365,35 @@
         <v>40</v>
       </c>
       <c r="Z30" s="14">
+        <f>F30-AJ30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="14">
+        <f>G30-AK30</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14">
+        <f>H30-AL30</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI30" s="27" t="s">
@@ -26410,10 +26458,10 @@
       <c r="K31" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="L31" s="59">
+      <c r="L31" s="60">
         <v>250000</v>
       </c>
-      <c r="M31" s="59">
+      <c r="M31" s="60">
         <v>0</v>
       </c>
       <c r="N31" s="61">
@@ -26450,35 +26498,35 @@
         <v>41</v>
       </c>
       <c r="Z31" s="14">
+        <f>F31-AJ31</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="14">
+        <f>G31-AK31</f>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14">
+        <f>H31-AL31</f>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI31" s="27" t="s">
@@ -26543,10 +26591,10 @@
       <c r="K32" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L32" s="89">
+      <c r="L32" s="90">
         <v>250000</v>
       </c>
-      <c r="M32" s="89">
+      <c r="M32" s="90">
         <v>0</v>
       </c>
       <c r="N32" s="91">
@@ -26583,35 +26631,35 @@
         <v>42</v>
       </c>
       <c r="Z32" s="14">
+        <f>F32-AJ32</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="14">
+        <f>G32-AK32</f>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14">
+        <f>H32-AL32</f>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI32" s="27" t="s">
@@ -26676,10 +26724,10 @@
       <c r="K33" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="L33" s="59">
+      <c r="L33" s="60">
         <v>250000</v>
       </c>
-      <c r="M33" s="59">
+      <c r="M33" s="60">
         <v>0</v>
       </c>
       <c r="N33" s="61">
@@ -26716,35 +26764,35 @@
         <v>15</v>
       </c>
       <c r="Z33" s="14">
+        <f>F33-AJ33</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="14">
+        <f>G33-AK33</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="14">
+        <f>H33-AL33</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI33" s="27" t="s">
@@ -26809,10 +26857,10 @@
       <c r="K34" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L34" s="89">
+      <c r="L34" s="90">
         <v>250000</v>
       </c>
-      <c r="M34" s="89">
+      <c r="M34" s="90">
         <v>0</v>
       </c>
       <c r="N34" s="91">
@@ -26849,35 +26897,35 @@
         <v>16</v>
       </c>
       <c r="Z34" s="14">
+        <f>F34-AJ34</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="14">
+        <f>G34-AK34</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="14">
+        <f>H34-AL34</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="14">
+        <f t="shared" si="3"/>
+        <v>-7.5697211141232401E-2</v>
+      </c>
+      <c r="AF34" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13545816732948879</v>
+      </c>
+      <c r="AG34" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="14">
-        <f t="shared" si="6"/>
-        <v>-7.5697211141232401E-2</v>
-      </c>
-      <c r="AF34" s="14">
-        <f t="shared" si="7"/>
-        <v>0.13545816732948879</v>
-      </c>
-      <c r="AG34" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI34" s="26" t="s">
@@ -26942,10 +26990,10 @@
       <c r="K35" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L35" s="59">
+      <c r="L35" s="60">
         <v>250000</v>
       </c>
-      <c r="M35" s="59">
+      <c r="M35" s="60">
         <v>0</v>
       </c>
       <c r="N35" s="61">
@@ -26982,35 +27030,35 @@
         <v>17</v>
       </c>
       <c r="Z35" s="14">
+        <f>F35-AJ35</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="14">
+        <f>G35-AK35</f>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14">
+        <f>H35-AL35</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE35" s="14">
+        <f t="shared" si="3"/>
+        <v>-7.5697211141232401E-2</v>
+      </c>
+      <c r="AF35" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13545816732948879</v>
+      </c>
+      <c r="AG35" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="14">
-        <f t="shared" si="6"/>
-        <v>-7.5697211141232401E-2</v>
-      </c>
-      <c r="AF35" s="14">
-        <f t="shared" si="7"/>
-        <v>0.13545816732948879</v>
-      </c>
-      <c r="AG35" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI35" s="26" t="s">
@@ -27075,10 +27123,10 @@
       <c r="K36" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="L36" s="89">
+      <c r="L36" s="90">
         <v>250000</v>
       </c>
-      <c r="M36" s="89">
+      <c r="M36" s="90">
         <v>0</v>
       </c>
       <c r="N36" s="91">
@@ -27115,35 +27163,35 @@
         <v>18</v>
       </c>
       <c r="Z36" s="14">
+        <f>F36-AJ36</f>
+        <v>0</v>
+      </c>
+      <c r="AA36" s="14">
+        <f>G36-AK36</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="14">
+        <f>H36-AL36</f>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE36" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI36" s="26" t="s">
@@ -27208,10 +27256,10 @@
       <c r="K37" s="60" t="b">
         <v>0</v>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="60">
         <v>250000</v>
       </c>
-      <c r="M37" s="59">
+      <c r="M37" s="60">
         <v>0</v>
       </c>
       <c r="N37" s="61">
@@ -27248,35 +27296,35 @@
         <v>19</v>
       </c>
       <c r="Z37" s="14">
+        <f>F37-AJ37</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="14">
+        <f>G37-AK37</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="14">
+        <f>H37-AL37</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF37" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG37" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="14">
-        <f t="shared" si="6"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF37" s="14">
-        <f t="shared" si="7"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG37" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI37" s="26" t="s">
@@ -27341,10 +27389,10 @@
       <c r="K38" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="L38" s="89">
+      <c r="L38" s="90">
         <v>250000</v>
       </c>
-      <c r="M38" s="89">
+      <c r="M38" s="90">
         <v>0</v>
       </c>
       <c r="N38" s="91">
@@ -27381,35 +27429,35 @@
         <v>20</v>
       </c>
       <c r="Z38" s="14">
+        <f>F38-AJ38</f>
+        <v>0</v>
+      </c>
+      <c r="AA38" s="14">
+        <f>G38-AK38</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="14">
+        <f>H38-AL38</f>
+        <v>0</v>
+      </c>
+      <c r="AC38" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF38" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG38" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="14">
-        <f t="shared" si="6"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF38" s="14">
-        <f t="shared" si="7"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG38" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI38" s="26" t="s">
@@ -27474,10 +27522,10 @@
       <c r="K39" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="L39" s="59">
+      <c r="L39" s="60">
         <v>250000</v>
       </c>
-      <c r="M39" s="59">
+      <c r="M39" s="60">
         <v>0</v>
       </c>
       <c r="N39" s="61">
@@ -27514,35 +27562,35 @@
         <v>21</v>
       </c>
       <c r="Z39" s="14">
+        <f>F39-AJ39</f>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="14">
+        <f>G39-AK39</f>
+        <v>0</v>
+      </c>
+      <c r="AB39" s="14">
+        <f>H39-AL39</f>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD39" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE39" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF39" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG39" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="14">
-        <f t="shared" si="6"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF39" s="14">
-        <f t="shared" si="7"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG39" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI39" s="26" t="s">
@@ -27607,10 +27655,10 @@
       <c r="K40" s="90" t="b">
         <v>1</v>
       </c>
-      <c r="L40" s="89">
+      <c r="L40" s="90">
         <v>250000</v>
       </c>
-      <c r="M40" s="89">
+      <c r="M40" s="90">
         <v>0</v>
       </c>
       <c r="N40" s="91">
@@ -27647,35 +27695,35 @@
         <v>22</v>
       </c>
       <c r="Z40" s="14">
+        <f>F40-AJ40</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="14">
+        <f>G40-AK40</f>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14">
+        <f>H40-AL40</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF40" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG40" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="14">
-        <f t="shared" si="6"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF40" s="14">
-        <f t="shared" si="7"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG40" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI40" s="26" t="s">
@@ -27740,10 +27788,10 @@
       <c r="K41" s="60" t="b">
         <v>1</v>
       </c>
-      <c r="L41" s="59">
+      <c r="L41" s="60">
         <v>250000</v>
       </c>
-      <c r="M41" s="59">
+      <c r="M41" s="60">
         <v>0</v>
       </c>
       <c r="N41" s="61">
@@ -27780,35 +27828,35 @@
         <v>23</v>
       </c>
       <c r="Z41" s="14">
+        <f>F41-AJ41</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="14">
+        <f>G41-AK41</f>
+        <v>0</v>
+      </c>
+      <c r="AB41" s="14">
+        <f>H41-AL41</f>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD41" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF41" s="14">
+        <f t="shared" si="4"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG41" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="14">
-        <f t="shared" si="6"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF41" s="14">
-        <f t="shared" si="7"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG41" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI41" s="26" t="s">
@@ -27873,10 +27921,10 @@
       <c r="K42" s="90" t="b">
         <v>0</v>
       </c>
-      <c r="L42" s="89">
+      <c r="L42" s="90">
         <v>250000</v>
       </c>
-      <c r="M42" s="89">
+      <c r="M42" s="90">
         <v>0</v>
       </c>
       <c r="N42" s="91">
@@ -27913,35 +27961,35 @@
         <v>24</v>
       </c>
       <c r="Z42" s="14">
+        <f>F42-AJ42</f>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="14">
+        <f>G42-AK42</f>
+        <v>0</v>
+      </c>
+      <c r="AB42" s="14">
+        <f>H42-AL42</f>
+        <v>0</v>
+      </c>
+      <c r="AC42" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD42" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE42" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF42" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="14">
-        <f t="shared" si="6"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF42" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="14">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI42" s="26" t="s">
@@ -28004,10 +28052,10 @@
       <c r="K43" s="71" t="b">
         <v>1</v>
       </c>
-      <c r="L43" s="70">
+      <c r="L43" s="71">
         <v>250000</v>
       </c>
-      <c r="M43" s="70">
+      <c r="M43" s="71">
         <v>0</v>
       </c>
       <c r="N43" s="72">
@@ -28044,35 +28092,35 @@
         <v>25</v>
       </c>
       <c r="Z43" s="14">
+        <f>F43-AJ43</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="14">
+        <f>G43-AK43</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="14">
+        <f>H43-AL43</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="14">
+        <f t="shared" si="3"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF43" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB43" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="14">
-        <f t="shared" si="6"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF43" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="14">
-        <f t="shared" si="3"/>
         <v>8.695652173810231E-2</v>
       </c>
       <c r="AI43" s="26" t="s">
@@ -28108,7 +28156,7 @@
     <mergeCell ref="AI7:AL8"/>
     <mergeCell ref="Y8:AB9"/>
   </mergeCells>
-  <conditionalFormatting sqref="K12 K13:M43">
+  <conditionalFormatting sqref="K12:M43">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -28138,12 +28186,84 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697F4833-477A-490D-A67F-1FAAE1568BB2}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBWAEEAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAOgAgAFQAaABlACAAZABhAHQAZQAgAG8AbgAgAHcAaABpAGMAaAAgAHkAbwB1AHIAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGkAcwAgAGEAYwB0AGkAdgBhAHQAZQBkAC4AIABVAHAAbwBuACAAYQBjAHQAaQB2AGEAdABpAG8AbgAgAG8AZgAgAEwAaQBmAGUAdABpAG0AZQAgAEkAbgBjAG8AbQBlACwAIABjAGgAYQBuAGcAZQBzACAAYwBhAG4AbgBvAHQAIABiAGUAIABtAGEAZABlACAAdABvACAAdABoAGUAIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AKABzACkAIABvAHIAIABJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuAHMALgAgAFwAbgAvAC8AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABUAGgAZQAgAGMAbwBuAHQAcgBhAGMAdAAgAHYAYQBsAHUAZQAgAG8AbgAgAGEAbgB5ACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkALgAgAFQAaABlACAAQwBvAG4AdABpAG4AdQBhAHQAaQBvAG4AIABDAG8AbgB0AHIAaQBiAHUAdABpAG8AbgAsACAAaQBmACAAYQBwAHAAbABpAGMAYQBiAGwAZQAsACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAaQBuACAAdABoAGUAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AIABvAGYAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAcwAuACAAUABsAGUAYQBzAGUAIABzAGUAZQAgAFMAUABPAFUAUwBBAEwAIABDAE8ATgBUAEkATgBVAEEAVABJAE8ATgAgAGIAZQBsAG8AdwAuAFwAbgAvAC8AQgBlAG4AZQBmAGkAdAAgAEUAZgBmAGUAYwB0AGkAdgBlACAARABhAHQAZQA6ACAAVABoAGUAIABkAGEAdABlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABpAHMAIABlAGwAZQBjAHQAZQBkAC4AIABUAGgAZQAgAEIAZQBuAGUAZgBpAHQAIABFAGYAZgBlAGMAdABpAHYAZQAgAEQAYQB0AGUAIABpAHMAIAB0AGgAZQAgAHMAYQBtAGUAIABhAHMAIAB0AGgAZQAgAEMAbwBuAHQAcgBhAGMAdAAgAEkAcwBzAHUAZQAgAEQAYQB0AGUALgBcAG4ALwAvAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByADoAIABFAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgADoAVABoAGUAIABkAGEAdABlACAAZgBvAGwAbABvAHcAaQBuAGcAIABlAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AIABJAGYAIAB0AGgAZQAgAG4AZQB4AHQAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGgAYQBzACAAbgBvACAAYwBvAHIAcgBlAHMAcABvAG4AZABpAG4AZwAgAGQAYQB0AGUALAAgAHQAaABlAG4AIAB0AGgAZQAgAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAdwBpAGwAbAAgAGIAZQAgAGQAZQBlAG0AZQBkACAAdABvACAAYgBlACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAGQAYQB5AC4AXABuAC8ALwBGAG8AcgAgAGUAeABhAG0AcABsAGUALAAgAGkAZgAgAGEAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGkAcwAgAE4AbwB2AGUAbQBiAGUAcgAgADIAOQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABGAGUAYgByAHUAYQByAHkAIAAyADkAIABvAGYAIAB0AGgAZQAgAGYAbwBsAGwAbwB3AGkAbgBnACAAeQBlAGEAcgA7ACAAaABvAHcAZQB2AGUAcgAsACAAaQBuACAAYQAgAG4AbwBuAC0ATABlAGEAcAAgAFkAZQBhAHIALAAgAHQAaABlAHIAZQAgAGkAcwAgAG4AbwAgAGMAbwByAHIAZQBzAHAAbwBuAGQAaQBuAGcAIABkAGEAdABlAC4AIABUAGgAZQByAGUAZgBvAHIAZQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABNAGEAcgBjAGgAIAAxAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgA6ACAARQBhAGMAaAAgAGMAbwBuAHMAZQBjAHUAdABpAHYAZQAgAG8AbgBlACAAeQBlAGEAcgAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQA6ACAAVABoAGUAIABkAGEAdABlACAAbwBuACAAdwBoAGkAYwBoACAAZQBhAGMAaAAgAEIAZQBuAGUAZgBpAHQAIABZAGUAYQByACAAYgBlAGcAaQBuAHMALgBcAG4ALwAvAEMAbwBuAHQAcgBhAGMAdAAgAFkAZQBhAHIAOgAgAEUAYQBjAGgAIABjAG8AbgBzAGUAYwB1AHQAaQB2AGUAIABvAG4AZQAgAHkAZQBhAHIAIABwAGUAcgBpAG8AZAAgAHMAdABhAHIAdABpAG4AZwAgAG8AbgAgAHQAaABlACAAQwBvAG4AdAByAGEAYwB0ACAASQBzAHMAdQBlACAARABhAHQAZQAuAFwAbgAvAC8AQwBvAHYAZQByAGUAZAAgAFAAZQByAHMAbwBuACgAcwApADoAIABUAGgAZQAgAHAAZQByAHMAbwBuACwAIABvAHIAIABwAGUAcgBzAG8AbgBzACwAIAB3AGgAbwBzAGUAIABsAGkAZgBlAHQAaQBtAGUAIAB3AGkAdABoAGQAcgBhAHcAYQBsAHMAIABhAHIAZQAgAGcAdQBhAHIAYQBuAHQAZQBlAGQAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQB2AGkAbgBnACAAQgBlAG4AZQBmAGkAdAAuACAAXABuAC8ALwBDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AIABDAGgAYQBuAGcAZQBzADoAIABUAGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAG0AYQB5ACAAYgBlACAAYwBoAGEAbgBnAGUAZAAgAGkAbgAgAHQAaABlACAAZQB2AGUAbgB0ACAAbwBmACAATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ACAAcAByAGkAbwByACAAdABvACAAbwByACAAbwBuACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAuACAATgBvACAAZgB1AHIAdABoAGUAcgAgAGMAaABhAG4AZwBlAHMAIABtAGEAeQAgAGIAZQAgAG0AYQBkAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALgBcAG4AXABuAFwAbgBcAG4ALwAvAEUAeABjAGUAcwBzACAAVwBpAHQAaABkAHIAYQB3AGEAbAA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACwAIABvAHIAIABwAG8AcgB0AGkAbwBuACAAbwBmACAAYQAgAHcAaQB0AGgAZAByAGEAdwBhAGwALAAgAHQAaABhAHQAIABpAHMAIAB0AGEAawBlAG4AIABpAG4AIABhACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABhAGYAdABlAHIAIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBuAGQAXABuAC8ALwBlAHgAYwBlAGUAZABzACAAdABoAGUAIABnAHIAZQBhAHQAZQByACAAbwBmACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAHcAaQB0AGgAbwB1AHQAIAByAGUAZAB1AGMAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAFwAbgAvAC8AbwByACAAdABoAGUAIABSAGUAcQB1AGkAcgBlAGQAIABNAGkAbgBpAG0AdQBtACAARABpAHMAdAByAGkAYgB1AHQAaQBvAG4AIABhAG0AbwB1AG4AdAAgAGEAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABiAHkAIAB0AGgAZQAgAEEAbgBuAHUAaQB0AHkAIABTAGUAcgB2AGkAYwBlACAAQwBlAG4AdABlAHIALgAgAFwAbgAvAC8AQQBuACAARQB4AGMAZQBzAHMAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAdwBpAGwAbAAgAGMAYQB1AHMAZQAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAYQBuAGQAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAHQAbwAgAGIAZQAgAHIAZQBjAGEAbABjAHUAbABhAHQAZQBkAC4AXABuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAEMAdgAsAGMAdgAsAHAATQBhAHcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbgBvAFcAZAAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAFcAZAAsACAAMQAgAC0AIABNAEEAWAAoADAALAAgAHcAZABUAGEAawBlAG4AIAAtACAAcABNAGEAdwApACAALwAgACgAcABDAHYAIAAtACAAcABNAGEAdwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgADEAIAAtACAAdwBkAFQAYQBrAGUAbgAgAC8AIABjAHYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAdwBkAFQAYQBrAGUAbgAgADwAPgAgADAALAAgAEkARgAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsACAAcAByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQAKQAsACAAbgBvAFcAZAApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ALwAvAEgAaQBnAGgAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABGAG8AcgAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACwAIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAIAB0AGgAYQB0ACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAEkAbgBjAG8AbQBlACAAQgBhAHMAZQA6ACAAVABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABhACAAdgBhAGwAdQBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABmAGUAZQAgAGEAbgBkACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAIAB3AGkAdABoAG8AdQB0ACAAcgBlAGQAdQBjAGkAbgBnACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAFQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAaQBzACAAYQBsAHMAbwAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAYQBtAG8AdQBuAHQAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAsACAAaQBmACAAYQBuAGQAIAB3AGgAZQBuACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIAByAGUAZAB1AGMAZQBkACAAdABvACAAegBlAHIAbwAsACAAYgB1AHQAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAGkAcwAgAHMAdABpAGwAbAAgAGcAcgBlAGEAdABlAHIAIAB0AGgAYQBuACAAegBlAHIAbwAsACAAbwByACAAdQBwAG8AbgAgAHQAaABlACAATABhAHQAZQBzAHQAIABBAG4AbgB1AGkAdAB5ACAARABhAHQAZQAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGgAYQBzAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACwAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAHAAdQByAGMAaABhAHMAZQBQAGEAeQBtAGUAbgB0AHMALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABwAHIAZQB2AEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKwBwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACsAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACkAKgB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAMAApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ADoAIABBAHAAcABsAGkAYwBhAGIAbABlACAAdABvACAAUABvAGwAYQByAGkAcwAgAEkAbgBjAG8AbQBlACAATQBhAHgAIABvAG4AbAB5ACwAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABpAHMAIABhAG4AIABhAG0AbwB1AG4AdAAgAHQAaABhAHQAIABtAGEAeQAgAGIAZQAgAGEAZABkAGUAZAAgAHQAbwAgAHQAaABlACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBzACAAcwBoAG8AdwBuACAAaQBuACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAHQAYQBiAGwAZQA6AFwAbgAvAC8ASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAOgAgAEEAcABwAGwAaQBjAGEAYgBsAGUAIAB0AG8AIABQAG8AbABhAHIAaQBzACAASQBuAGMAbwBtAGUAIABNAGEAeAAgAG8AbgBsAHkALAAgAHQAaABlACAASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAIABpAHMAIAB1AHMAZQBkACAAcwBvAGwAZQBsAHkAIABhAHMAIABhACAAYgBhAHMAaQBzACAAZgBvAHIAIABjAGEAbABjAHUAbABhAHQAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAQQBwAHAAbABpAGMAYQBiAGwAZQAgAHQAbwAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACAAbwBuAGwAeQAsACAAYQAgAHAAZQByAGMAZQBuAHQAYQBnAGUAIABvAGYAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABCAGEAcwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAYQBtAG8AdQBuAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuADoAIABUAGgAZQAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIABpAHMAIABlAGwAZQBjAHQAZQBkACAAYgB5ACAAWQBvAHUAIABhAHQAIABjAG8AbgB0AHIAYQBjAHQAIABpAHMAcwB1AGUALgAgAFQAaABlACAATQBhAHgAaQBtAHUAbQAgAEEAbgBuAHUAYQBsACAAVwBpAHQAaABkAHIAYQB3AGEAbAAgAEEAbQBvAHUAbgB0AHMAIABhAG4AZAAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AHMAIABvAGYAZgBlAHIAZQBkACAAaQBuACAAZQBhAGMAaAAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIAB2AGEAcgB5ACAAYgB5ACAAYQBnAGUAIABhAG4AZAAgAHcAaABlAHQAaABlAHIAIAB5AG8AdQAgAGUAbABlAGMAdAAgAG8AbgBlACAAbwByACAAdAB3AG8AIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AcwAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAAgAD0AIABMAEEATQBCAEQAQQAoAHAAYQB5AFAAZQByAGkAbwBkACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAcABpAGMAYgAsAEkARgAoAHAAYQB5AFAAZQByAGkAbwBkAD4AMAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAFAAcgBlAFMAeQBzAFcAZABPAG4AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAQQBOAEQAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBQAHIAZQBTAHkAcwBXAGQATwBuAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAaQBjAGIAKgBpAG4AYwBvAG0AZQBDAHIAZQBkAFIAYQB0AGUALAAwACkAKQApADsAXABuAFwAbgBBAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAYQB5AFAAZQByAGkAbwBkACwAYwB2ACwASQBGACgATwBSACgATgBPAFQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACkALABwAGEAeQBQAGUAcgBpAG8AZAA9ADAAKQAsADAALABjAHYAKQApADsAXABuAFwAbgBJAG4AaQB0AGkAYQBsAEMAdQByAHIAZQBuAHQASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABwAHIAZQB2AEkAQgAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYALABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACwAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALAAgAE0AQQBYACgAcAByAGUAdgBJAEIALAAgAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAIAArACAAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACwAIABwAHIAZQB2AEkAQgAgACsAIABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkAIAAqACAAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAApADsAXABuAFwAbgBJAG4AYwBvAG0AZQBCAGEAcwBlAEEAZABqAHUAcwB0AG0AZQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAcAByAGUAdgBJAEIALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGQAZQBsAHQAYQAsACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAgAC0AIABwAHIAZQB2AEkAQgAsACAASQBGACgAQQBOAEQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAIABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACkALAAgAE0AQQBYACgAMAAsACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAIAAtACAAZABlAGwAdABhACkALAAgADAAKQApACkAOwBcAG4AXABuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIAIAArACAAYQBkAGoAdQBzAHQAbQBlAG4AdAApADsAXABuAFwAbgBNAGEAeABBAGwAbABvAHcAYQBiAGwAZQBXAGQAQQBtAG8AdQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAHYALABpAG4AYwBvAG0AZQBCAGEAcwBlACwAbQBhAHcAZABSAGEAdABlACwAIABJAEYAKABjAHYAIAA+ACAAMAAsACAAaQBuAGMAbwBtAGUAQgBhAHMAZQAgACoAIABtAGEAdwBkAFIAYQB0AGUALAAgADAAKQApADsAXABuAFwAbgAvAC8ATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ADoAIABBACAAYwBoAGEAbgBnAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAHUAcABvAG4AIABtAGEAcgByAGkAYQBnAGUALAAgAGQAaQB2AG8AcgBjAGUAIABvAHIAIABkAGUAYQB0AGgAIABpAGYAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACAAdABhAGsAZQBuACAAbwBuACAAbwByACAAYQBmAHQAZQByACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAgAHQAaABhAHQAIABpAHMAIABhAGwAbAAgAG8AcgAgAHAAYQByAHQAIABvAGYAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAG8AcgAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAOgAgAFQAaABlACAAbQBhAHgAaQBtAHUAbQAgAGEAbQBvAHUAbgB0ACAAdABoAGEAdAAgAG0AYQB5ACAAYgBlACAAdwBpAHQAaABkAHIAYQB3AG4AIABlAGEAYwBoACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABvAG4AIABvAHIAIABhAGYAdABlAHIAIABhAGMAdABpAHYAYQB0AGkAbgBnACAATABpAGYAZQB0AGkAbQBlACAASQBuAGMAbwBtAGUAIABhAG4AZAAgAHcAaABpAGwAZQAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB6AGUAcgBvACAAdwBpAHQAaABvAHUAdAAgAHIAZQBkAHUAYwBpAG4AZwAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlAC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAVABoAGUAIABwAGUAcgBjAGUAbgB0AGEAZwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAIABhAHYAYQBpAGwAYQBiAGwAZQAgAGYAbwByACAAdwBpAHQAaABkAHIAYQB3AGEAbAAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAGEAYwB0AGkAdgBhAHQAaQBuAGcAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGEAbgBkACAAdwBoAGkAbABlACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8ALgBcAG4ATQBhAHcAUwB0AGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBDAHYALABwAHIAZQB2AEkAQgAsAHAAcgBlAHYASQBDAEIALABwAHIAZQB2AE0AYQB3AGEALABwAGEAeQBQAGUAcgBpAG8AZAAsAHcAZABUAGEAawBlAG4ALABjAHYALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAG0AYQB3AGQAUgBhAHQAZQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcABhAHkAUABlAHIAaQBvAGQALABjAHYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAHIAZQB2AEMAdgAsAGMAdgAsAHAAcgBlAHYATQBhAHcAYQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACgAcABhAHkAUABlAHIAaQBvAGQALABwAHIAZQB2AEkAQwBCACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsACAASQBuAGkAdABpAGEAbABDAHUAcgByAGUAbgB0AEkAbgBjAG8AbQBlAEIAYQBzAGUAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcAByAGUAdgBJAEIALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0AG0AZQBuAHQALAAgAEkAbgBjAG8AbQBlAEIAYQBzAGUAQQBkAGoAdQBzAHQAbQBlAG4AdAAoAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIALABwAHIAZQB2AEkAQgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAGQAagB1AHMAdABtAGUAbgB0AD4AMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUAKABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALABwAHIAZQB2AEkAQwBCACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAIABJAG4AYwBvAG0AZQBCAGEAcwBlACgAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsAGEAZABqAHUAcwB0AG0AZQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQB3AGEALAAgAE0AYQB4AEEAbABsAG8AdwBhAGIAbABlAFcAZABBAG0AbwB1AG4AdAAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABtAGEAdwBkAFIAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAYwB2ACwAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAG0AYQB3AGEALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAIABhAGQAagB1AHMAdABtAGUAbgB0ACwAIABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApADsAXABuAFwAbgAvAC8AUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQAOgAgAFQAaABlACAAYQBtAG8AdQBuAHQAIAB0AG8AIABiAGUAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALABcAG4ALwAvAGkAZgAgAGEAbgBkACAAdwBoAGUAbgAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAcgBlAGQAdQBjAGUAZAAgAHQAbwAgAHoAZQByAG8ALAAgAGIAdQB0ACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABzAHQAaQBsAGwAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8AIABvAHIAIABpAGYAIAB0AGgAZQAgAEwAYQB0AGUAcwB0ACAAQQBuAG4AdQBpAHQAeQAgAEQAYQB0AGUAIABoAGEAcwAgAGIAZQBlAG4AIAByAGUAYQBjAGgAZQBkAC4AXABuAC8ALwBQAHIAbwB0AGUAYwB0AGUAZAAgAEkAbgBjAG8AbQBlACAAUABhAHkAbQBlAG4AdAAgAFAAZQByAGMAZQBuAHQAYQBnAGUAOgAgAFQAaABlACAAcABlAHIAYwBlAG4AdABhAGcAZQAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQALgBcAG4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUAUABhAHkAbQBlAG4AdAAgAD0AIABMAEEATQBCAEQAQQAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABwAGkAcABfAHIAYQB0AGUALABJAEYAKABjAHYAPQAwACwAcABpAHAAXwByAGEAdABlACoAaQBuAGMAbwBtAGUAQgBhAHMAZQAsADAAKQApADsAXABuAFwAbgBJAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABwAGEAeQBQAGUAcgBpAG8AZAAtAEkATgBUACgAcABhAHkAUABlAHIAaQBvAGQAKQA9ADAAKQA7AFwAbgBcAG4ASQBzAEEAYwB0AGkAdgBhAHQAZQBkACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABhAGMAdABpAHYAYQB0AGkAbwBuAFAAZQByAGkAbwBkACwAcABhAHkAUABlAHIAaQBvAGQAPgA9AGEAYwB0AGkAdgBhAHQAaQBvAG4AUABlAHIAaQBvAGQAKQA7AFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvACAAUABvAGwAYQByAGkAcwAgAE0AYQB4ACAARABhAGkAbAB5ACAALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBZAGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAeQBlAGEAcgAsAHMAdABlAHAAVQBwAFYAYQBsAHUAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbQB2ACAAIAAsAGkAZgAoAHAAcgBlAHYAWQBlAGEAcgA8AD4AeQBlAGEAcgAsAHMAdABlAHAAVQBwAFYAYQBsAHUAZQAsAE0AQQBYACgAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABzAHQAZQBwAFUAcABWAGEAbAB1AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHkAbQB2ACwAaQBmACgAcAByAGUAdgBZAGUAYQByADwAPgB5AGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAG0AdgAsAHAAeQBtAHYAKQApACkAOwBcAG4AXABuAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAHcAZABUAGEAawBlAG4ALABDAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgApACwAdwBkAFQAYQBrAGUAbgAvAEMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALAAwACkAKQA7AFwAbgBcAG4AVwBkAEgAYQBpAHIAYwB1AHQAQQBmAHQAZQByAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABwAHIAZQB2AE0AYQB3AGEALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAVABhAGsAZQBuACwAYwB2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGgAYQBpAHIAYwB1AHQALAAoAHcAZABUAGEAawBlAG4ALQBwAHIAZQB2AE0AYQB3AGEAKQAvACgAYwB2AC0AcAByAGUAdgBNAGEAdwBhACkALABJAEYAKABBAE4ARAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4APgBwAHIAZQB2AE0AYQB3AGEAKQAsAGgAYQBpAHIAYwB1AHQALAAwACkAKQApADsAXABuAFwAbgBNAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUAIAA9ACAATABBAE0AQgBEAEEAKABwAHIAZQB2AFkAZQBhAHIALABhAGMAYwB1AG0AUABhAHkALABhAGMAYwB1AG0AVABvAHQAYQBsACwAYQBjAGMAdQBtAFAAZQBuAGEAbAB0AHkALAB5AGUAYQByACwAcABhAHkALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAdwBkAFAAZQBuAGEAbAB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGEAcAAsAGEAYwBjAHUAbQBQAGEAeQArAHAAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AdABlAHIAZQBzAHQAUABhAHkALABJAEYAKABwAHIAZQB2AFkAZQBhAHIAPAA+AHkAZQBhAHIALABhAHAAKgBNAGkAbgBpAG0AdQBtAF8ASQBuAGMAbwBtAGUAXwBCAGEAcwBlAF8AUABlAHIAYwBlAG4AdABhAGcAZQAsADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQB0ACwASQBGACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsADAALABhAGMAYwB1AG0AVABvAHQAYQBsACsAaQBuAHQAZQByAGUAcwB0AFAAYQB5ACsAcABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQB3AHAALABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAqAHcAZABQAGUAbgBhAGwAdAB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGkAbgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAYQB0ACoAYQB3AHAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAGEAcAAsAGEAdAAsAGEAdwBwACwAbQBpAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQApACkAKQA7AFwAbgBcAG4AUwB0AGUAcABVAHAAVgBhAGwAdQBlACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALABwAHAASQBuAHYAZQBzAHQAZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALQBwAHAASQBuAHYAZQBzAHQAZQBkAD4ATQBBAFgAKABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACkALABjAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAMAApACkAOwBcAG4AXABuAFAAcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYAWQBlAGEAcgAsAGEAYwBjAHUAbQBQAGEAeQAsAGEAYwBjAHUAbQBUAG8AdABhAGwALABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHAAcgBlAHYAUwB0AGUAcABVAHAALAB5AGUAYQByACwAcABhAHkALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAdwBkAFAAZQBuAGEAbAB0AHkALABjAHYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAG0AaQBuAEkAYgBBAGwAbAAsAFYAQQAuAE0AaQBuAGkAbQB1AG0ASQBuAGMAbwBtAGUAQgBhAHMAZQAoAHAAcgBlAHYAWQBlAGEAcgAsAGEAYwBjAHUAbQBQAGEAeQAsAGEAYwBjAHUAbQBUAG8AdABhAGwALABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAsAHkAZQBhAHIALABwAGEAeQAsAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAB3AGQAUABlAG4AYQBsAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGkAbgBJAGIALABEAFIATwBQACgAbQBpAG4ASQBiAEEAbABsACwAMAAsADQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcwB0AGUAcABVAHAAVgBhAGwAdQBlACwAVgBBAC4AUwB0AGUAcABVAHAAVgBhAGwAdQBlACgAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAGMAdgAsAHAAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFAAcgBlAEEAYwB0AEkAQgAsAEkARgAoAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAAwACwATQBBAFgAKABwAGEAeQArAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHMAdABlAHAAVQBwAFYAYQBsAHUAZQAsAG0AaQBuAEkAYgApACoAdwBkAFAAZQBuAGEAbAB0AHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBDAEsAKABUAEEASwBFACgAbQBpAG4ASQBiAEEAbABsACwALAA0ACkALABQAHIAZQBBAGMAdABJAEIALABzAHQAZQBwAFUAcABWAGEAbAB1AGUALABtAGkAbgBJAGIAKQApACkAOwBcAG4AXABuAFAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBJAG4AYwBvAG0AZQBCAGEAcwBlACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBJAEIALAB0AGkAbQBlAEYAcgBvAG0AVgBhAGwALABoAGEAcwBXAGQATwBjAGMAdQByAHIAZQBkAEEAZgB0AGUAcgBBAGMAdABpAHYAYQB0AGkAbwBuACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGMAdgAsAHkAZQBhAHIALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAUABlAG4AYQBsAHQAeQAsAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAdABpAG0AZQBGAHIAbwBtAFYAYQBsAD0AMAAsADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEATgBEACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAGUAZABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAGMAdgAsAHAAcgBlAHYASQBCACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUAByAGUAdgBpAG8AdQBzAFkAZQBhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABwAHIAZQB2AEkAQgApACoAdwBkAFAAZQBuAGEAbAB0AHkAKQApACkAOwBcAG4AXABuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQBEAGEAaQBsAHkAIAA9ACAATABBAE0AQgBEAEEAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAEMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALABwAHIAZQB2AE0AYQB3AGEALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgADEALQBJAEYAKABBAE4ARAAoAE4ATwBUACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQAKQAsAHcAZABUAGEAawBlAG4APgAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABXAGQASABhAGkAcgBjAHUAdABCAGUAZgBvAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuACgASQBzAEEAYwB0AGkAdgBhAHQAaQBvAG4ALAB3AGQAVABhAGsAZQBuACwAQwBvAG4AdAByAGEAYwB0AFYAYQBsAHUAZQApACAAKwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABXAGQASABhAGkAcgBjAHUAdABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAoAHAAcgBlAHYATQBhAHcAYQAsAEkAcwBBAGMAdABpAHYAYQB0AGkAbwBuACwAdwBkAFQAYQBrAGUAbgAsAEMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUAKQAsADAAKQApADsAXABuAFwAbgBNAGEAeABBAGwAbABvAHcAVwBkAEEAbQBvAHUAbgB0AEQAYQBpAGwAeQAgAD0AIABMAEEATQBCAEQAQQAoAGgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwASQBCACwAbQBhAHcAZAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAE4ATwBUACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQAKQAsAEkAQgAqAG0AYQB3AGQALAAwACkAKQA7AFwAbgBcAG4ATQBhAHcAUwB0AGEAYwBrAEQAYQBpAGwAeQAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYAWQBlAGEAcgAsAGEAYwBjAHUAbQBQAGEAeQAsAGEAYwBjAHUAbQBUAG8AdABhAGwALABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHAAcgBlAHYAUwB0AGUAcABVAHAALABwAHIAZQB2AE0AYQB4AFYAYQBsAHUAZQAsAHAAcgBlAHYAWQBlAGEAcgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AE0AYQB3AGEALAB5AGUAYQByACwAcABhAHkALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAYwB2ACwAdABpAG0AZQBGAHIAbwBtAFYAYQBsACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAGgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwAdwBkAFQAYQBrAGUAbgAsAG0AYQB3AGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAB3AGQAUABlAG4AYQBsAHQAeQAsAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQBEAGEAaQBsAHkAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABjAHYALABwAHIAZQB2AE0AYQB3AGEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAcgBlAEEAYwB0AEkAQgBBAGwAbAAsAFAAcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAoAHAAcgBlAHYAWQBlAGEAcgAsAGEAYwBjAHUAbQBQAGEAeQAsAGEAYwBjAHUAbQBUAG8AdABhAGwALABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHAAcgBlAHYAUwB0AGUAcABVAHAALAB5AGUAYQByACwAcABhAHkALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAdwBkAFAAZQBuAGEAbAB0AHkALABjAHYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAcgBlAEEAYwB0AEkAQgAsAEMASABPAE8AUwBFAEMATwBMAFMAKABwAHIAZQBBAGMAdABJAEIAQQBsAGwALAA1ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAHQAZQBwAFUAcABWAGEAbAB1AGUALABDAEgATwBPAFMARQBDAE8ATABTACgAcAByAGUAQQBjAHQASQBCAEEAbABsACwANgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBpAG4AaQBtAHUAbQBJAG4AYwBvAG0AZQBCAGEAcwBlACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAHAAcgBlAEEAYwB0AEkAQgBBAGwAbAAsADcAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAHMALABNAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBQAHIAZQB2AGkAbwB1AHMAWQBlAGEAcgAoAHAAcgBlAHYAWQBlAGEAcgAsAHAAcgBlAHYATQBhAHgAVgBhAGwAdQBlACwAcAByAGUAdgBZAGUAYQByAE0AYQB4AFYAYQBsAHUAZQAsAHkAZQBhAHIALABzAHQAZQBwAFUAcABWAGEAbAB1AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAHMALAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABvAHMAdABBAGMAdABJAEIALABQAG8AcwB0AEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAoAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHQAaQBtAGUARgByAG8AbQBWAGEAbAAsAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAYwB2ACwAeQBlAGEAcgAsAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABQAGUAbgBhAGwAdAB5ACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUAByAGUAdgBpAG8AdQBzAFkAZQBhAHIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAGUAQQBjAHQASQBCACsAcABvAHMAdABBAGMAdABJAEIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHcAYQAsAE0AYQB4AEEAbABsAG8AdwBXAGQAQQBtAG8AdQBuAHQARABhAGkAbAB5ACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALABpAG4AYwBvAG0AZQBCAGEAcwBlACwAbQBhAHcAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAVABBAEsARQAoAHAAcgBlAEEAYwB0AEkAQgBBAGwAbAAsACwANAApACwAaQBuAGMAbwBtAGUAQgBhAHMAZQAsAHMAdABlAHAAVQBwAFYAYQBsAHUAZQAsAEQAUgBPAFAAKABtAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBzACwALAAxACkALABtAGEAdwBhACwAdwBkAFAAZQBuAGEAbAB0AHkALABtAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUAKQApACkAOwAgAFwAbgAiAH0ALAB7ACIAcABhAHQAaAAiADoAIgAvAHAAcgBvAGoAZQBjAHQAcwAvAFUAdABpAGwAcwAiACwAIgB0AGUAeAB0ACIAOgAiAC8ALwBGAGkAbgBkAHMAIAB0AGgAZQAgAHIAbwBvAHQAIABvAGYAIABhACAAcABvAGwAeQBuAG8AbQBpAGEAbAAgAGcAaQB2AGUAbgAgAGEAbgAgAGkAbgBpAHQAaQBhAGwAIABnAHUAZQBzAHMALAAgAHQAaABlACAAcABvAGwAeQBuAG8AbQBpAGEAbAAsACAAaQB0AHMAIABkAGUAcgBpAHYAYQB0AGkAdgBlACwAIABhAG4AZAAgAGEAIAB0AG8AbABlAHIAYQBuAGMAZQAgAFwAbgAvAC8ARQB4AGEAbQBwAGwAZQAgAEMAYQBsAGwAOgAgAE4AZQB3AHQAbwBuAFIAYQBwAGgAcwBvAG4AKAAzACwATABBAE0AQgBEAEEAKAB4ACwAKAB4AC0AMQApAF4AMgApACwATABBAE0AQgBEAEEAKAB4ACwAMgAqACgAeAAtADEAKQApACwAMAAuADAAMAAwADAAMQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8ATgBlAHcAdABvAG4AUgBhAHAAaABzAG8AbgAoADMALABMAEEATQBCAEQAQQAoAHgALAAoAHgALQAxACkAXgAyACkALABMAEEATQBCAEQAQQAoAHgALAAyACoAKAB4AC0AMQApACkALAApACAAIABcAG4ATgBlAHcAdABvAG4AUgBhAHAAaABzAG8AbgAgAD0AIABMAGEAbQBiAGQAYQAoAGcAdQBlAHMAcwAsAHkALABkAHkALAB0AG8AbABlAHIAYQBuAGMAZQBfACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAZQB0ACgAeABuACwAIABnAHUAZQBzAHMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB0AG8AbABlAHIAYQBuAGMAZQAsAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAdABvAGwAZQByAGEAbgBjAGUAXwApACwAMAAuADAAMAAwADEALAB0AG8AbABlAHIAYQBuAGMAZQBfACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB4AG4AXwAxACwAIAB4AG4AIAAtACAAeQAoAHgAbgApAC8AZAB5ACgAeABuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAGYAKABBAEIAUwAoAHgAbgBfADEAIAAtACAAeABuACkAPAAgAHQAbwBsAGUAcgBhAG4AYwBlACwAeABuACwAIABOAGUAdwB0AG8AbgBSAGEAcABoAHMAbwBuACgAeABuAF8AMQAsAHkALABkAHkALAB0AG8AbABlAHIAYQBuAGMAZQApACkAKQApADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuAE0AbwByAHQAUwBvAGEATwByAGcAQQBkAGQAcgBlAHMAcwAgAD0AIABcACIAaAB0AHQAcABzADoALwAvAG0AbwByAHQALgBzAG8AYQAuAG8AcgBnAC8AZABhAHQAYQAvAFwAIgA7AFwAbgBlAHIAcgBvAHIATQBlAHMAcwBhAGcAZQAgAD0AIABcACIARABvAGUAcwAgAE4AbwB0ACAARQB4AGkAcwB0AFwAIgA7AFwAbgBcAG4ALwAvAEUAeABhAG0AcABsAGUAIABDAGEAbABsAHMAOgBcAG4ALwAvACAAIAAgACAAPQBHAGUAdABNAG8AcgB0AFMAbwBhAE8AcgBnAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAKAAxACkAIAB0AG8AIABnAGUAdAAgAHQAaABlACAAdABhAGIAbABlACAAdwBpAHQAaAAgAGkAZAAgAGEAbgBkACAAbgBhAG0AZQAuAFwAbgAvAC8AIAAgACAAIAA9AEcAZQB0AE0AbwByAHQAUwBvAGEATwByAGcAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAoAFMARQBRAFUARQBOAEMARQAoADEAMAAwACwALAAxACkAKQAgAHQAbwAgAGcAZQB0ACAAYQAgAGwAaQBzAHQAIABvAGYAIAB0AGEAYgBsAGUAIABpAGQAcwAgAGEAbgBkACAAbgBhAG0AZQBzAC4AIAAgACAAIAAgACAAIABcAG4ARwBlAHQATQBvAHIAdABTAG8AYQBPAHIAZwBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACAAIAA9ACAATABBAE0AQgBEAEEAKAB0AGEAYgBsAGUATgB1AG0AYgBlAHIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAAgACAAIABmAGkAbABlAE4AYQBtAGUALAAgAE0AbwByAHQAUwBvAGEATwByAGcAQQBkAGQAcgBlAHMAcwAgACYAIABcACIAdABcACIAJgB0AGEAYgBsAGUATgB1AG0AYgBlAHIAJgBcACIALgB4AG0AbABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAB4AHAAYQB0AGgALABcACIALwAvAFQAYQBiAGwAZQBOAGEAbQBlAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAaQBsAHQAZQByAGUAZABYAG0AbAAsAEYASQBMAFQARQBSAFgATQBMACgAVwBFAEIAUwBFAFIAVgBJAEMARQAoAEYAaQBsAGUATgBhAG0AZQApACwAeABwAGEAdABoACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAHQAZQBtADEALAAgAHQAYQBiAGwAZQBOAHUAbQBiAGUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAdABlAG0AMgAsACAASQBGAEUAUgBSAE8AUgAoAGYAaQBsAHQAZQByAGUAZABYAG0AbAAsAGUAcgByAG8AcgBNAGUAcwBzAGEAZwBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAGkAdABlAG0AMQAsAGkAdABlAG0AMgApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAKQA7AFwAbgAvAC8ARQB4AGEAbQBwAGwAZQAgAEMAYQBsAGwAOgBcAG4ALwAvACAAIAAgACAARgBpAGwAdABlAHIATQBvAHIAdABTAG8AYQBPAHIAZwBBAGMAdABpAHYAZQBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACgAJABBACQAMgAjACkAIAB0AG8AIABmAGkAbAB0AGUAcgAgAHQAaABlACAAbABpAHMAdAAgAG8AZgAgAHQAYQBiAGwAZQBzACAAZABvAHcAbgAgAHQAaABlACAAbwBuAGUAcwAgAHQAaABhAHQAIABlAHgAaQBzAHQALAAgAHcAaABlAHIAZQAgAEEAMgAjACAAYwBvAG4AdABhAGkAbgBzACAALwAvACAALwAvAD0ARwBlAHQATQBvAHIAdABTAG8AYQBPAHIAZwBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACgAUwBFAFEAVQBFAE4AQwBFACgAMQAwADAALAAsADEAKQApAFwAbgBGAGkAbAB0AGUAcgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAYwB0AGkAdgBlAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAIAA9ACAATABhAG0AYgBkAGEAKAB0AHcAbwBDAG8AbAB1AG0AbgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAIAByACwAdAB3AG8AQwBvAGwAdQBtAG4AQQByAHIAYQB5ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgAcgAsAE8ARgBGAFMARQBUACgAcgAsADAALAAxACwALAAxACkAIAA8AD4AZQByAHIAbwByAE0AZQBzAHMAYQBnAGUAKQApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuAC8ALwBFAHgAYQBtAHAAbABlACAAQwBhAGwAbAA6AFwAbgAvAC8AIAAgACAAIABHAGUAdABNAG8AcgB0AGEAbABpAHQAeQBUAGEAYgBsAGUAKAAxADQALAAsACkAIAB0AG8AIAByAGUAdAByAGkAZQB2AGUAIAB0AGgAZQAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABJAGQAIAAxADQALAAgAG0AaQBuACAAYQBnAGUAIAAwACwAIABhAG4AZAAgAG0AYQB4ACAAYQBnAGUAIAAxADIAMAAuAFwAbgAvAC8AIAAgACAAIABHAGUAdABNAG8AcgB0AGEAbABpAHQAeQBUAGEAYgBsAGUAKAAxADMALAAxADAALAAxADAAMAApACAAdABvACAAcgBlAHQAcgBpAGUAdgBlACAAdABoAGUAIAB0AGEAYgBsAGUAIAB3AGkAdABoACAASQBkACAAMQAzACwAIABtAGkAbgAgAGEAZwBlACAAMQAwACwAIABhAG4AZAAgAG0AYQB4ACAAYQBnAGUAIAAxADAALgBcAHQAXAB0AFwAdABcAHQAXAB0AFwAdAAgACAAXABuAEcAZQB0AE0AbwByAHQAYQBsAGkAdAB5AFQAYQBiAGwAZQAgAD0ATABBAE0AQgBEAEEAKABUAGEAYgBsAGUASQBEACwATQBpAG4AQQBnAGUAXwAsAE0AYQB4AEEAZwBlAF8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAE0AaQBuAEEAZwBlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAE0AaQBuAEEAZwBlAF8AKQAsADAALABNAGkAbgBBAGcAZQBfACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AYQB4AEEAZwBlACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAE0AYQB4AEEAZwBlAF8AKQAsADEAMgAwACwATQBhAHgAQQBnAGUAXwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABGAGkAbABlAFQAeQBwAGUALABcACIALgB4AG0AbABcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAZQBhAHIAYwBoAFMAdAByAGkAbgBnACwAXAAiAC8ALwBAAHQAIAB8ACAALwAvAFkAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABUAGEAYgBsAGUATgBhAG0AZQAsAEUATgBDAE8ARABFAFUAUgBMACgAXAAiAHQAXAAiACYAVABhAGIAbABlAEkARAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAG8AcgB0AFQAYgBsACwAIABXAFIAQQBQAFIATwBXAFMAKABGAEkATABUAEUAUgBYAE0ATAAoAFcARQBCAFMARQBSAFYASQBDAEUAKABNAG8AcgB0AFMAbwBhAE8AcgBnAEEAZABkAHIAZQBzAHMAIAAmAFQAYQBiAGwAZQBOAGEAbQBlACAAJgAgAEYAaQBsAGUAVAB5AHAAZQApACwAIABTAGUAYQByAGMAaABTAHQAcgBpAG4AZwApACwAIAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYASQBMAFQARQBSACgATQBvAHIAdABUAGIAbAAsACAAKABJAE4ARABFAFgAKABNAG8AcgB0AFQAYgBsACwAIAAwACwAIAAyACkAIAA+ACAATQBpAG4AQQBnAGUAKQAgACoAIAAoAEkATgBEAEUAWAAoAE0AbwByAHQAVABiAGwALAAgADAALAAgADIAKQAgADwAIABNAGEAeABBAGcAZQApACkAKQApADsAXABuAC8ALwBDAG8AbQBiAG8AUwBjAGEAbgAgAHcAaQBsAGwAIABhAGwAbAAgAHMAYwBhAG4AIABtAHUAbAB0AGkAcABsAGUAIABhAHIAcgBhAHkAcwAuACAAVABoAGUAIABzAHUAcABwAGwAaQBlAGQAIABmAHUAbgBjAHQAaQBvAG4AIABzAGgAbwB1AGwAZAAgAGgAYQB2AGUAIAAxACAAbQBvAHIAZQAgAHAAYQByAGEAbQBlAHQAZQByACAAdABoAGEAbgAgAHQAaABlACAAYQByAHIAYQB5AHMAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAALwAvAFQAaABlACAAcABhAHIAYQBtAGUAdABlAHIAIAB0AGgAYQB0ACAAdABhAGsAZQBzACAAdABoAGUAIABwAHIAZQB2AGkAbwB1AHMAIAB2AGEAbAB1AGUAIABzAGgAbwB1AGwAZAAgAGEAbAB3AGEAeQBzACAAYgBlACAAdABoAGUAIABsAGEAcwB0ACAAbwBuAGUAIABpAG4AIAB0AGgAZQAgAGYAdQBuAGMAdABpAG8AbgAuAFwAbgBcAG4ALwAvAFMAYwBhAG4AIAAyACAAYQByAHIAYQB5AHMAIABhAG4AZAAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHEAdQBpAHIAZQBzACAAMwAgAHAAYQByAGEAbQBlAHQAZQByAHMAXABuAEMAbwBtAGIAbwBTAEMAQQBOADIAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABWAGEAbAB1AGUALABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAZgB1AG4AYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABjAGwAbwBzAHUAcgBlACwAIABNAEEAUAAoAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABjACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAcgBvAGMAZQBzAHMAUwBlAHIAaQBlAHMALABMAEEATQBCAEQAQQAoAHAAcgBlAHYAVgBhAGwAdQBlACwAZgB1AG4AYwAsAGYAdQBuAGMAKABwAHIAZQB2AFYAYQBsAHUAZQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEMAQQBOACgAaQBuAGkAdABWAGEAbAB1AGUALABjAGwAbwBzAHUAcgBlACwAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwApACkAKQA7AFwAbgBcAG4ALwAvAFMAYwBhAG4AIAAzACAAYQByAHIAYQB5AHMAIABhAG4AZAAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHEAdQBpAHIAZQBzACAANAAgAHAAYQByAGEAbQBlAHQAZQByAHMAXABuAEMAbwBtAGIAbwBTAEMAQQBOADMAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABWAGEAbAB1AGUALABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAGEAcgByAGEAeQAzACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGEALABiACwAYwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGQALABmAHUAbgBjAHQAaQBvAG4AKABhACwAYgAsAGMALABkACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAcgBvAGMAZQBzAHMAUwBlAHIAaQBlAHMALABMAEEATQBCAEQAQQAoAHAAcgBlAHYAVgBhAGwAdQBlACwAZgB1AG4AYwAsAGYAdQBuAGMAKABwAHIAZQB2AFYAYQBsAHUAZQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEMAQQBOACgAaQBuAGkAdABWAGEAbAB1AGUALABjAGwAbwBzAHUAcgBlACwAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwApACkAKQA7AFwAbgBcAG4ALwAvAFMAYwBhAG4AIAA0ACAAYQByAHIAYQB5AHMAIABhAG4AZAAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHEAdQBpAHIAZQBzACAANQAgAHAAYQByAGEAbQBlAHQAZQByAHMAXABuAEMAbwBtAGIAbwBTAEMAQQBOADQAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABWAGEAbAB1AGUALABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABhAHIAcgBhAHkANAAsAGYAdQBuAGMAdABpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYwBsAG8AcwB1AHIAZQAsACAATQBBAFAAKABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABhAHIAcgBhAHkANAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABhACwAYgAsAGMALABkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAZQAsAGYAdQBuAGMAdABpAG8AbgAoAGEALABiACwAYwAsAGQALABlACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAcgBvAGMAZQBzAHMAUwBlAHIAaQBlAHMALABMAEEATQBCAEQAQQAoAHAAcgBlAHYAVgBhAGwAdQBlACwAZgB1AG4AYwAsAGYAdQBuAGMAKABwAHIAZQB2AFYAYQBsAHUAZQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEMAQQBOACgAaQBuAGkAdABWAGEAbAB1AGUALABjAGwAbwBzAHUAcgBlACwAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwApACkAKQA7AFwAbgBcAG4ALwAvAFMAYwBhAG4AIAA1ACAAYQByAHIAYQB5AHMAIABhAG4AZAAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHEAdQBpAHIAZQBzACAANgAgAHAAYQByAGEAbQBlAHQAZQByAHMAXABuAEMAbwBtAGIAbwBTAEMAQQBOADUAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABWAGEAbAB1AGUALABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABhAHIAcgBhAHkANAAsAGEAcgByAGEAeQA1ACwAZgB1AG4AYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABjAGwAbwBzAHUAcgBlACwAIABNAEEAUAAoAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAYQByAHIAYQB5ADUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABjACwAZAAsAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABmACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACwAZAAsAGUALABmACkAKQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAcgBvAGMAZQBzAHMAUwBlAHIAaQBlAHMALABMAEEATQBCAEQAQQAoAHAAcgBlAHYAVgBhAGwAdQBlACwAZgB1AG4AYwAsAGYAdQBuAGMAKABwAHIAZQB2AFYAYQBsAHUAZQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEMAQQBOACgAaQBuAGkAdABWAGEAbAB1AGUALABjAGwAbwBzAHUAcgBlACwAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwApACkAKQA7AFwAbgBcAG4ALwAvAFMAYwBhAG4AIAA2ACAAYQByAHIAYQB5AHMAIABhAG4AZAAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuACAAcgBlAHEAdQBpAHIAZQBzACAANwAgAHAAYQByAGEAbQBlAHQAZQByAHMAXABuAEMAbwBtAGIAbwBTAEMAQQBOADYAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABWAGEAbAB1AGUALABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABhAHIAcgBhAHkANAAsAGEAcgByAGEAeQA1ACwAYQByAHIAYQB5ADYALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAGEAcgByAGEAeQAzACwAYQByAHIAYQB5ADQALABhAHIAcgBhAHkANQAsAGEAcgByAGEAeQA2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGEALABiACwAYwAsAGQALABlACwAZgAsAEwAQQBNAEIARABBACgAZwAsAGYAdQBuAGMAdABpAG8AbgAoAGEALABiACwAYwAsAGQALABlACwAZgAsAGcAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgBcAG4ALwAvAFMAaABvAHIAdAAgAGMAdQB0ACAAZgBvAHIAIABDAEgATwBPAFMARQBDAE8ATABTAFwAbgBDAEMAIAA9ACAATABBAE0AQgBEAEEAKABBAHIAcgBhAHkALABpAG4AZABlAHgALABDAEgATwBPAFMARQBDAE8ATABTACgAQQByAHIAYQB5ACwAaQBuAGQAZQB4ACkAKQA7AFwAbgBcAG4ALwAvAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABiAHIAZQBhAGsAcwAgAGEAIAByAG8AdwAgAGkAbgB0AG8AIABwAGEAcgBhAG0AZQB0AGUAcgBzACAAaQBuAHQAbwAgAGEAIABmAHUAbgBjAHQAaQBvAG4ALgBcAG4ALwAvAFQAaABpAHMAIABtAGEAeQAgAG4AZQBlAGQAIAB0AG8AIABiAGUAIAB1AHAAZABhAHQAZQBkACAAaQBmACAAYQAgAGYAdQBuAGMAdABpAG8AbgAgAGgAYQBzACAAbQBvAHIAZQAgAHQAaABhAG4AIAAxADUAIABwAGEAcgBhAG0AZQB0AGUAcgBzAC4AXABuAEMAdQByAHIAeQAgAD0AIABMAEEATQBCAEQAQQAoAGEAcgByAGEAeQAsAGYAdQBuAGMAdABpAG8AbgAsAEwARQBUACgAZgAsAGYAdQBuAGMAdABpAG8AbgAsAHYALABDAEgATwBPAFMARQBSAE8AVwBTACgAYQByAHIAYQB5ACwAMQApACwAUwBXAEkAVABDAEgAKABDAE8ATABVAE0ATgBTACgAYQByAHIAYQB5ACkALABcAG4AMAAsAGYAKAApACwAXABuADEALABmACgAQwBDACgAdgAsADEAKQApACwAXABuADIALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkAKQAsAFwAbgAzACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQApACwAXABuADQALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQApACwAXABuADUALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkAKQAsAFwAbgA2ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQApACwAXABuADcALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQApACwAXABuADgALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkAKQAsAFwAbgA5ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQApACwAXABuADEAMAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkAKQAsAFwAbgAxADEALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACkALABcAG4AMQAyACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQApACwAXABuADEAMwAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkAKQAsAFwAbgAxADQALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACkALABcAG4AMQA1ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQApACwAXABuADEANgAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkAKQAsAFwAbgAxADcALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACwAQwBDACgAdgAsADEANgApACwAQwBDACgAdgAsADEANwApACkALABcAG4AMQA4ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQAsAEMAQwAoAHYALAAxADYAKQAsAEMAQwAoAHYALAAxADcAKQAsAEMAQwAoAHYALAAxADgAKQApACwAXABuADEAOQAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkALABDAEMAKAB2ACwAMQA3ACkALABDAEMAKAB2ACwAMQA4ACkALABDAEMAKAB2ACwAMQA5ACkAKQAsAFwAbgAyADAALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACwAQwBDACgAdgAsADEANgApACwAQwBDACgAdgAsADEANwApACwAQwBDACgAdgAsADEAOAApACwAQwBDACgAdgAsADEAOQApACwAQwBDACgAdgAsADIAMAApACkALABcAG4AXAAiAE4AZQBlAGQAIAB0AG8AIABlAHgAdABlAG4AZAAgAHQAaABlACAAYwB1AHIAcgB5ACAAZgB1AG4AYwB0AGkAbwBuAFwAIgApACkAKQA7AFwAbgBcAG4ALwAvAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABtAGkAbQBpAGMAcwAgAGEAIABTAEMAQQBOACwAIABiAHUAdAAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQAgAGkAcwAgAGEAbgAgAGEAcgByAGEAeQAgAGMAYQBsAGwAZQBkACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAbgAvAC8AVABoAGUAIABhAHIAcgBhAHkAIABpAHMAIABhACAAZwByAG8AdQBwACAAbwBmACAAYwBvAGwAdQBtAG4AcwAgAHQAbwAgAHcAbwByAGsAIAB0AGgAcgBvAHUAZwBoACAAYQB0ACAAZQBhAGMAaAAgAHIAbwB3AC4AXABuAC8ALwBUAGgAZQAgAEwAQQBNAEIARABBACAAZgB1AG4AYwB0AGkAbwBuACAAbQB1AHMAdAAgAHIAZQB0AHUAcgBuACAAYQAgAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5AC4AIABUAGgAZQAgAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5ACAAbQB1AHMAdAAgAGIAZQAgAGEAdAAgAGwAZQBhAHMAdAAgAGEAcwAgAGwAbwBuAGcAIABhAHMAIAB0AGgAZQAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALgBcAG4ALwAvAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABpAHMAIABuAG8AdAAgAG0AZQBhAG4AdAAgAHQAbwAgAGIAZQAgAGMAYQBsAGwAZQBkACAAbwBuACAAaQB0AHMAIABvAHcAbgBcAG4ATQB1AGwAdABpAFMAYwBhAG4ASABlAGwAcABlAHIAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5ACwAYQByAHIAYQB5ACwAZgB1AG4AYwB0AGkAbwBuACwAbwB1AHQAcAB1AHQAXwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABwAHIAZQB2AF8AcwBpAHoAZQAsAEMATwBMAFUATQBOAFMAKABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQByAHIAXwBzAGkAegBlACwAUgBPAFcAUwAoAGEAcgByAGEAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAYQByAGEAXwB2AGUAYwB0AG8AcgAsAEgAUwBUAEEAQwBLACgAQwBIAE8ATwBTAEUAUgBPAFcAUwAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALAAxACkALABDAEgATwBPAFMARQBSAE8AVwBTACgAYQByAHIAYQB5ACwAMQApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALAAgAEMAdQByAHIAeQAoAHAAYQByAGEAXwB2AGUAYwB0AG8AcgAsAGYAdQBuAGMAdABpAG8AbgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGgAbwBsAGQAbwB2AGUAcgAsAFQAQQBLAEUAKAByAGUAcwB1AGwAdAAsADEALABwAHIAZQB2AF8AcwBpAHoAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG4AZQB4AHQAXwBvAHUAdABwAHUAdAAsAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAbwB1AHQAcAB1AHQAXwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0ACwAVgBTAFQAQQBDAEsAKABvAHUAdABwAHUAdABfACwAcgBlAHMAdQBsAHQAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGEAcgByAF8AcwBpAHoAZQAtADEAPQAwACwAbgBlAHgAdABfAG8AdQB0AHAAdQB0ACwAIABNAHUAbAB0AGkAUwBjAGEAbgBIAGUAbABwAGUAcgAoAGgAbwBsAGQAbwB2AGUAcgAsAEQAUgBPAFAAKABhAHIAcgBhAHkALAAxACkALABmAHUAbgBjAHQAaQBvAG4ALABuAGUAeAB0AF8AbwB1AHQAcAB1AHQAKQApACkAKQA7AFwAbgBcAG4ALwAvAFQAaABpAHMAIABmAHUAbgBjAHQAaQBvAG4AIABtAGkAbQBpAGMAcwAgAGEAIABTAEMAQQBOACwAIABiAHUAdAAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQAgAGkAcwAgAGEAbgAgAGEAcgByAGEAeQAgAGMAYQBsAGwAZQBkACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAbgAvAC8AVABoAGUAIABhAHIAcgBhAHkAIABpAHMAIABhACAAZwByAG8AdQBwACAAbwBmACAAYwBvAGwAdQBtAG4AcwAgAHQAbwAgAHcAbwByAGsAIAB0AGgAcgBvAHUAZwBoACAAYQB0ACAAZQBhAGMAaAAgAHIAbwB3AC4AXABuAC8ALwBUAGgAZQAgAEwAQQBNAEIARABBACAAZgB1AG4AYwB0AGkAbwBuACAAbQB1AHMAdAAgAHIAZQB0AHUAcgBuACAAYQAgAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5AC4AIABUAGgAZQAgAGMAbwBsAHUAbQBuACAAYQByAHIAYQB5ACAAbQB1AHMAdAAgAGIAZQAgAGEAdAAgAGwAZQBhAHMAdAAgAGEAcwAgAGwAbwBuAGcAIABhAHMAIAB0AGgAZQAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALgBcAHQAXAB0AFwAdABcAHQAXAB0ACAAIAAgAFwAbgBNAHUAbAB0AGkAUwBDAEEATgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5ACwAYQByAHIAYQB5ACwAZgB1AG4AYwB0AGkAbwBuACwATQB1AGwAdABpAFMAYwBhAG4ASABlAGwAcABlAHIAKABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5ACwAYQByAHIAYQB5ACwAZgB1AG4AYwB0AGkAbwBuACwAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAG0AaQBtAGkAYwBzACAAYQAgAFMAQwBBAE4ALAAgAGIAdQB0ACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlACAAaQBzACAAYQBuACAAYQByAHIAYQB5ACAAYwBhAGwAbABlAGQAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXABuAC8ALwBUAGgAZQAgAGEAcgByAGEAeQAgAGkAcwAgAGEAIABnAHIAbwB1AHAAIABvAGYAIABjAG8AbAB1AG0AbgBzACAAdABvACAAdwBvAHIAawAgAHQAaAByAG8AdQBnAGgAIABhAHQAIABlAGEAYwBoACAAcgBvAHcALgBcAG4ALwAvAFQAaABlACAATABBAE0AQgBEAEEAIABmAHUAbgBjAHQAaQBvAG4AIABtAHUAcwB0ACAAcgBlAHQAdQByAG4AIABhACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkALgAgAFQAaABlACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIABtAHUAcwB0ACAAYgBlACAAYQB0ACAAbABlAGEAcwB0ACAAYQBzACAAbABvAG4AZwAgAGEAcwAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAdABcAHQAXAB0AFwAdABcAHQAIAAgACAAXABuAC8ALwBJAGwAbAB1AHMAdAByAGEAdABlACAAdwBvAHIAawBzACAAbABpAGsAZQAgAE0AdQBsAGkAdABTAEMAQQBOACAAYQBuAGQAIABhAGQAZABzACAAYQAgAGgAZQBhAGQAZQByACAAYQB0ACAAdABoAGUAIAB0AG8AcAAuAFwAbgBJAGwAbAB1AHMAdAByAGEAdABlACAAPQBMAEEATQBCAEQAQQAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALABoAGUAYQBkAGUAcgAsAFYAUwBUAEEAQwBLACgAaABlAGEAZABlAHIALABNAHUAbAB0AGkAUwBjAGEAbgBIAGUAbABwAGUAcgAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALAApACkAKQA7ACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAFYAQQAuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAiACwAIgBWAEEALgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACIALAAiAFYAQQAuAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACIALAAiAFYAQQAuAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAIgAsACIAVgBBAC4ASQBuAGkAdABpAGEAbABDAHUAcgByAGUAbgB0AEkAbgBjAG8AbQBlAEIAYQBzAGUAIgAsACIAVgBBAC4ASQBuAGMAbwBtAGUAQgBhAHMAZQBBAGQAagB1AHMAdABtAGUAbgB0ACIALAAiAFYAQQAuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIgAsACIAVgBBAC4ATQBhAHgAQQBsAGwAbwB3AGEAYgBsAGUAVwBkAEEAbQBvAHUAbgB0ACIALAAiAFYAQQAuAE0AYQB3AFMAdABhAGMAawAiACwAIgBWAEEALgBQAHIAbwB0AGUAYwB0AGUAZABJAG4AYwBvAG0AZQBQAGEAeQBtAGUAbgB0ACIALAAiAFYAQQAuAEkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkAIgAsACIAVgBBAC4ASQBzAEEAYwB0AGkAdgBhAHQAZQBkACIALAAiAFYAQQAuAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACIALAAiAFYAQQAuAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AIgAsACIAVgBBAC4AVwBkAEgAYQBpAHIAYwB1AHQAQQBmAHQAZQByAEEAYwB0AGkAdgBhAHQAaQBvAG4AIgAsACIAVgBBAC4ATQBpAG4AaQBtAHUAbQBJAG4AYwBvAG0AZQBCAGEAcwBlACIALAAiAFYAQQAuAFMAdABlAHAAVQBwAFYAYQBsAHUAZQAiACwAIgBWAEEALgBQAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIgAsACIAVgBBAC4AUABvAHMAdABBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIgAsACIAVgBBAC4AVwBpAHQAaABkAHIAYQB3AGEAbABQAGUAbgBhAGwAdAB5AEQAYQBpAGwAeQAiACwAIgBWAEEALgBNAGEAeABBAGwAbABvAHcAVwBkAEEAbQBvAHUAbgB0AEQAYQBpAGwAeQAiACwAIgBWAEEALgBNAGEAdwBTAHQAYQBjAGsARABhAGkAbAB5ACIALAAiAFUAdABpAGwAcwAuAE4AZQB3AHQAbwBuAFIAYQBwAGgAcwBvAG4AIgAsACIAVQB0AGkAbABzAC4ATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACIALAAiAFUAdABpAGwAcwAuAGUAcgByAG8AcgBNAGUAcwBzAGEAZwBlACIALAAiAFUAdABpAGwAcwAuAEcAZQB0AE0AbwByAHQAUwBvAGEATwByAGcAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAiACwAIgBVAHQAaQBsAHMALgBGAGkAbAB0AGUAcgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAYwB0AGkAdgBlAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAIgAsACIAVQB0AGkAbABzAC4ARwBlAHQATQBvAHIAdABhAGwAaQB0AHkAVABhAGIAbABlACIALAAiAFUAdABpAGwAcwAuAEMAbwBtAGIAbwBTAEMAQQBOADIAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4AMwAiACwAIgBVAHQAaQBsAHMALgBDAG8AbQBiAG8AUwBDAEEATgA0ACIALAAiAFUAdABpAGwAcwAuAEMAbwBtAGIAbwBTAEMAQQBOADUAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4ANgAiACwAIgBVAHQAaQBsAHMALgBDAEMAIgAsACIAVQB0AGkAbABzAC4AQwB1AHIAcgB5ACIALAAiAFUAdABpAGwAcwAuAE0AdQBsAHQAaQBTAGMAYQBuAEgAZQBsAHAAZQByACIALAAiAFUAdABpAGwAcwAuAE0AdQBsAHQAaQBTAEMAQQBOACIALAAiAFUAdABpAGwAcwAuAEkAbABsAHUAcwB0AHIAYQB0AGUAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBWAEEAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAOgAgAFQAaABlACAAZABhAHQAZQAgAG8AbgAgAHcAaABpAGMAaAAgAHkAbwB1AHIAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGkAcwAgAGEAYwB0AGkAdgBhAHQAZQBkAC4AIABVAHAAbwBuACAAYQBjAHQAaQB2AGEAdABpAG8AbgAgAG8AZgAgAEwAaQBmAGUAdABpAG0AZQAgAEkAbgBjAG8AbQBlACwAIABjAGgAYQBuAGcAZQBzACAAYwBhAG4AbgBvAHQAIABiAGUAIABtAGEAZABlACAAdABvACAAdABoAGUAIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AKABzACkAIABvAHIAIABJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuAHMALgAgAFwAbgAvAC8AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABUAGgAZQAgAGMAbwBuAHQAcgBhAGMAdAAgAHYAYQBsAHUAZQAgAG8AbgAgAGEAbgB5ACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkALgAgAFQAaABlACAAQwBvAG4AdABpAG4AdQBhAHQAaQBvAG4AIABDAG8AbgB0AHIAaQBiAHUAdABpAG8AbgAsACAAaQBmACAAYQBwAHAAbABpAGMAYQBiAGwAZQAsACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAaQBuACAAdABoAGUAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AIABvAGYAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAcwAuACAAUABsAGUAYQBzAGUAIABzAGUAZQAgAFMAUABPAFUAUwBBAEwAIABDAE8ATgBUAEkATgBVAEEAVABJAE8ATgAgAGIAZQBsAG8AdwAuAFwAbgAvAC8AQgBlAG4AZQBmAGkAdAAgAEUAZgBmAGUAYwB0AGkAdgBlACAARABhAHQAZQA6ACAAVABoAGUAIABkAGEAdABlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABpAHMAIABlAGwAZQBjAHQAZQBkAC4AIABUAGgAZQAgAEIAZQBuAGUAZgBpAHQAIABFAGYAZgBlAGMAdABpAHYAZQAgAEQAYQB0AGUAIABpAHMAIAB0AGgAZQAgAHMAYQBtAGUAIABhAHMAIAB0AGgAZQAgAEMAbwBuAHQAcgBhAGMAdAAgAEkAcwBzAHUAZQAgAEQAYQB0AGUALgBcAG4ALwAvAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByADoAIABFAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgADoAVABoAGUAIABkAGEAdABlACAAZgBvAGwAbABvAHcAaQBuAGcAIABlAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AIABJAGYAIAB0AGgAZQAgAG4AZQB4AHQAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGgAYQBzACAAbgBvACAAYwBvAHIAcgBlAHMAcABvAG4AZABpAG4AZwAgAGQAYQB0AGUALAAgAHQAaABlAG4AIAB0AGgAZQAgAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAdwBpAGwAbAAgAGIAZQAgAGQAZQBlAG0AZQBkACAAdABvACAAYgBlACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAGQAYQB5AC4AXABuAC8ALwBGAG8AcgAgAGUAeABhAG0AcABsAGUALAAgAGkAZgAgAGEAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGkAcwAgAE4AbwB2AGUAbQBiAGUAcgAgADIAOQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABGAGUAYgByAHUAYQByAHkAIAAyADkAIABvAGYAIAB0AGgAZQAgAGYAbwBsAGwAbwB3AGkAbgBnACAAeQBlAGEAcgA7ACAAaABvAHcAZQB2AGUAcgAsACAAaQBuACAAYQAgAG4AbwBuAC0ATABlAGEAcAAgAFkAZQBhAHIALAAgAHQAaABlAHIAZQAgAGkAcwAgAG4AbwAgAGMAbwByAHIAZQBzAHAAbwBuAGQAaQBuAGcAIABkAGEAdABlAC4AIABUAGgAZQByAGUAZgBvAHIAZQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABNAGEAcgBjAGgAIAAxAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgA6ACAARQBhAGMAaAAgAGMAbwBuAHMAZQBjAHUAdABpAHYAZQAgAG8AbgBlACAAeQBlAGEAcgAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQA6ACAAVABoAGUAIABkAGEAdABlACAAbwBuACAAdwBoAGkAYwBoACAAZQBhAGMAaAAgAEIAZQBuAGUAZgBpAHQAIABZAGUAYQByACAAYgBlAGcAaQBuAHMALgBcAG4ALwAvAEMAbwBuAHQAcgBhAGMAdAAgAFkAZQBhAHIAOgAgAEUAYQBjAGgAIABjAG8AbgBzAGUAYwB1AHQAaQB2AGUAIABvAG4AZQAgAHkAZQBhAHIAIABwAGUAcgBpAG8AZAAgAHMAdABhAHIAdABpAG4AZwAgAG8AbgAgAHQAaABlACAAQwBvAG4AdAByAGEAYwB0ACAASQBzAHMAdQBlACAARABhAHQAZQAuAFwAbgAvAC8AQwBvAHYAZQByAGUAZAAgAFAAZQByAHMAbwBuACgAcwApADoAIABUAGgAZQAgAHAAZQByAHMAbwBuACwAIABvAHIAIABwAGUAcgBzAG8AbgBzACwAIAB3AGgAbwBzAGUAIABsAGkAZgBlAHQAaQBtAGUAIAB3AGkAdABoAGQAcgBhAHcAYQBsAHMAIABhAHIAZQAgAGcAdQBhAHIAYQBuAHQAZQBlAGQAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQB2AGkAbgBnACAAQgBlAG4AZQBmAGkAdAAuACAAXABuAC8ALwBDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AIABDAGgAYQBuAGcAZQBzADoAIABUAGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAG0AYQB5ACAAYgBlACAAYwBoAGEAbgBnAGUAZAAgAGkAbgAgAHQAaABlACAAZQB2AGUAbgB0ACAAbwBmACAATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ACAAcAByAGkAbwByACAAdABvACAAbwByACAAbwBuACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAuACAATgBvACAAZgB1AHIAdABoAGUAcgAgAGMAaABhAG4AZwBlAHMAIABtAGEAeQAgAGIAZQAgAG0AYQBkAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALgBcAG4AXABuAFwAbgBcAG4ALwAvAEUAeABjAGUAcwBzACAAVwBpAHQAaABkAHIAYQB3AGEAbAA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACwAIABvAHIAIABwAG8AcgB0AGkAbwBuACAAbwBmACAAYQAgAHcAaQB0AGgAZAByAGEAdwBhAGwALAAgAHQAaABhAHQAIABpAHMAIAB0AGEAawBlAG4AIABpAG4AIABhACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABhAGYAdABlAHIAIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBuAGQAXABuAC8ALwBlAHgAYwBlAGUAZABzACAAdABoAGUAIABnAHIAZQBhAHQAZQByACAAbwBmACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAHcAaQB0AGgAbwB1AHQAIAByAGUAZAB1AGMAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAFwAbgAvAC8AbwByACAAdABoAGUAIABSAGUAcQB1AGkAcgBlAGQAIABNAGkAbgBpAG0AdQBtACAARABpAHMAdAByAGkAYgB1AHQAaQBvAG4AIABhAG0AbwB1AG4AdAAgAGEAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABiAHkAIAB0AGgAZQAgAEEAbgBuAHUAaQB0AHkAIABTAGUAcgB2AGkAYwBlACAAQwBlAG4AdABlAHIALgAgAFwAbgAvAC8AQQBuACAARQB4AGMAZQBzAHMAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAdwBpAGwAbAAgAGMAYQB1AHMAZQAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAYQBuAGQAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAHQAbwAgAGIAZQAgAHIAZQBjAGEAbABjAHUAbABhAHQAZQBkAC4AXABuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAEMAdgAsAGMAdgAsAHAATQBhAHcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbgBvAFcAZAAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAFcAZAAsACAAMQAgAC0AIABNAEEAWAAoADAALAAgAHcAZABUAGEAawBlAG4AIAAtACAAcABNAGEAdwApACAALwAgACgAcABDAHYAIAAtACAAcABNAGEAdwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgADEAIAAtACAAdwBkAFQAYQBrAGUAbgAgAC8AIABjAHYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAdwBkAFQAYQBrAGUAbgAgADwAPgAgADAALAAgAEkARgAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsACAAcAByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQAKQAsACAAbgBvAFcAZAApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ALwAvAEgAaQBnAGgAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABGAG8AcgAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACwAIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAIAB0AGgAYQB0ACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAEkAbgBjAG8AbQBlACAAQgBhAHMAZQA6ACAAVABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABhACAAdgBhAGwAdQBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABmAGUAZQAgAGEAbgBkACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAIAB3AGkAdABoAG8AdQB0ACAAcgBlAGQAdQBjAGkAbgBnACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAFQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAaQBzACAAYQBsAHMAbwAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAYQBtAG8AdQBuAHQAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAsACAAaQBmACAAYQBuAGQAIAB3AGgAZQBuACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIAByAGUAZAB1AGMAZQBkACAAdABvACAAegBlAHIAbwAsACAAYgB1AHQAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAGkAcwAgAHMAdABpAGwAbAAgAGcAcgBlAGEAdABlAHIAIAB0AGgAYQBuACAAegBlAHIAbwAsACAAbwByACAAdQBwAG8AbgAgAHQAaABlACAATABhAHQAZQBzAHQAIABBAG4AbgB1AGkAdAB5ACAARABhAHQAZQAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGgAYQBzAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACwAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAHAAdQByAGMAaABhAHMAZQBQAGEAeQBtAGUAbgB0AHMALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABwAHIAZQB2AEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKwBwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACsAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACkAKgB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAMAApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ADoAIABBAHAAcABsAGkAYwBhAGIAbABlACAAdABvACAAUABvAGwAYQByAGkAcwAgAEkAbgBjAG8AbQBlACAATQBhAHgAIABvAG4AbAB5ACwAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABpAHMAIABhAG4AIABhAG0AbwB1AG4AdAAgAHQAaABhAHQAIABtAGEAeQAgAGIAZQAgAGEAZABkAGUAZAAgAHQAbwAgAHQAaABlACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBzACAAcwBoAG8AdwBuACAAaQBuACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAHQAYQBiAGwAZQA6AFwAbgAvAC8ASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAOgAgAEEAcABwAGwAaQBjAGEAYgBsAGUAIAB0AG8AIABQAG8AbABhAHIAaQBzACAASQBuAGMAbwBtAGUAIABNAGEAeAAgAG8AbgBsAHkALAAgAHQAaABlACAASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAIABpAHMAIAB1AHMAZQBkACAAcwBvAGwAZQBsAHkAIABhAHMAIABhACAAYgBhAHMAaQBzACAAZgBvAHIAIABjAGEAbABjAHUAbABhAHQAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAQQBwAHAAbABpAGMAYQBiAGwAZQAgAHQAbwAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACAAbwBuAGwAeQAsACAAYQAgAHAAZQByAGMAZQBuAHQAYQBnAGUAIABvAGYAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABCAGEAcwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAYQBtAG8AdQBuAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuADoAIABUAGgAZQAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIABpAHMAIABlAGwAZQBjAHQAZQBkACAAYgB5ACAAWQBvAHUAIABhAHQAIABjAG8AbgB0AHIAYQBjAHQAIABpAHMAcwB1AGUALgAgAFQAaABlACAATQBhAHgAaQBtAHUAbQAgAEEAbgBuAHUAYQBsACAAVwBpAHQAaABkAHIAYQB3AGEAbAAgAEEAbQBvAHUAbgB0AHMAIABhAG4AZAAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AHMAIABvAGYAZgBlAHIAZQBkACAAaQBuACAAZQBhAGMAaAAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIAB2AGEAcgB5ACAAYgB5ACAAYQBnAGUAIABhAG4AZAAgAHcAaABlAHQAaABlAHIAIAB5AG8AdQAgAGUAbABlAGMAdAAgAG8AbgBlACAAbwByACAAdAB3AG8AIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AcwAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAAgAD0AIABMAEEATQBCAEQAQQAoAHAAYQB5AFAAZQByAGkAbwBkACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAcABpAGMAYgAsAEkARgAoAHAAYQB5AFAAZQByAGkAbwBkAD4AMAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAFAAcgBlAFMAeQBzAFcAZABPAG4AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAQQBOAEQAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBQAHIAZQBTAHkAcwBXAGQATwBuAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAaQBjAGIAKgBpAG4AYwBvAG0AZQBDAHIAZQBkAFIAYQB0AGUALAAwACkAKQApADsAXABuAFwAbgBBAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAYQB5AFAAZQByAGkAbwBkACwAYwB2ACwASQBGACgATwBSACgATgBPAFQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACkALABwAGEAeQBQAGUAcgBpAG8AZAA9ADAAKQAsADAALABjAHYAKQApADsAXABuAFwAbgBJAG4AaQB0AGkAYQBsAEMAdQByAHIAZQBuAHQASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABwAHIAZQB2AEkAQgAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYALABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACwAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALAAgAE0AQQBYACgAcAByAGUAdgBJAEIALAAgAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAIAArACAAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACwAIABwAHIAZQB2AEkAQgAgACsAIABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkAIAAqACAAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAApADsAXABuAFwAbgBJAG4AYwBvAG0AZQBCAGEAcwBlAEEAZABqAHUAcwB0AG0AZQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAcAByAGUAdgBJAEIALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGQAZQBsAHQAYQAsACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAgAC0AIABwAHIAZQB2AEkAQgAsACAASQBGACgAQQBOAEQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAIABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACkALAAgAE0AQQBYACgAMAAsACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAIAAtACAAZABlAGwAdABhACkALAAgADAAKQApACkAOwBcAG4AXABuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIAIAArACAAYQBkAGoAdQBzAHQAbQBlAG4AdAApADsAXABuAFwAbgBNAGEAeABBAGwAbABvAHcAYQBiAGwAZQBXAGQAQQBtAG8AdQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAHYALABpAG4AYwBvAG0AZQBCAGEAcwBlACwAbQBhAHcAZABSAGEAdABlACwAIABJAEYAKABjAHYAIAA+ACAAMAAsACAAaQBuAGMAbwBtAGUAQgBhAHMAZQAgACoAIABtAGEAdwBkAFIAYQB0AGUALAAgADAAKQApADsAXABuAFwAbgAvAC8ATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ADoAIABBACAAYwBoAGEAbgBnAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAHUAcABvAG4AIABtAGEAcgByAGkAYQBnAGUALAAgAGQAaQB2AG8AcgBjAGUAIABvAHIAIABkAGUAYQB0AGgAIABpAGYAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACAAdABhAGsAZQBuACAAbwBuACAAbwByACAAYQBmAHQAZQByACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAgAHQAaABhAHQAIABpAHMAIABhAGwAbAAgAG8AcgAgAHAAYQByAHQAIABvAGYAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAG8AcgAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAOgAgAFQAaABlACAAbQBhAHgAaQBtAHUAbQAgAGEAbQBvAHUAbgB0ACAAdABoAGEAdAAgAG0AYQB5ACAAYgBlACAAdwBpAHQAaABkAHIAYQB3AG4AIABlAGEAYwBoACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABvAG4AIABvAHIAIABhAGYAdABlAHIAIABhAGMAdABpAHYAYQB0AGkAbgBnACAATABpAGYAZQB0AGkAbQBlACAASQBuAGMAbwBtAGUAIABhAG4AZAAgAHcAaABpAGwAZQAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB6AGUAcgBvACAAdwBpAHQAaABvAHUAdAAgAHIAZQBkAHUAYwBpAG4AZwAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlAC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAVABoAGUAIABwAGUAcgBjAGUAbgB0AGEAZwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAIABhAHYAYQBpAGwAYQBiAGwAZQAgAGYAbwByACAAdwBpAHQAaABkAHIAYQB3AGEAbAAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAGEAYwB0AGkAdgBhAHQAaQBuAGcAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGEAbgBkACAAdwBoAGkAbABlACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8ALgBcAG4ATQBhAHcAUwB0AGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBDAHYALABwAHIAZQB2AEkAQgAsAHAAcgBlAHYASQBDAEIALABwAHIAZQB2AE0AYQB3AGEALABwAGEAeQBQAGUAcgBpAG8AZAAsAHcAZABUAGEAawBlAG4ALABjAHYALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAG0AYQB3AGQAUgBhAHQAZQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcABhAHkAUABlAHIAaQBvAGQALABjAHYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAHIAZQB2AEMAdgAsAGMAdgAsAHAAcgBlAHYATQBhAHcAYQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACgAcABhAHkAUABlAHIAaQBvAGQALABwAHIAZQB2AEkAQwBCACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsACAASQBuAGkAdABpAGEAbABDAHUAcgByAGUAbgB0AEkAbgBjAG8AbQBlAEIAYQBzAGUAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcAByAGUAdgBJAEIALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0AG0AZQBuAHQALAAgAEkAbgBjAG8AbQBlAEIAYQBzAGUAQQBkAGoAdQBzAHQAbQBlAG4AdAAoAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIALABwAHIAZQB2AEkAQgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAGQAagB1AHMAdABtAGUAbgB0AD4AMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUAKABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALABwAHIAZQB2AEkAQwBCACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAIABJAG4AYwBvAG0AZQBCAGEAcwBlACgAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsAGEAZABqAHUAcwB0AG0AZQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQB3AGEALAAgAE0AYQB4AEEAbABsAG8AdwBhAGIAbABlAFcAZABBAG0AbwB1AG4AdAAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABtAGEAdwBkAFIAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAYwB2ACwAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAG0AYQB3AGEALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAIABhAGQAagB1AHMAdABtAGUAbgB0ACwAIABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApADsAXABuAFwAbgAvAC8AUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQAOgAgAFQAaABlACAAYQBtAG8AdQBuAHQAIAB0AG8AIABiAGUAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALABcAG4ALwAvAGkAZgAgAGEAbgBkACAAdwBoAGUAbgAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAcgBlAGQAdQBjAGUAZAAgAHQAbwAgAHoAZQByAG8ALAAgAGIAdQB0ACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABzAHQAaQBsAGwAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8AIABvAHIAIABpAGYAIAB0AGgAZQAgAEwAYQB0AGUAcwB0ACAAQQBuAG4AdQBpAHQAeQAgAEQAYQB0AGUAIABoAGEAcwAgAGIAZQBlAG4AIAByAGUAYQBjAGgAZQBkAC4AXABuAC8ALwBQAHIAbwB0AGUAYwB0AGUAZAAgAEkAbgBjAG8AbQBlACAAUABhAHkAbQBlAG4AdAAgAFAAZQByAGMAZQBuAHQAYQBnAGUAOgAgAFQAaABlACAAcABlAHIAYwBlAG4AdABhAGcAZQAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQALgBcAG4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUAUABhAHkAbQBlAG4AdAAgAD0AIABMAEEATQBCAEQAQQAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABwAGkAcABfAHIAYQB0AGUALABJAEYAKABjAHYAPQAwACwAcABpAHAAXwByAGEAdABlACoAaQBuAGMAbwBtAGUAQgBhAHMAZQAsADAAKQApADsAXABuAFwAbgBJAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABwAGEAeQBQAGUAcgBpAG8AZAAtAEkATgBUACgAcABhAHkAUABlAHIAaQBvAGQAKQA9ADAAKQA7AFwAbgBcAG4ASQBzAEEAYwB0AGkAdgBhAHQAZQBkACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABhAGMAdABpAHYAYQB0AGkAbwBuAFAAZQByAGkAbwBkACwAcABhAHkAUABlAHIAaQBvAGQAPgA9AGEAYwB0AGkAdgBhAHQAaQBvAG4AUABlAHIAaQBvAGQAKQA7AFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvACAAUABvAGwAYQByAGkAcwAgAE0AYQB4ACAARABhAGkAbAB5ACAALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBZAGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAeQBlAGEAcgAsAHMAVQBwAFYAYQBsAHUAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbQB2ACAAIAAsAGkAZgAoAHAAcgBlAHYAWQBlAGEAcgA8AD4AeQBlAGEAcgAsAHMAVQBwAFYAYQBsAHUAZQAsAE0AQQBYACgAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABzAFUAcABWAGEAbAB1AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHkAbQB2ACwAaQBmACgAcAByAGUAdgBZAGUAYQByADwAPgB5AGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAG0AdgAsAHAAeQBtAHYAKQApACkAOwBcAG4AXABuAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAHcAZABUAGEAawBlAG4ALABDAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgApACwAdwBkAFQAYQBrAGUAbgAvAEMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALAAwACkAKQA7AFwAbgBcAG4AVwBkAEgAYQBpAHIAYwB1AHQAQQBmAHQAZQByAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABwAHIAZQB2AE0AYQB3AGEALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAVABhAGsAZQBuACwAYwB2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGgAYQBpAHIAYwB1AHQALAAoAHcAZABUAGEAawBlAG4ALQBwAHIAZQB2AE0AYQB3AGEAKQAvACgAYwB2AC0AcAByAGUAdgBNAGEAdwBhACkALABJAEYAKABBAE4ARAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4APgBwAHIAZQB2AE0AYQB3AGEAKQAsAGgAYQBpAHIAYwB1AHQALAAwACkAKQApADsAXABuAFwAbgBJAG4AdABlAHIAZQBzAHQATwBuAFAAYQB5AG0AZQBuAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYAWQBlAGEAcgAsAGEAYwBjAHUAbQBQAGEAeQAsAEYAdgBUAG8AdABhAGwALAB5AGUAYQByACwAcABhAHkALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAbQBpAGIAUABlAHIAYwBlAG4AdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYQBwACwAYQBjAGMAdQBtAFAAYQB5ACsAcABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgB0AGUAcgBlAHMAdABQAGEAeQAsAEkARgAoAHAAcgBlAHYAWQBlAGEAcgA8AD4AeQBlAGEAcgAsAGEAcAAqAG0AaQBiAFAAZQByAGMAZQBuAHQALAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAdgAsAEkARgAoAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAAwACwARgB2AFQAbwB0AGEAbAArAGkAbgB0AGUAcgBlAHMAdABQAGEAeQArAHAAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAGEAcAAsAGYAdgApACkAKQA7AFwAbgBcAG4AUwB0AGUAcABVAHAAVgBhAGwAdQBlACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALABwAHAASQBuAHYAZQBzAHQAZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALQBwAHAASQBuAHYAZQBzAHQAZQBkAD4ATQBBAFgAKABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACkALABjAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAMAApACkAOwBcAG4AXABuAFAAcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAGEAYwBjAHUAbQBQAGUAbgBhAGwAdAB5ACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAYQB5ACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsAHcAZABQAGUAbgBhAGwAdAB5ACwAYwB2ACwAZgB2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABhAHcAcAAsAGEAYwBjAHUAbQBQAGUAbgBhAGwAdAB5ACoAdwBkAFAAZQBuAGEAbAB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AaQBuAEkAYgAsAGYAdgAqAGEAdwBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAFUAcABWAGEAbAB1AGUALABTAHQAZQBwAFUAcABWAGEAbAB1AGUAKABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAYwB2ACwAcABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAQQBjAHQASQBCACwASQBGACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsADAALABNAEEAWAAoAHAAYQB5ACsAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAcwBVAHAAVgBhAGwAdQBlACwAbQBpAG4ASQBiACkAKgB3AGQAUABlAG4AYQBsAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAGEAdwBwACwAUAByAGUAQQBjAHQASQBCACwAcwBVAHAAVgBhAGwAdQBlACwAbQBpAG4ASQBiACkAKQApADsAXABuAFwAbgBQAG8AcwB0AEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYASQBCACwAdABpAG0AZQBGAHIAbwBtAFYAYQBsACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAGUAZABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABjAHYALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAUABlAG4AYQBsAHQAeQAsAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAWQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAHQAaQBtAGUARgByAG8AbQBWAGEAbAA9ADAALgAwACwAMAAuADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEATgBEACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAGUAZABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAGMAdgAsAHAAcgBlAHYASQBCACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUABZACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAcAByAGUAdgBJAEIALAAwACkAKgB3AGQAUABlAG4AYQBsAHQAeQApACkAKQA7AFwAbgBcAG4AVwBpAHQAaABkAHIAYQB3AGEAbABQAGUAbgBhAGwAdAB5AEQAYQBpAGwAeQAgAD0AIABMAEEATQBCAEQAQQAoAGgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwAdwBkAFQAYQBrAGUAbgAsAEkAcwBBAGMAdABpAHYAYQB0AGkAbwBuACwAQwBvAG4AdAByAGEAYwB0AFYAYQBsAHUAZQAsAHAAcgBlAHYATQBhAHcAYQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAtAEkARgAoAEEATgBEACgATgBPAFQAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAApACwAdwBkAFQAYQBrAGUAbgA+ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAHcAZABUAGEAawBlAG4ALABDAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAZABIAGEAaQByAGMAdQB0AEEAZgB0AGUAcgBBAGMAdABpAHYAYQB0AGkAbwBuACgAcAByAGUAdgBNAGEAdwBhACwASQBzAEEAYwB0AGkAdgBhAHQAaQBvAG4ALAB3AGQAVABhAGsAZQBuACwAQwBvAG4AdAByAGEAYwB0AFYAYQBsAHUAZQApACwAMAApACkAOwBcAG4AXABuAE0AYQB4AEEAbABsAG8AdwBXAGQAQQBtAG8AdQBuAHQARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALABJAEIALABtAGEAdwBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAApACwASQBCACoAbQBhAHcAZAAsADAAKQApADsAXABuAFwAbgBNAGEAdwBTAHQAYQBjAGsARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBZAGUAYQByACwAYQBjAGMAdQBtAFAAZQBuAGEAbAB0AHkALABwAHIAZQB2AEkAbgBjAG8AbQBlAEIAYQBzAGUALABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAcAByAGUAdgBNAGEAdwBhACwAeQBlAGEAcgAsAHAAYQB5ACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsAGMAdgAsAHQAaQBtAGUARgByAG8AbQBWAGEAbAAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABmAHYALABtAGEAdwBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAdwBkAFAAZQBuAGEAbAB0AHkALABXAGkAdABoAGQAcgBhAHcAYQBsAFAAZQBuAGEAbAB0AHkARABhAGkAbAB5ACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALAB3AGQAVABhAGsAZQBuACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAYwB2ACwAcAByAGUAdgBNAGEAdwBhACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAZQBBAGMAdABJAEIAQQBsAGwALABQAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAKABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHAAcgBlAHYAUwB0AGUAcABVAHAALABwAGEAeQAsAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAB3AGQAUABlAG4AYQBsAHQAeQAsAGMAdgAsAGYAdgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQB3AHAALABDAEgATwBPAFMARQBDAE8ATABTACgAcAByAGUAQQBjAHQASQBCAEEAbABsACwAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAGUAQQBjAHQASQBCACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAHAAcgBlAEEAYwB0AEkAQgBBAGwAbAAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABlAHAAVQBwAFYAYQBsAHUAZQAsAEMASABPAE8AUwBFAEMATwBMAFMAKABwAHIAZQBBAGMAdABJAEIAQQBsAGwALAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUALABDAEgATwBPAFMARQBDAE8ATABTACgAcAByAGUAQQBjAHQASQBCAEEAbABsACwANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAcwAsAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACgAcAByAGUAdgBZAGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAeQBlAGEAcgAsAHMAdABlAHAAVQBwAFYAYQBsAHUAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQB2ACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAHMALAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBQAFkALABDAEgATwBPAFMARQBDAE8ATABTACgAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAcwAsADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAbwBzAHQAQQBjAHQASQBCACwAUABvAHMAdABBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAKABwAHIAZQB2AEkAbgBjAG8AbQBlAEIAYQBzAGUALAB0AGkAbQBlAEYAcgBvAG0AVgBhAGwALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGMAdgAsAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABQAGUAbgBhAGwAdAB5ACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUABZACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAGUAQQBjAHQASQBCACsAcABvAHMAdABBAGMAdABJAEIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAdwBhACwATQBhAHgAQQBsAGwAbwB3AFcAZABBAG0AbwB1AG4AdABEAGEAaQBsAHkAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABtAGEAdwBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAHkAZQBhAHIALABhAHcAcAAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABzAHQAZQBwAFUAcABWAGEAbAB1AGUALABtAHYALABtAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBQAFkALABtAGEAdwBhACwAdwBkAFAAZQBuAGEAbAB0AHkALABtAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUAKQApACkAOwAgAFwAbgBcAG4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgASABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALABJAHMAQQBuAG4ALABJAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAG8AdABlAGMAdABlAGQASQBuAGMAUABlAHIALABJAEYAKABBAE4ARAAoAEgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwASQBzAEEAbgBuACkALABwAHIAbwB0AGUAYwB0AGUAZABJAG4AYwBQAGUAcgAqAEkAbgBjAG8AbQBlAEIAYQBzAGUALAAwACkAKQA7ACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8AVQB0AGkAbABzACIALAAiAHQAZQB4AHQAIgA6ACIALwAvAEYAaQBuAGQAcwAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAgAGEAIABwAG8AbAB5AG4AbwBtAGkAYQBsACAAZwBpAHYAZQBuACAAYQBuACAAaQBuAGkAdABpAGEAbAAgAGcAdQBlAHMAcwAsACAAdABoAGUAIABwAG8AbAB5AG4AbwBtAGkAYQBsACwAIABpAHQAcwAgAGQAZQByAGkAdgBhAHQAaQB2AGUALAAgAGEAbgBkACAAYQAgAHQAbwBsAGUAcgBhAG4AYwBlACAAXABuAC8ALwBFAHgAYQBtAHAAbABlACAAQwBhAGwAbAA6ACAATgBlAHcAdABvAG4AUgBhAHAAaABzAG8AbgAoADMALABMAEEATQBCAEQAQQAoAHgALAAoAHgALQAxACkAXgAyACkALABMAEEATQBCAEQAQQAoAHgALAAyACoAKAB4AC0AMQApACkALAAwAC4AMAAwADAAMAAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwBOAGUAdwB0AG8AbgBSAGEAcABoAHMAbwBuACgAMwAsAEwAQQBNAEIARABBACgAeAAsACgAeAAtADEAKQBeADIAKQAsAEwAQQBNAEIARABBACgAeAAsADIAKgAoAHgALQAxACkAKQAsACkAIAAgAFwAbgBOAGUAdwB0AG8AbgBSAGEAcABoAHMAbwBuACAAPQAgAEwAYQBtAGIAZABhACgAZwB1AGUAcwBzACwAeQAsAGQAeQAsAHQAbwBsAGUAcgBhAG4AYwBlAF8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABlAHQAKAB4AG4ALAAgAGcAdQBlAHMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAbwBsAGUAcgBhAG4AYwBlACwASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB0AG8AbABlAHIAYQBuAGMAZQBfACkALAAwAC4AMAAwADAAMQAsAHQAbwBsAGUAcgBhAG4AYwBlAF8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHgAbgBfADEALAAgAHgAbgAgAC0AIAB5ACgAeABuACkALwBkAHkAKAB4AG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAZgAoAEEAQgBTACgAeABuAF8AMQAgAC0AIAB4AG4AKQA8ACAAdABvAGwAZQByAGEAbgBjAGUALAB4AG4ALAAgAE4AZQB3AHQAbwBuAFIAYQBwAGgAcwBvAG4AKAB4AG4AXwAxACwAeQAsAGQAeQAsAHQAbwBsAGUAcgBhAG4AYwBlACkAKQApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACAAPQAgAFwAIgBoAHQAdABwAHMAOgAvAC8AbQBvAHIAdAAuAHMAbwBhAC4AbwByAGcALwBkAGEAdABhAC8AXAAiADsAXABuAGUAcgByAG8AcgBNAGUAcwBzAGEAZwBlACAAPQAgAFwAIgBEAG8AZQBzACAATgBvAHQAIABFAHgAaQBzAHQAXAAiADsAXABuAFwAbgAvAC8ARQB4AGEAbQBwAGwAZQAgAEMAYQBsAGwAcwA6AFwAbgAvAC8AIAAgACAAIAA9AEcAZQB0AE0AbwByAHQAUwBvAGEATwByAGcAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAoADEAKQAgAHQAbwAgAGcAZQB0ACAAdABoAGUAIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAaQBkACAAYQBuAGQAIABuAGEAbQBlAC4AXABuAC8ALwAgACAAIAAgAD0ARwBlAHQATQBvAHIAdABTAG8AYQBPAHIAZwBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACgAUwBFAFEAVQBFAE4AQwBFACgAMQAwADAALAAsADEAKQApACAAdABvACAAZwBlAHQAIABhACAAbABpAHMAdAAgAG8AZgAgAHQAYQBiAGwAZQAgAGkAZABzACAAYQBuAGQAIABuAGEAbQBlAHMALgAgACAAIAAgACAAIAAgAFwAbgBHAGUAdABNAG8AcgB0AFMAbwBhAE8AcgBnAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAIAAgAD0AIABMAEEATQBCAEQAQQAoAHQAYQBiAGwAZQBOAHUAbQBiAGUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoACAAIAAgAGYAaQBsAGUATgBhAG0AZQAsACAATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACAAJgAgAFwAIgB0AFwAIgAmAHQAYQBiAGwAZQBOAHUAbQBiAGUAcgAmAFwAIgAuAHgAbQBsAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHgAcABhAHQAaAAsAFwAIgAvAC8AVABhAGIAbABlAE4AYQBtAGUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBpAGwAdABlAHIAZQBkAFgAbQBsACwARgBJAEwAVABFAFIAWABNAEwAKABXAEUAQgBTAEUAUgBWAEkAQwBFACgARgBpAGwAZQBOAGEAbQBlACkALAB4AHAAYQB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAdABlAG0AMQAsACAAdABhAGIAbABlAE4AdQBtAGIAZQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQB0AGUAbQAyACwAIABJAEYARQBSAFIATwBSACgAZgBpAGwAdABlAHIAZQBkAFgAbQBsACwAZQByAHIAbwByAE0AZQBzAHMAYQBnAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAaQB0AGUAbQAxACwAaQB0AGUAbQAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQApADsAXABuAC8ALwBFAHgAYQBtAHAAbABlACAAQwBhAGwAbAA6AFwAbgAvAC8AIAAgACAAIABGAGkAbAB0AGUAcgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAYwB0AGkAdgBlAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAKAAkAEEAJAAyACMAKQAgAHQAbwAgAGYAaQBsAHQAZQByACAAdABoAGUAIABsAGkAcwB0ACAAbwBmACAAdABhAGIAbABlAHMAIABkAG8AdwBuACAAdABoAGUAIABvAG4AZQBzACAAdABoAGEAdAAgAGUAeABpAHMAdAAsACAAdwBoAGUAcgBlACAAQQAyACMAIABjAG8AbgB0AGEAaQBuAHMAIAAvAC8AIAAvAC8APQBHAGUAdABNAG8AcgB0AFMAbwBhAE8AcgBnAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAKABTAEUAUQBVAEUATgBDAEUAKAAxADAAMAAsACwAMQApACkAXABuAEYAaQBsAHQAZQByAE0AbwByAHQAUwBvAGEATwByAGcAQQBjAHQAaQB2AGUAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAgAD0AIABMAGEAbQBiAGQAYQAoAHQAdwBvAEMAbwBsAHUAbQBuAEEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAAgAHIALAB0AHcAbwBDAG8AbAB1AG0AbgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKAByACwATwBGAEYAUwBFAFQAKAByACwAMAAsADEALAAsADEAKQAgADwAPgBlAHIAcgBvAHIATQBlAHMAcwBhAGcAZQApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ALwAvAEUAeABhAG0AcABsAGUAIABDAGEAbABsADoAXABuAC8ALwAgACAAIAAgAEcAZQB0AE0AbwByAHQAYQBsAGkAdAB5AFQAYQBiAGwAZQAoADEANAAsACwAKQAgAHQAbwAgAHIAZQB0AHIAaQBlAHYAZQAgAHQAaABlACAAdABhAGIAbABlACAAdwBpAHQAaAAgAEkAZAAgADEANAAsACAAbQBpAG4AIABhAGcAZQAgADAALAAgAGEAbgBkACAAbQBhAHgAIABhAGcAZQAgADEAMgAwAC4AXABuAC8ALwAgACAAIAAgAEcAZQB0AE0AbwByAHQAYQBsAGkAdAB5AFQAYQBiAGwAZQAoADEAMwAsADEAMAAsADEAMAAwACkAIAB0AG8AIAByAGUAdAByAGkAZQB2AGUAIAB0AGgAZQAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABJAGQAIAAxADMALAAgAG0AaQBuACAAYQBnAGUAIAAxADAALAAgAGEAbgBkACAAbQBhAHgAIABhAGcAZQAgADEAMAAuAFwAdABcAHQAXAB0AFwAdABcAHQAXAB0ACAAIABcAG4ARwBlAHQATQBvAHIAdABhAGwAaQB0AHkAVABhAGIAbABlACAAPQBMAEEATQBCAEQAQQAoAFQAYQBiAGwAZQBJAEQALABNAGkAbgBBAGcAZQBfACwATQBhAHgAQQBnAGUAXwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgATQBpAG4AQQBnAGUALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgATQBpAG4AQQBnAGUAXwApACwAMAAsAE0AaQBuAEEAZwBlAF8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBhAHgAQQBnAGUALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgATQBhAHgAQQBnAGUAXwApACwAMQAyADAALABNAGEAeABBAGcAZQBfACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAaQBsAGUAVAB5AHAAZQAsAFwAIgAuAHgAbQBsAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBlAGEAcgBjAGgAUwB0AHIAaQBuAGcALABcACIALwAvAEAAdAAgAHwAIAAvAC8AWQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAYQBiAGwAZQBOAGEAbQBlACwARQBOAEMATwBEAEUAVQBSAEwAKABcACIAdABcACIAJgBUAGEAYgBsAGUASQBEACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AbwByAHQAVABiAGwALAAgAFcAUgBBAFAAUgBPAFcAUwAoAEYASQBMAFQARQBSAFgATQBMACgAVwBFAEIAUwBFAFIAVgBJAEMARQAoAE0AbwByAHQAUwBvAGEATwByAGcAQQBkAGQAcgBlAHMAcwAgACYAVABhAGIAbABlAE4AYQBtAGUAIAAmACAARgBpAGwAZQBUAHkAcABlACkALAAgAFMAZQBhAHIAYwBoAFMAdAByAGkAbgBnACkALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABNAG8AcgB0AFQAYgBsACwAIAAoAEkATgBEAEUAWAAoAE0AbwByAHQAVABiAGwALAAgADAALAAgADIAKQAgAD4AIABNAGkAbgBBAGcAZQApACAAKgAgACgASQBOAEQARQBYACgATQBvAHIAdABUAGIAbAAsACAAMAAsACAAMgApACAAPAAgAE0AYQB4AEEAZwBlACkAKQApACkAOwBcAG4ALwAvAEMAbwBtAGIAbwBTAGMAYQBuACAAdwBpAGwAbAAgAGEAbABsACAAcwBjAGEAbgAgAG0AdQBsAHQAaQBwAGwAZQAgAGEAcgByAGEAeQBzAC4AIABUAGgAZQAgAHMAdQBwAHAAbABpAGUAZAAgAGYAdQBuAGMAdABpAG8AbgAgAHMAaABvAHUAbABkACAAaABhAHYAZQAgADEAIABtAG8AcgBlACAAcABhAHIAYQBtAGUAdABlAHIAIAB0AGgAYQBuACAAdABoAGUAIABhAHIAcgBhAHkAcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AVABoAGUAIABwAGEAcgBhAG0AZQB0AGUAcgAgAHQAaABhAHQAIAB0AGEAawBlAHMAIAB0AGgAZQAgAHAAcgBlAHYAaQBvAHUAcwAgAHYAYQBsAHUAZQAgAHMAaABvAHUAbABkACAAYQBsAHcAYQB5AHMAIABiAGUAIAB0AGgAZQAgAGwAYQBzAHQAIABvAG4AZQAgAGkAbgAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuAC4AXABuAFwAbgAvAC8AUwBjAGEAbgAgADIAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAAzACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4AMgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABhACwAYgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGMALABmAHUAbgBjAHQAaQBvAG4AKABhACwAYgAsAGMAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADMAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA0ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4AMwAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGYAdQBuAGMAdABpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYwBsAG8AcwB1AHIAZQAsACAATQBBAFAAKABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAZAAsAGYAdQBuAGMAdABpAG8AbgAoAGEALABiACwAYwAsAGQAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADQAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA1ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANAAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAZgB1AG4AYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABjAGwAbwBzAHUAcgBlACwAIABNAEEAUAAoAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGEALABiACwAYwAsAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABlACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACwAZAAsAGUAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADUAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA2ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANQAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAYQByAHIAYQB5ADUALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAGEAcgByAGEAeQAzACwAYQByAHIAYQB5ADQALABhAHIAcgBhAHkANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABhACwAYgAsAGMALABkACwAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGYALABmAHUAbgBjAHQAaQBvAG4AKABhACwAYgAsAGMALABkACwAZQAsAGYAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADYAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA3ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAYQByAHIAYQB5ADUALABhAHIAcgBhAHkANgAsAGYAdQBuAGMAdABpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYwBsAG8AcwB1AHIAZQAsACAATQBBAFAAKABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABhAHIAcgBhAHkANAAsAGEAcgByAGEAeQA1ACwAYQByAHIAYQB5ADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABjACwAZAAsAGUALABmACwATABBAE0AQgBEAEEAKABnACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACwAZAAsAGUALABmACwAZwApACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACwATABBAE0AQgBEAEEAKABwAHIAZQB2AFYAYQBsAHUAZQAsAGYAdQBuAGMALABmAHUAbgBjACgAcAByAGUAdgBWAGEAbAB1AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBDAEEATgAoAGkAbgBpAHQAVgBhAGwAdQBlACwAYwBsAG8AcwB1AHIAZQAsAHAAcgBvAGMAZQBzAHMAUwBlAHIAaQBlAHMAKQApACkAOwBcAG4AXABuAFwAbgAvAC8AUwBoAG8AcgB0ACAAYwB1AHQAIABmAG8AcgAgAEMASABPAE8AUwBFAEMATwBMAFMAXABuAEMAQwAgAD0AIABMAEEATQBCAEQAQQAoAEEAcgByAGEAeQAsAGkAbgBkAGUAeAAsAEMASABPAE8AUwBFAEMATwBMAFMAKABBAHIAcgBhAHkALABpAG4AZABlAHgAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGIAcgBlAGEAawBzACAAYQAgAHIAbwB3ACAAaQBuAHQAbwAgAHAAYQByAGEAbQBlAHQAZQByAHMAIABpAG4AdABvACAAYQAgAGYAdQBuAGMAdABpAG8AbgAuAFwAbgAvAC8AVABoAGkAcwAgAG0AYQB5ACAAbgBlAGUAZAAgAHQAbwAgAGIAZQAgAHUAcABkAGEAdABlAGQAIABpAGYAIABhACAAZgB1AG4AYwB0AGkAbwBuACAAaABhAHMAIABtAG8AcgBlACAAdABoAGEAbgAgADEANQAgAHAAYQByAGEAbQBlAHQAZQByAHMALgBcAG4AQwB1AHIAcgB5ACAAPQAgAEwAQQBNAEIARABBACgAYQByAHIAYQB5ACwAZgB1AG4AYwB0AGkAbwBuACwATABFAFQAKABmACwAZgB1AG4AYwB0AGkAbwBuACwAdgAsAEMASABPAE8AUwBFAFIATwBXAFMAKABhAHIAcgBhAHkALAAxACkALABTAFcASQBUAEMASAAoAEMATwBMAFUATQBOAFMAKABhAHIAcgBhAHkAKQAsAFwAbgAwACwAZgAoACkALABcAG4AMQAsAGYAKABDAEMAKAB2ACwAMQApACkALABcAG4AMgAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQApACwAXABuADMALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACkALABcAG4ANAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACkALABcAG4ANQAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQApACwAXABuADYALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACkALABcAG4ANwAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACkALABcAG4AOAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQApACwAXABuADkALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACkALABcAG4AMQAwACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQApACwAXABuADEAMQAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkAKQAsAFwAbgAxADIALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACkALABcAG4AMQAzACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQApACwAXABuADEANAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkAKQAsAFwAbgAxADUALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACkALABcAG4AMQA2ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQAsAEMAQwAoAHYALAAxADYAKQApACwAXABuADEANwAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkALABDAEMAKAB2ACwAMQA3ACkAKQAsAFwAbgAxADgALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACwAQwBDACgAdgAsADEANgApACwAQwBDACgAdgAsADEANwApACwAQwBDACgAdgAsADEAOAApACkALABcAG4AMQA5ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQAsAEMAQwAoAHYALAAxADYAKQAsAEMAQwAoAHYALAAxADcAKQAsAEMAQwAoAHYALAAxADgAKQAsAEMAQwAoAHYALAAxADkAKQApACwAXABuADIAMAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkALABDAEMAKAB2ACwAMQA3ACkALABDAEMAKAB2ACwAMQA4ACkALABDAEMAKAB2ACwAMQA5ACkALABDAEMAKAB2ACwAMgAwACkAKQAsAFwAbgBcACIATgBlAGUAZAAgAHQAbwAgAGUAeAB0AGUAbgBkACAAdABoAGUAIABjAHUAcgByAHkAIABmAHUAbgBjAHQAaQBvAG4AXAAiACkAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAG0AaQBtAGkAYwBzACAAYQAgAFMAQwBBAE4ALAAgAGIAdQB0ACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlACAAaQBzACAAYQBuACAAYQByAHIAYQB5ACAAYwBhAGwAbABlAGQAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXABuAC8ALwBUAGgAZQAgAGEAcgByAGEAeQAgAGkAcwAgAGEAIABnAHIAbwB1AHAAIABvAGYAIABjAG8AbAB1AG0AbgBzACAAdABvACAAdwBvAHIAawAgAHQAaAByAG8AdQBnAGgAIABhAHQAIABlAGEAYwBoACAAcgBvAHcALgBcAG4ALwAvAFQAaABlACAATABBAE0AQgBEAEEAIABmAHUAbgBjAHQAaQBvAG4AIABtAHUAcwB0ACAAcgBlAHQAdQByAG4AIABhACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkALgAgAFQAaABlACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIABtAHUAcwB0ACAAYgBlACAAYQB0ACAAbABlAGEAcwB0ACAAYQBzACAAbABvAG4AZwAgAGEAcwAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGkAcwAgAG4AbwB0ACAAbQBlAGEAbgB0ACAAdABvACAAYgBlACAAYwBhAGwAbABlAGQAIABvAG4AIABpAHQAcwAgAG8AdwBuAFwAbgBNAHUAbAB0AGkAUwBjAGEAbgBIAGUAbABwAGUAcgAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALABvAHUAdABwAHUAdABfACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAHAAcgBlAHYAXwBzAGkAegBlACwAQwBPAEwAVQBNAE4AUwAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABhAHIAcgBfAHMAaQB6AGUALABSAE8AVwBTACgAYQByAHIAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABhAHIAYQBfAHYAZQBjAHQAbwByACwASABTAFQAQQBDAEsAKABDAEgATwBPAFMARQBSAE8AVwBTACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsADEAKQAsAEMASABPAE8AUwBFAFIATwBXAFMAKABhAHIAcgBhAHkALAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAQwB1AHIAcgB5ACgAcABhAHIAYQBfAHYAZQBjAHQAbwByACwAZgB1AG4AYwB0AGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaABvAGwAZABvAHYAZQByACwAVABBAEsARQAoAHIAZQBzAHUAbAB0ACwAMQAsAHAAcgBlAHYAXwBzAGkAegBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHgAdABfAG8AdQB0AHAAdQB0ACwASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdABfACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALABWAFMAVABBAEMASwAoAG8AdQB0AHAAdQB0AF8ALAByAGUAcwB1AGwAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAYQByAHIAXwBzAGkAegBlAC0AMQA9ADAALABuAGUAeAB0AF8AbwB1AHQAcAB1AHQALAAgAE0AdQBsAHQAaQBTAGMAYQBuAEgAZQBsAHAAZQByACgAaABvAGwAZABvAHYAZQByACwARABSAE8AUAAoAGEAcgByAGEAeQAsADEAKQAsAGYAdQBuAGMAdABpAG8AbgAsAG4AZQB4AHQAXwBvAHUAdABwAHUAdAApACkAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAG0AaQBtAGkAYwBzACAAYQAgAFMAQwBBAE4ALAAgAGIAdQB0ACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlACAAaQBzACAAYQBuACAAYQByAHIAYQB5ACAAYwBhAGwAbABlAGQAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXABuAC8ALwBUAGgAZQAgAGEAcgByAGEAeQAgAGkAcwAgAGEAIABnAHIAbwB1AHAAIABvAGYAIABjAG8AbAB1AG0AbgBzACAAdABvACAAdwBvAHIAawAgAHQAaAByAG8AdQBnAGgAIABhAHQAIABlAGEAYwBoACAAcgBvAHcALgBcAG4ALwAvAFQAaABlACAATABBAE0AQgBEAEEAIABmAHUAbgBjAHQAaQBvAG4AIABtAHUAcwB0ACAAcgBlAHQAdQByAG4AIABhACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkALgAgAFQAaABlACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIABtAHUAcwB0ACAAYgBlACAAYQB0ACAAbABlAGEAcwB0ACAAYQBzACAAbABvAG4AZwAgAGEAcwAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAdABcAHQAXAB0AFwAdABcAHQAIAAgACAAXABuAE0AdQBsAHQAaQBTAEMAQQBOACAAPQBMAEEATQBCAEQAQQAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALABNAHUAbAB0AGkAUwBjAGEAbgBIAGUAbABwAGUAcgAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALAApACkAOwBcAG4AXABuAC8ALwBUAGgAaQBzACAAZgB1AG4AYwB0AGkAbwBuACAAbQBpAG0AaQBjAHMAIABhACAAUwBDAEEATgAsACAAYgB1AHQAIAB0AGgAZQAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAIABpAHMAIABhAG4AIABhAHIAcgBhAHkAIABjAGEAbABsAGUAZAAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALgBcAG4ALwAvAFQAaABlACAAYQByAHIAYQB5ACAAaQBzACAAYQAgAGcAcgBvAHUAcAAgAG8AZgAgAGMAbwBsAHUAbQBuAHMAIAB0AG8AIAB3AG8AcgBrACAAdABoAHIAbwB1AGcAaAAgAGEAdAAgAGUAYQBjAGgAIAByAG8AdwAuAFwAbgAvAC8AVABoAGUAIABMAEEATQBCAEQAQQAgAGYAdQBuAGMAdABpAG8AbgAgAG0AdQBzAHQAIAByAGUAdAB1AHIAbgAgAGEAIABjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAuACAAVABoAGUAIABjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAG0AdQBzAHQAIABiAGUAIABhAHQAIABsAGUAYQBzAHQAIABhAHMAIABsAG8AbgBnACAAYQBzACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXAB0AFwAdABcAHQAXAB0AFwAdAAgACAAIABcAG4ALwAvAEkAbABsAHUAcwB0AHIAYQB0AGUAIAB3AG8AcgBrAHMAIABsAGkAawBlACAATQB1AGwAaQB0AFMAQwBBAE4AIABhAG4AZAAgAGEAZABkAHMAIABhACAAaABlAGEAZABlAHIAIABhAHQAIAB0AGgAZQAgAHQAbwBwAC4AXABuAEkAbABsAHUAcwB0AHIAYQB0AGUAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsAGEAcgByAGEAeQAsAGYAdQBuAGMAdABpAG8AbgAsAGgAZQBhAGQAZQByACwAVgBTAFQAQQBDAEsAKABoAGUAYQBkAGUAcgAsAE0AdQBsAHQAaQBTAGMAYQBuAEgAZQBsAHAAZQByACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsAGEAcgByAGEAeQAsAGYAdQBuAGMAdABpAG8AbgAsACkAKQApADsAIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAVgBBAC4AVwBpAHQAaABkAHIAYQB3AGEAbABQAGUAbgBhAGwAdAB5ACIALAAiAFYAQQAuAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUAIgAsACIAVgBBAC4ASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAIgAsACIAVgBBAC4AQQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAiACwAIgBWAEEALgBJAG4AaQB0AGkAYQBsAEMAdQByAHIAZQBuAHQASQBuAGMAbwBtAGUAQgBhAHMAZQAiACwAIgBWAEEALgBJAG4AYwBvAG0AZQBCAGEAcwBlAEEAZABqAHUAcwB0AG0AZQBuAHQAIgAsACIAVgBBAC4ASQBuAGMAbwBtAGUAQgBhAHMAZQAiACwAIgBWAEEALgBNAGEAeABBAGwAbABvAHcAYQBiAGwAZQBXAGQAQQBtAG8AdQBuAHQAIgAsACIAVgBBAC4ATQBhAHcAUwB0AGEAYwBrACIALAAiAFYAQQAuAFAAcgBvAHQAZQBjAHQAZQBkAEkAbgBjAG8AbQBlAFAAYQB5AG0AZQBuAHQAIgAsACIAVgBBAC4ASQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAiACwAIgBWAEEALgBJAHMAQQBjAHQAaQB2AGEAdABlAGQAIgAsACIAVgBBAC4ATQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUAByAGUAdgBpAG8AdQBzAFkAZQBhAHIAIgAsACIAVgBBAC4AVwBkAEgAYQBpAHIAYwB1AHQAQgBlAGYAbwByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgAiACwAIgBWAEEALgBXAGQASABhAGkAcgBjAHUAdABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAiACwAIgBWAEEALgBJAG4AdABlAHIAZQBzAHQATwBuAFAAYQB5AG0AZQBuAHQAcwAiACwAIgBWAEEALgBTAHQAZQBwAFUAcABWAGEAbAB1AGUAIgAsACIAVgBBAC4AUAByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgBJAG4AYwBvAG0AZQBCAGEAcwBlACIALAAiAFYAQQAuAFAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBJAG4AYwBvAG0AZQBCAGEAcwBlACIALAAiAFYAQQAuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQBEAGEAaQBsAHkAIgAsACIAVgBBAC4ATQBhAHgAQQBsAGwAbwB3AFcAZABBAG0AbwB1AG4AdABEAGEAaQBsAHkAIgAsACIAVgBBAC4ATQBhAHcAUwB0AGEAYwBrAEQAYQBpAGwAeQAiACwAIgBWAEEALgBQAHIAbwB0AGUAYwB0AGUAZABJAG4AYwBvAG0AZQBEAGEAaQBsAHkAIgAsACIAVQB0AGkAbABzAC4ATgBlAHcAdABvAG4AUgBhAHAAaABzAG8AbgAiACwAIgBVAHQAaQBsAHMALgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAZABkAHIAZQBzAHMAIgAsACIAVQB0AGkAbABzAC4AZQByAHIAbwByAE0AZQBzAHMAYQBnAGUAIgAsACIAVQB0AGkAbABzAC4ARwBlAHQATQBvAHIAdABTAG8AYQBPAHIAZwBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACIALAAiAFUAdABpAGwAcwAuAEYAaQBsAHQAZQByAE0AbwByAHQAUwBvAGEATwByAGcAQQBjAHQAaQB2AGUAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAiACwAIgBVAHQAaQBsAHMALgBHAGUAdABNAG8AcgB0AGEAbABpAHQAeQBUAGEAYgBsAGUAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4AMgAiACwAIgBVAHQAaQBsAHMALgBDAG8AbQBiAG8AUwBDAEEATgAzACIALAAiAFUAdABpAGwAcwAuAEMAbwBtAGIAbwBTAEMAQQBOADQAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4ANQAiACwAIgBVAHQAaQBsAHMALgBDAG8AbQBiAG8AUwBDAEEATgA2ACIALAAiAFUAdABpAGwAcwAuAEMAQwAiACwAIgBVAHQAaQBsAHMALgBDAHUAcgByAHkAIgAsACIAVQB0AGkAbABzAC4ATQB1AGwAdABpAFMAYwBhAG4ASABlAGwAcABlAHIAIgAsACIAVQB0AGkAbABzAC4ATQB1AGwAdABpAFMAQwBBAE4AIgAsACIAVQB0AGkAbABzAC4ASQBsAGwAdQBzAHQAcgBhAHQAZQAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/ExamplePolarisMaxDaily.xlsx
+++ b/ExamplePolarisMaxDaily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19132\Google Drive\PAF Papers\Excel Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AB2341-1DEE-4D3C-A2BE-A0EBDF88B0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D915942-9D00-4F25-A1D9-3A00BE443997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" firstSheet="5" activeTab="7" xr2:uid="{3904170A-37BB-48F0-B322-9CC8A1F1D6E0}"/>
   </bookViews>
@@ -53,10 +53,9 @@
     <definedName name="Utils.FilterMortSoaOrgActiveTableIdsAndNames">_xlfn.LAMBDA(_xlpm.twoColumnArray, _xlfn.LET(_xlpm.r, _xlpm.twoColumnArray, _xlfn._xlws.FILTER(_xlpm.r, OFFSET(_xlpm.r, 0, 1, , 1) &lt;&gt; Utils.errorMessage)))</definedName>
     <definedName name="Utils.GetMortalityTable">_xlfn.LAMBDA(_xlpm.TableID,_xlpm.MinAge_,_xlpm.MaxAge_, _xlfn.LET(_xlpm.MinAge, IF(_xlfn.ISOMITTED(_xlpm.MinAge_), 0, _xlpm.MinAge_), _xlpm.MaxAge, IF(_xlfn.ISOMITTED(_xlpm.MaxAge_), 120, _xlpm.MaxAge_), _xlpm.FileType, ".xml", _xlpm.SearchString, "//@t | //Y", _xlpm.TableName, _xlfn.ENCODEURL("t" &amp; _xlpm.TableID), _xlpm.MortTbl, _xlfn.WRAPROWS(_xlfn.FILTERXML(_xlfn.WEBSERVICE(Utils.MortSoaOrgAddress &amp; _xlpm.TableName &amp; _xlpm.FileType), _xlpm.SearchString), 2), _xlfn._xlws.FILTER(_xlpm.MortTbl, (INDEX(_xlpm.MortTbl, 0, 2) &gt; _xlpm.MinAge) * (INDEX(_xlpm.MortTbl, 0, 2) &lt; _xlpm.MaxAge))))</definedName>
     <definedName name="Utils.GetMortSoaOrgTableIdsAndNames">_xlfn.LAMBDA(_xlpm.tableNumber, _xlfn.LET(_xlpm.fileName, Utils.MortSoaOrgAddress &amp; "t" &amp; _xlpm.tableNumber &amp; ".xml", _xlpm.xpath, "//TableName", _xlpm.filteredXml, _xlfn.FILTERXML(_xlfn.WEBSERVICE(_xlpm.fileName), _xlpm.xpath), _xlpm.item1, _xlpm.tableNumber, _xlpm.item2, IFERROR(_xlpm.filteredXml, Utils.errorMessage), _xlfn.HSTACK(_xlpm.item1, _xlpm.item2)))</definedName>
-    <definedName name="Utils.Illustrate">_xlfn.LAMBDA(_xlpm.initial_value_array,_xlpm.array,_xlpm.function,_xlpm.header, _xlfn.VSTACK(_xlpm.header, Utils.MultiScanHelper(_xlpm.initial_value_array, _xlpm.array, _xlpm.function, )))</definedName>
+    <definedName name="Utils.Illustrate">_xlfn.LAMBDA(_xlpm.initial_value_array,_xlpm.array,_xlpm.function,_xlpm.header, _xlfn.VSTACK(_xlpm.header, Utils.MultiSCAN(_xlpm.initial_value_array, _xlpm.array, _xlpm.function)))</definedName>
     <definedName name="Utils.MortSoaOrgAddress">"https://mort.soa.org/data/"</definedName>
-    <definedName name="Utils.MultiSCAN">_xlfn.LAMBDA(_xlpm.initial_value_array,_xlpm.array,_xlpm.function, Utils.MultiScanHelper(_xlpm.initial_value_array, _xlpm.array, _xlpm.function, ))</definedName>
-    <definedName name="Utils.MultiScanHelper">_xlfn.LAMBDA(_xlpm.initial_value_array,_xlpm.array,_xlpm.function,_xlpm.output_, _xlfn.LET(_xlpm.prev_size, COLUMNS(_xlpm.initial_value_array), _xlpm.arr_size, ROWS(_xlpm.array), _xlpm.para_vector, _xlfn.HSTACK(_xlfn.CHOOSEROWS(_xlpm.initial_value_array, 1), _xlfn.CHOOSEROWS(_xlpm.array, 1)), _xlpm.result, Utils.Curry(_xlpm.para_vector, _xlpm.function), _xlpm.holdover, _xlfn.TAKE(_xlpm.result, 1, _xlpm.prev_size), _xlpm.next_output, IF(_xlfn.ISOMITTED(_xlpm.output_), _xlpm.result, _xlfn.VSTACK(_xlpm.output_, _xlpm.result)), IF(_xlpm.arr_size - 1 = 0, _xlpm.next_output, Utils.MultiScanHelper(_xlpm.holdover, _xlfn.DROP(_xlpm.array, 1), _xlpm.function, _xlpm.next_output))))</definedName>
+    <definedName name="Utils.MultiSCAN">_xlfn.LAMBDA(_xlpm.initial_value_array,_xlpm.array,_xlpm.function, _xlfn.LET(_xlpm.prev_size, COLUMNS(_xlpm.initial_value_array), _xlpm.arr_size, ROWS(_xlpm.array), _xlpm.para_vector, _xlfn.HSTACK(_xlfn.CHOOSEROWS(_xlpm.initial_value_array, 1), _xlfn.CHOOSEROWS(_xlpm.array, 1)), _xlpm.result, Utils.Curry(_xlpm.para_vector, _xlpm.function), _xlpm.holdover, _xlfn.TAKE(_xlpm.result, 1, _xlpm.prev_size), IF(_xlpm.arr_size - 1 = 0, _xlpm.result, _xlfn.VSTACK(_xlpm.result, Utils.MultiSCAN(_xlpm.holdover, _xlfn.DROP(_xlpm.array, 1), _xlpm.function)))))</definedName>
     <definedName name="Utils.NewtonRaphson">_xlfn.LAMBDA(_xlpm.guess,_xlpm.y,_xlpm.dy,_xlpm.tolerance_, _xlfn.LET(_xlpm.xn, _xlpm.guess, _xlpm.tolerance, IF(_xlfn.ISOMITTED(_xlpm.tolerance_), 0.0001, _xlpm.tolerance_), _xlpm.xn_1, _xlpm.xn - _xlpm.y(_xlpm.xn) / _xlpm.dy(_xlpm.xn), IF(ABS(_xlpm.xn_1 - _xlpm.xn) &lt; _xlpm.tolerance, _xlpm.xn, Utils.NewtonRaphson(_xlpm.xn_1, _xlpm.y, _xlpm.dy, _xlpm.tolerance))))</definedName>
     <definedName name="VA.AnniversaryCv">_xlfn.LAMBDA(_xlpm.isAnniversary,_xlpm.payPeriod,_xlpm.cv, IF(OR(NOT(_xlpm.isAnniversary), _xlpm.payPeriod = 0), 0, _xlpm.cv))</definedName>
     <definedName name="VA.IncomeBase">_xlfn.LAMBDA(_xlpm.initialCurrIB,_xlpm.adjustment, _xlpm.initialCurrIB + _xlpm.adjustment)</definedName>
@@ -1388,14 +1387,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4002,40 +4001,40 @@
       </c>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK7" s="160" t="s">
+      <c r="AK7" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="160"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="161"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="AA8" s="160" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="AA8" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="161"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AK8" s="162"/>
+      <c r="AL8" s="162"/>
+      <c r="AM8" s="163"/>
+      <c r="AN8" s="163"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
     </row>
     <row r="10" spans="1:45" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
@@ -10683,40 +10682,40 @@
       </c>
     </row>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK7" s="160" t="s">
+      <c r="AK7" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="160"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="161"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="160" t="s">
+      <c r="A8" s="162" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="161"/>
-      <c r="AA8" s="160" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="AA8" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="161"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AK8" s="162"/>
+      <c r="AL8" s="162"/>
+      <c r="AM8" s="163"/>
+      <c r="AN8" s="163"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" s="160"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
     </row>
     <row r="10" spans="1:45" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
@@ -17116,30 +17115,30 @@
       <c r="I7" s="78"/>
       <c r="M7" s="78"/>
       <c r="Q7" s="78"/>
-      <c r="AK7" s="160" t="s">
+      <c r="AK7" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="160"/>
-      <c r="AM7" s="161"/>
-      <c r="AN7" s="161"/>
+      <c r="AL7" s="162"/>
+      <c r="AM7" s="163"/>
+      <c r="AN7" s="163"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AA8" s="160" t="s">
+      <c r="AA8" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="161"/>
-      <c r="AK8" s="160"/>
-      <c r="AL8" s="160"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="161"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AK8" s="162"/>
+      <c r="AL8" s="162"/>
+      <c r="AM8" s="163"/>
+      <c r="AN8" s="163"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
-      <c r="AC9" s="161"/>
-      <c r="AD9" s="161"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="L10" s="22"/>
@@ -23614,11 +23613,11 @@
   <dimension ref="A3:AS43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="Q24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="E10" sqref="E10"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="S42" sqref="S42"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23688,30 +23687,30 @@
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="I7" s="78"/>
       <c r="Q7" s="78"/>
-      <c r="AI7" s="160" t="s">
+      <c r="AI7" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="160"/>
-      <c r="AK7" s="161"/>
-      <c r="AL7" s="161"/>
+      <c r="AJ7" s="162"/>
+      <c r="AK7" s="163"/>
+      <c r="AL7" s="163"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="Y8" s="160" t="s">
+      <c r="Y8" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="161"/>
-      <c r="AB8" s="161"/>
-      <c r="AI8" s="160"/>
-      <c r="AJ8" s="160"/>
-      <c r="AK8" s="161"/>
-      <c r="AL8" s="161"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AI8" s="162"/>
+      <c r="AJ8" s="162"/>
+      <c r="AK8" s="163"/>
+      <c r="AL8" s="163"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="161"/>
-      <c r="AB9" s="161"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N10" s="159"/>
@@ -23764,7 +23763,7 @@
       <c r="L11" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="M11" s="163" t="s">
+      <c r="M11" s="161" t="s">
         <v>84</v>
       </c>
       <c r="N11" s="158" t="s">
@@ -23852,7 +23851,7 @@
       <c r="AQ11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="AS11" s="162" t="s">
+      <c r="AS11" s="160" t="s">
         <v>86</v>
       </c>
     </row>
@@ -23949,15 +23948,15 @@
         <v>1</v>
       </c>
       <c r="Z12" s="14">
-        <f>F12-AJ12</f>
+        <f t="shared" ref="Z12:Z43" si="0">F12-AJ12</f>
         <v>0</v>
       </c>
       <c r="AA12" s="14">
-        <f>G12-AK12</f>
+        <f t="shared" ref="AA12:AA43" si="1">G12-AK12</f>
         <v>0</v>
       </c>
       <c r="AB12" s="14">
-        <f>H12-AL12</f>
+        <f t="shared" ref="AB12:AB43" si="2">H12-AL12</f>
         <v>0</v>
       </c>
       <c r="AC12" s="14">
@@ -23977,7 +23976,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="14">
-        <f t="shared" ref="AG12:AG43" si="0">V12-AQ12</f>
+        <f t="shared" ref="AG12:AG43" si="3">V12-AQ12</f>
         <v>0</v>
       </c>
       <c r="AI12" s="23" t="s">
@@ -24087,35 +24086,35 @@
         <v>2</v>
       </c>
       <c r="Z13" s="14">
-        <f>F13-AJ13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA13" s="14">
-        <f>G13-AK13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB13" s="14">
-        <f>H13-AL13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC13" s="14">
-        <f t="shared" ref="AC13:AC43" si="1">P13-AM13</f>
+        <f t="shared" ref="AC13:AC43" si="4">P13-AM13</f>
         <v>0</v>
       </c>
       <c r="AD13" s="14">
-        <f t="shared" ref="AD13:AD43" si="2">U13-AN13</f>
+        <f t="shared" ref="AD13:AD43" si="5">U13-AN13</f>
         <v>0</v>
       </c>
       <c r="AE13" s="14">
-        <f t="shared" ref="AE13:AE43" si="3">O13-AO13</f>
+        <f t="shared" ref="AE13:AE43" si="6">O13-AO13</f>
         <v>0</v>
       </c>
       <c r="AF13" s="14">
-        <f t="shared" ref="AF13:AF43" si="4">S13-AP13</f>
+        <f t="shared" ref="AF13:AF43" si="7">S13-AP13</f>
         <v>0</v>
       </c>
       <c r="AG13" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI13" s="26" t="s">
@@ -24221,35 +24220,35 @@
         <v>3</v>
       </c>
       <c r="Z14" s="14">
-        <f>F14-AJ14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA14" s="14">
-        <f>G14-AK14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB14" s="14">
-        <f>H14-AL14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD14" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE14" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI14" s="26" t="s">
@@ -24355,35 +24354,35 @@
         <v>4</v>
       </c>
       <c r="Z15" s="14">
-        <f>F15-AJ15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA15" s="14">
-        <f>G15-AK15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB15" s="14">
-        <f>H15-AL15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE15" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI15" s="26" t="s">
@@ -24489,35 +24488,35 @@
         <v>5</v>
       </c>
       <c r="Z16" s="14">
-        <f>F16-AJ16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA16" s="14">
-        <f>G16-AK16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB16" s="14">
-        <f>H16-AL16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD16" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE16" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI16" s="26" t="s">
@@ -24623,35 +24622,35 @@
         <v>6</v>
       </c>
       <c r="Z17" s="14">
-        <f>F17-AJ17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA17" s="14">
-        <f>G17-AK17</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB17" s="14">
-        <f>H17-AL17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD17" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE17" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI17" s="26" t="s">
@@ -24757,35 +24756,35 @@
         <v>7</v>
       </c>
       <c r="Z18" s="14">
-        <f>F18-AJ18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA18" s="14">
-        <f>G18-AK18</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB18" s="14">
-        <f>H18-AL18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC18" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD18" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE18" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI18" s="26" t="s">
@@ -24891,35 +24890,35 @@
         <v>8</v>
       </c>
       <c r="Z19" s="14">
-        <f>F19-AJ19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA19" s="14">
-        <f>G19-AK19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB19" s="14">
-        <f>H19-AL19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE19" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI19" s="26" t="s">
@@ -25025,35 +25024,35 @@
         <v>9</v>
       </c>
       <c r="Z20" s="14">
-        <f>F20-AJ20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA20" s="14">
-        <f>G20-AK20</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB20" s="14">
-        <f>H20-AL20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE20" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI20" s="26" t="s">
@@ -25159,35 +25158,35 @@
         <v>11</v>
       </c>
       <c r="Z21" s="14">
-        <f>F21-AJ21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA21" s="14">
-        <f>G21-AK21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB21" s="14">
-        <f>H21-AL21</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC21" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE21" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI21" s="26" t="s">
@@ -25293,35 +25292,35 @@
         <v>12</v>
       </c>
       <c r="Z22" s="14">
-        <f>F22-AJ22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA22" s="14">
-        <f>G22-AK22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB22" s="14">
-        <f>H22-AL22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC22" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3859649122459814</v>
       </c>
       <c r="AE22" s="14">
+        <f t="shared" si="6"/>
+        <v>0.28070175438188016</v>
+      </c>
+      <c r="AF22" s="14">
+        <f t="shared" si="7"/>
+        <v>-0.26315789473665063</v>
+      </c>
+      <c r="AG22" s="14">
         <f t="shared" si="3"/>
-        <v>0.28070175438188016</v>
-      </c>
-      <c r="AF22" s="14">
-        <f t="shared" si="4"/>
-        <v>-0.26315789473665063</v>
-      </c>
-      <c r="AG22" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI22" s="26" t="s">
@@ -25427,35 +25426,35 @@
         <v>13</v>
       </c>
       <c r="Z23" s="14">
-        <f>F23-AJ23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA23" s="14">
-        <f>G23-AK23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB23" s="14">
-        <f>H23-AL23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC23" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD23" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3859649122459814</v>
       </c>
       <c r="AE23" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI23" s="26" t="s">
@@ -25561,35 +25560,35 @@
         <v>14</v>
       </c>
       <c r="Z24" s="14">
-        <f>F24-AJ24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA24" s="14">
-        <f>G24-AK24</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB24" s="14">
-        <f>H24-AL24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC24" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD24" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.7719298258889467E-2</v>
       </c>
       <c r="AE24" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI24" s="26" t="s">
@@ -25695,35 +25694,35 @@
         <v>35</v>
       </c>
       <c r="Z25" s="14">
-        <f>F25-AJ25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA25" s="14">
-        <f>G25-AK25</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB25" s="14">
-        <f>H25-AL25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC25" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD25" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>8.7719298258889467E-2</v>
       </c>
       <c r="AE25" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI25" s="27" t="s">
@@ -25830,35 +25829,35 @@
         <v>36</v>
       </c>
       <c r="Z26" s="14">
-        <f>F26-AJ26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA26" s="14">
-        <f>G26-AK26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB26" s="14">
-        <f>H26-AL26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC26" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD26" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE26" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI26" s="27" t="s">
@@ -25964,35 +25963,35 @@
         <v>37</v>
       </c>
       <c r="Z27" s="14">
-        <f>F27-AJ27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA27" s="14">
-        <f>G27-AK27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB27" s="14">
-        <f>H27-AL27</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC27" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD27" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE27" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI27" s="27" t="s">
@@ -26098,35 +26097,35 @@
         <v>38</v>
       </c>
       <c r="Z28" s="14">
-        <f>F28-AJ28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA28" s="14">
-        <f>G28-AK28</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB28" s="14">
-        <f>H28-AL28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC28" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD28" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE28" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI28" s="27" t="s">
@@ -26232,35 +26231,35 @@
         <v>39</v>
       </c>
       <c r="Z29" s="14">
-        <f>F29-AJ29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA29" s="14">
-        <f>G29-AK29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB29" s="14">
-        <f>H29-AL29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC29" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD29" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE29" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI29" s="27" t="s">
@@ -26365,35 +26364,35 @@
         <v>40</v>
       </c>
       <c r="Z30" s="14">
-        <f>F30-AJ30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA30" s="14">
-        <f>G30-AK30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB30" s="14">
-        <f>H30-AL30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC30" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD30" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE30" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI30" s="27" t="s">
@@ -26498,35 +26497,35 @@
         <v>41</v>
       </c>
       <c r="Z31" s="14">
-        <f>F31-AJ31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA31" s="14">
-        <f>G31-AK31</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB31" s="14">
-        <f>H31-AL31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC31" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE31" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI31" s="27" t="s">
@@ -26631,35 +26630,35 @@
         <v>42</v>
       </c>
       <c r="Z32" s="14">
-        <f>F32-AJ32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA32" s="14">
-        <f>G32-AK32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB32" s="14">
-        <f>H32-AL32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC32" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD32" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE32" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI32" s="27" t="s">
@@ -26764,35 +26763,35 @@
         <v>15</v>
       </c>
       <c r="Z33" s="14">
-        <f>F33-AJ33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA33" s="14">
-        <f>G33-AK33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB33" s="14">
-        <f>H33-AL33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC33" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD33" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE33" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI33" s="27" t="s">
@@ -26897,35 +26896,35 @@
         <v>16</v>
       </c>
       <c r="Z34" s="14">
-        <f>F34-AJ34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA34" s="14">
-        <f>G34-AK34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB34" s="14">
-        <f>H34-AL34</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC34" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD34" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE34" s="14">
+        <f t="shared" si="6"/>
+        <v>-7.5697211141232401E-2</v>
+      </c>
+      <c r="AF34" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13545816732948879</v>
+      </c>
+      <c r="AG34" s="14">
         <f t="shared" si="3"/>
-        <v>-7.5697211141232401E-2</v>
-      </c>
-      <c r="AF34" s="14">
-        <f t="shared" si="4"/>
-        <v>0.13545816732948879</v>
-      </c>
-      <c r="AG34" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI34" s="26" t="s">
@@ -27030,35 +27029,35 @@
         <v>17</v>
       </c>
       <c r="Z35" s="14">
-        <f>F35-AJ35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA35" s="14">
-        <f>G35-AK35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB35" s="14">
-        <f>H35-AL35</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC35" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD35" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE35" s="14">
+        <f t="shared" si="6"/>
+        <v>-7.5697211141232401E-2</v>
+      </c>
+      <c r="AF35" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13545816732948879</v>
+      </c>
+      <c r="AG35" s="14">
         <f t="shared" si="3"/>
-        <v>-7.5697211141232401E-2</v>
-      </c>
-      <c r="AF35" s="14">
-        <f t="shared" si="4"/>
-        <v>0.13545816732948879</v>
-      </c>
-      <c r="AG35" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI35" s="26" t="s">
@@ -27163,35 +27162,35 @@
         <v>18</v>
       </c>
       <c r="Z36" s="14">
-        <f>F36-AJ36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA36" s="14">
-        <f>G36-AK36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB36" s="14">
-        <f>H36-AL36</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC36" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD36" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE36" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI36" s="26" t="s">
@@ -27296,35 +27295,35 @@
         <v>19</v>
       </c>
       <c r="Z37" s="14">
-        <f>F37-AJ37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA37" s="14">
-        <f>G37-AK37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB37" s="14">
-        <f>H37-AL37</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC37" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD37" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE37" s="14">
+        <f t="shared" si="6"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF37" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG37" s="14">
         <f t="shared" si="3"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF37" s="14">
-        <f t="shared" si="4"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG37" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI37" s="26" t="s">
@@ -27429,35 +27428,35 @@
         <v>20</v>
       </c>
       <c r="Z38" s="14">
-        <f>F38-AJ38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA38" s="14">
-        <f>G38-AK38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB38" s="14">
-        <f>H38-AL38</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC38" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD38" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE38" s="14">
+        <f t="shared" si="6"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF38" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG38" s="14">
         <f t="shared" si="3"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF38" s="14">
-        <f t="shared" si="4"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG38" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI38" s="26" t="s">
@@ -27562,35 +27561,35 @@
         <v>21</v>
       </c>
       <c r="Z39" s="14">
-        <f>F39-AJ39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA39" s="14">
-        <f>G39-AK39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB39" s="14">
-        <f>H39-AL39</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC39" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD39" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE39" s="14">
+        <f t="shared" si="6"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF39" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG39" s="14">
         <f t="shared" si="3"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF39" s="14">
-        <f t="shared" si="4"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG39" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI39" s="26" t="s">
@@ -27695,35 +27694,35 @@
         <v>22</v>
       </c>
       <c r="Z40" s="14">
-        <f>F40-AJ40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA40" s="14">
-        <f>G40-AK40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB40" s="14">
-        <f>H40-AL40</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC40" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD40" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE40" s="14">
+        <f t="shared" si="6"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF40" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG40" s="14">
         <f t="shared" si="3"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF40" s="14">
-        <f t="shared" si="4"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG40" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI40" s="26" t="s">
@@ -27828,35 +27827,35 @@
         <v>23</v>
       </c>
       <c r="Z41" s="14">
-        <f>F41-AJ41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA41" s="14">
-        <f>G41-AK41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB41" s="14">
-        <f>H41-AL41</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC41" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD41" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE41" s="14">
+        <f t="shared" si="6"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF41" s="14">
+        <f t="shared" si="7"/>
+        <v>0.13043478260806296</v>
+      </c>
+      <c r="AG41" s="14">
         <f t="shared" si="3"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF41" s="14">
-        <f t="shared" si="4"/>
-        <v>0.13043478260806296</v>
-      </c>
-      <c r="AG41" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI41" s="26" t="s">
@@ -27961,35 +27960,35 @@
         <v>24</v>
       </c>
       <c r="Z42" s="14">
-        <f>F42-AJ42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA42" s="14">
-        <f>G42-AK42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB42" s="14">
-        <f>H42-AL42</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC42" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD42" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE42" s="14">
+        <f t="shared" si="6"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF42" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="14">
         <f t="shared" si="3"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF42" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI42" s="26" t="s">
@@ -28092,35 +28091,35 @@
         <v>25</v>
       </c>
       <c r="Z43" s="14">
-        <f>F43-AJ43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA43" s="14">
-        <f>G43-AK43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB43" s="14">
-        <f>H43-AL43</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC43" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD43" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE43" s="14">
+        <f t="shared" si="6"/>
+        <v>0.17391304345801473</v>
+      </c>
+      <c r="AF43" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="14">
         <f t="shared" si="3"/>
-        <v>0.17391304345801473</v>
-      </c>
-      <c r="AF43" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="14">
-        <f t="shared" si="0"/>
         <v>8.695652173810231E-2</v>
       </c>
       <c r="AI43" s="26" t="s">
@@ -28263,7 +28262,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBWAEEAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAOgAgAFQAaABlACAAZABhAHQAZQAgAG8AbgAgAHcAaABpAGMAaAAgAHkAbwB1AHIAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGkAcwAgAGEAYwB0AGkAdgBhAHQAZQBkAC4AIABVAHAAbwBuACAAYQBjAHQAaQB2AGEAdABpAG8AbgAgAG8AZgAgAEwAaQBmAGUAdABpAG0AZQAgAEkAbgBjAG8AbQBlACwAIABjAGgAYQBuAGcAZQBzACAAYwBhAG4AbgBvAHQAIABiAGUAIABtAGEAZABlACAAdABvACAAdABoAGUAIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AKABzACkAIABvAHIAIABJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuAHMALgAgAFwAbgAvAC8AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABUAGgAZQAgAGMAbwBuAHQAcgBhAGMAdAAgAHYAYQBsAHUAZQAgAG8AbgAgAGEAbgB5ACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkALgAgAFQAaABlACAAQwBvAG4AdABpAG4AdQBhAHQAaQBvAG4AIABDAG8AbgB0AHIAaQBiAHUAdABpAG8AbgAsACAAaQBmACAAYQBwAHAAbABpAGMAYQBiAGwAZQAsACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAaQBuACAAdABoAGUAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AIABvAGYAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAcwAuACAAUABsAGUAYQBzAGUAIABzAGUAZQAgAFMAUABPAFUAUwBBAEwAIABDAE8ATgBUAEkATgBVAEEAVABJAE8ATgAgAGIAZQBsAG8AdwAuAFwAbgAvAC8AQgBlAG4AZQBmAGkAdAAgAEUAZgBmAGUAYwB0AGkAdgBlACAARABhAHQAZQA6ACAAVABoAGUAIABkAGEAdABlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABpAHMAIABlAGwAZQBjAHQAZQBkAC4AIABUAGgAZQAgAEIAZQBuAGUAZgBpAHQAIABFAGYAZgBlAGMAdABpAHYAZQAgAEQAYQB0AGUAIABpAHMAIAB0AGgAZQAgAHMAYQBtAGUAIABhAHMAIAB0AGgAZQAgAEMAbwBuAHQAcgBhAGMAdAAgAEkAcwBzAHUAZQAgAEQAYQB0AGUALgBcAG4ALwAvAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByADoAIABFAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgADoAVABoAGUAIABkAGEAdABlACAAZgBvAGwAbABvAHcAaQBuAGcAIABlAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AIABJAGYAIAB0AGgAZQAgAG4AZQB4AHQAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGgAYQBzACAAbgBvACAAYwBvAHIAcgBlAHMAcABvAG4AZABpAG4AZwAgAGQAYQB0AGUALAAgAHQAaABlAG4AIAB0AGgAZQAgAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAdwBpAGwAbAAgAGIAZQAgAGQAZQBlAG0AZQBkACAAdABvACAAYgBlACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAGQAYQB5AC4AXABuAC8ALwBGAG8AcgAgAGUAeABhAG0AcABsAGUALAAgAGkAZgAgAGEAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGkAcwAgAE4AbwB2AGUAbQBiAGUAcgAgADIAOQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABGAGUAYgByAHUAYQByAHkAIAAyADkAIABvAGYAIAB0AGgAZQAgAGYAbwBsAGwAbwB3AGkAbgBnACAAeQBlAGEAcgA7ACAAaABvAHcAZQB2AGUAcgAsACAAaQBuACAAYQAgAG4AbwBuAC0ATABlAGEAcAAgAFkAZQBhAHIALAAgAHQAaABlAHIAZQAgAGkAcwAgAG4AbwAgAGMAbwByAHIAZQBzAHAAbwBuAGQAaQBuAGcAIABkAGEAdABlAC4AIABUAGgAZQByAGUAZgBvAHIAZQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABNAGEAcgBjAGgAIAAxAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgA6ACAARQBhAGMAaAAgAGMAbwBuAHMAZQBjAHUAdABpAHYAZQAgAG8AbgBlACAAeQBlAGEAcgAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQA6ACAAVABoAGUAIABkAGEAdABlACAAbwBuACAAdwBoAGkAYwBoACAAZQBhAGMAaAAgAEIAZQBuAGUAZgBpAHQAIABZAGUAYQByACAAYgBlAGcAaQBuAHMALgBcAG4ALwAvAEMAbwBuAHQAcgBhAGMAdAAgAFkAZQBhAHIAOgAgAEUAYQBjAGgAIABjAG8AbgBzAGUAYwB1AHQAaQB2AGUAIABvAG4AZQAgAHkAZQBhAHIAIABwAGUAcgBpAG8AZAAgAHMAdABhAHIAdABpAG4AZwAgAG8AbgAgAHQAaABlACAAQwBvAG4AdAByAGEAYwB0ACAASQBzAHMAdQBlACAARABhAHQAZQAuAFwAbgAvAC8AQwBvAHYAZQByAGUAZAAgAFAAZQByAHMAbwBuACgAcwApADoAIABUAGgAZQAgAHAAZQByAHMAbwBuACwAIABvAHIAIABwAGUAcgBzAG8AbgBzACwAIAB3AGgAbwBzAGUAIABsAGkAZgBlAHQAaQBtAGUAIAB3AGkAdABoAGQAcgBhAHcAYQBsAHMAIABhAHIAZQAgAGcAdQBhAHIAYQBuAHQAZQBlAGQAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQB2AGkAbgBnACAAQgBlAG4AZQBmAGkAdAAuACAAXABuAC8ALwBDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AIABDAGgAYQBuAGcAZQBzADoAIABUAGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAG0AYQB5ACAAYgBlACAAYwBoAGEAbgBnAGUAZAAgAGkAbgAgAHQAaABlACAAZQB2AGUAbgB0ACAAbwBmACAATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ACAAcAByAGkAbwByACAAdABvACAAbwByACAAbwBuACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAuACAATgBvACAAZgB1AHIAdABoAGUAcgAgAGMAaABhAG4AZwBlAHMAIABtAGEAeQAgAGIAZQAgAG0AYQBkAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALgBcAG4AXABuAFwAbgBcAG4ALwAvAEUAeABjAGUAcwBzACAAVwBpAHQAaABkAHIAYQB3AGEAbAA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACwAIABvAHIAIABwAG8AcgB0AGkAbwBuACAAbwBmACAAYQAgAHcAaQB0AGgAZAByAGEAdwBhAGwALAAgAHQAaABhAHQAIABpAHMAIAB0AGEAawBlAG4AIABpAG4AIABhACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABhAGYAdABlAHIAIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBuAGQAXABuAC8ALwBlAHgAYwBlAGUAZABzACAAdABoAGUAIABnAHIAZQBhAHQAZQByACAAbwBmACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAHcAaQB0AGgAbwB1AHQAIAByAGUAZAB1AGMAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAFwAbgAvAC8AbwByACAAdABoAGUAIABSAGUAcQB1AGkAcgBlAGQAIABNAGkAbgBpAG0AdQBtACAARABpAHMAdAByAGkAYgB1AHQAaQBvAG4AIABhAG0AbwB1AG4AdAAgAGEAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABiAHkAIAB0AGgAZQAgAEEAbgBuAHUAaQB0AHkAIABTAGUAcgB2AGkAYwBlACAAQwBlAG4AdABlAHIALgAgAFwAbgAvAC8AQQBuACAARQB4AGMAZQBzAHMAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAdwBpAGwAbAAgAGMAYQB1AHMAZQAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAYQBuAGQAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAHQAbwAgAGIAZQAgAHIAZQBjAGEAbABjAHUAbABhAHQAZQBkAC4AXABuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAEMAdgAsAGMAdgAsAHAATQBhAHcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbgBvAFcAZAAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAFcAZAAsACAAMQAgAC0AIABNAEEAWAAoADAALAAgAHcAZABUAGEAawBlAG4AIAAtACAAcABNAGEAdwApACAALwAgACgAcABDAHYAIAAtACAAcABNAGEAdwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgADEAIAAtACAAdwBkAFQAYQBrAGUAbgAgAC8AIABjAHYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAdwBkAFQAYQBrAGUAbgAgADwAPgAgADAALAAgAEkARgAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsACAAcAByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQAKQAsACAAbgBvAFcAZAApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ALwAvAEgAaQBnAGgAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABGAG8AcgAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACwAIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAIAB0AGgAYQB0ACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAEkAbgBjAG8AbQBlACAAQgBhAHMAZQA6ACAAVABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABhACAAdgBhAGwAdQBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABmAGUAZQAgAGEAbgBkACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAIAB3AGkAdABoAG8AdQB0ACAAcgBlAGQAdQBjAGkAbgBnACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAFQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAaQBzACAAYQBsAHMAbwAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAYQBtAG8AdQBuAHQAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAsACAAaQBmACAAYQBuAGQAIAB3AGgAZQBuACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIAByAGUAZAB1AGMAZQBkACAAdABvACAAegBlAHIAbwAsACAAYgB1AHQAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAGkAcwAgAHMAdABpAGwAbAAgAGcAcgBlAGEAdABlAHIAIAB0AGgAYQBuACAAegBlAHIAbwAsACAAbwByACAAdQBwAG8AbgAgAHQAaABlACAATABhAHQAZQBzAHQAIABBAG4AbgB1AGkAdAB5ACAARABhAHQAZQAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGgAYQBzAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACwAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAHAAdQByAGMAaABhAHMAZQBQAGEAeQBtAGUAbgB0AHMALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABwAHIAZQB2AEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKwBwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACsAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACkAKgB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAMAApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ADoAIABBAHAAcABsAGkAYwBhAGIAbABlACAAdABvACAAUABvAGwAYQByAGkAcwAgAEkAbgBjAG8AbQBlACAATQBhAHgAIABvAG4AbAB5ACwAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABpAHMAIABhAG4AIABhAG0AbwB1AG4AdAAgAHQAaABhAHQAIABtAGEAeQAgAGIAZQAgAGEAZABkAGUAZAAgAHQAbwAgAHQAaABlACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBzACAAcwBoAG8AdwBuACAAaQBuACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAHQAYQBiAGwAZQA6AFwAbgAvAC8ASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAOgAgAEEAcABwAGwAaQBjAGEAYgBsAGUAIAB0AG8AIABQAG8AbABhAHIAaQBzACAASQBuAGMAbwBtAGUAIABNAGEAeAAgAG8AbgBsAHkALAAgAHQAaABlACAASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAIABpAHMAIAB1AHMAZQBkACAAcwBvAGwAZQBsAHkAIABhAHMAIABhACAAYgBhAHMAaQBzACAAZgBvAHIAIABjAGEAbABjAHUAbABhAHQAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAQQBwAHAAbABpAGMAYQBiAGwAZQAgAHQAbwAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACAAbwBuAGwAeQAsACAAYQAgAHAAZQByAGMAZQBuAHQAYQBnAGUAIABvAGYAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABCAGEAcwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAYQBtAG8AdQBuAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuADoAIABUAGgAZQAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIABpAHMAIABlAGwAZQBjAHQAZQBkACAAYgB5ACAAWQBvAHUAIABhAHQAIABjAG8AbgB0AHIAYQBjAHQAIABpAHMAcwB1AGUALgAgAFQAaABlACAATQBhAHgAaQBtAHUAbQAgAEEAbgBuAHUAYQBsACAAVwBpAHQAaABkAHIAYQB3AGEAbAAgAEEAbQBvAHUAbgB0AHMAIABhAG4AZAAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AHMAIABvAGYAZgBlAHIAZQBkACAAaQBuACAAZQBhAGMAaAAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIAB2AGEAcgB5ACAAYgB5ACAAYQBnAGUAIABhAG4AZAAgAHcAaABlAHQAaABlAHIAIAB5AG8AdQAgAGUAbABlAGMAdAAgAG8AbgBlACAAbwByACAAdAB3AG8AIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AcwAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAAgAD0AIABMAEEATQBCAEQAQQAoAHAAYQB5AFAAZQByAGkAbwBkACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAcABpAGMAYgAsAEkARgAoAHAAYQB5AFAAZQByAGkAbwBkAD4AMAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAFAAcgBlAFMAeQBzAFcAZABPAG4AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAQQBOAEQAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBQAHIAZQBTAHkAcwBXAGQATwBuAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAaQBjAGIAKgBpAG4AYwBvAG0AZQBDAHIAZQBkAFIAYQB0AGUALAAwACkAKQApADsAXABuAFwAbgBBAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAYQB5AFAAZQByAGkAbwBkACwAYwB2ACwASQBGACgATwBSACgATgBPAFQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACkALABwAGEAeQBQAGUAcgBpAG8AZAA9ADAAKQAsADAALABjAHYAKQApADsAXABuAFwAbgBJAG4AaQB0AGkAYQBsAEMAdQByAHIAZQBuAHQASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABwAHIAZQB2AEkAQgAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYALABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACwAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALAAgAE0AQQBYACgAcAByAGUAdgBJAEIALAAgAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAIAArACAAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACwAIABwAHIAZQB2AEkAQgAgACsAIABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkAIAAqACAAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAApADsAXABuAFwAbgBJAG4AYwBvAG0AZQBCAGEAcwBlAEEAZABqAHUAcwB0AG0AZQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAcAByAGUAdgBJAEIALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGQAZQBsAHQAYQAsACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAgAC0AIABwAHIAZQB2AEkAQgAsACAASQBGACgAQQBOAEQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAIABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACkALAAgAE0AQQBYACgAMAAsACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAIAAtACAAZABlAGwAdABhACkALAAgADAAKQApACkAOwBcAG4AXABuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIAIAArACAAYQBkAGoAdQBzAHQAbQBlAG4AdAApADsAXABuAFwAbgBNAGEAeABBAGwAbABvAHcAYQBiAGwAZQBXAGQAQQBtAG8AdQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAHYALABpAG4AYwBvAG0AZQBCAGEAcwBlACwAbQBhAHcAZABSAGEAdABlACwAIABJAEYAKABjAHYAIAA+ACAAMAAsACAAaQBuAGMAbwBtAGUAQgBhAHMAZQAgACoAIABtAGEAdwBkAFIAYQB0AGUALAAgADAAKQApADsAXABuAFwAbgAvAC8ATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ADoAIABBACAAYwBoAGEAbgBnAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAHUAcABvAG4AIABtAGEAcgByAGkAYQBnAGUALAAgAGQAaQB2AG8AcgBjAGUAIABvAHIAIABkAGUAYQB0AGgAIABpAGYAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACAAdABhAGsAZQBuACAAbwBuACAAbwByACAAYQBmAHQAZQByACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAgAHQAaABhAHQAIABpAHMAIABhAGwAbAAgAG8AcgAgAHAAYQByAHQAIABvAGYAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAG8AcgAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAOgAgAFQAaABlACAAbQBhAHgAaQBtAHUAbQAgAGEAbQBvAHUAbgB0ACAAdABoAGEAdAAgAG0AYQB5ACAAYgBlACAAdwBpAHQAaABkAHIAYQB3AG4AIABlAGEAYwBoACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABvAG4AIABvAHIAIABhAGYAdABlAHIAIABhAGMAdABpAHYAYQB0AGkAbgBnACAATABpAGYAZQB0AGkAbQBlACAASQBuAGMAbwBtAGUAIABhAG4AZAAgAHcAaABpAGwAZQAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB6AGUAcgBvACAAdwBpAHQAaABvAHUAdAAgAHIAZQBkAHUAYwBpAG4AZwAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlAC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAVABoAGUAIABwAGUAcgBjAGUAbgB0AGEAZwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAIABhAHYAYQBpAGwAYQBiAGwAZQAgAGYAbwByACAAdwBpAHQAaABkAHIAYQB3AGEAbAAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAGEAYwB0AGkAdgBhAHQAaQBuAGcAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGEAbgBkACAAdwBoAGkAbABlACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8ALgBcAG4ATQBhAHcAUwB0AGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBDAHYALABwAHIAZQB2AEkAQgAsAHAAcgBlAHYASQBDAEIALABwAHIAZQB2AE0AYQB3AGEALABwAGEAeQBQAGUAcgBpAG8AZAAsAHcAZABUAGEAawBlAG4ALABjAHYALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAG0AYQB3AGQAUgBhAHQAZQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcABhAHkAUABlAHIAaQBvAGQALABjAHYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAHIAZQB2AEMAdgAsAGMAdgAsAHAAcgBlAHYATQBhAHcAYQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACgAcABhAHkAUABlAHIAaQBvAGQALABwAHIAZQB2AEkAQwBCACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsACAASQBuAGkAdABpAGEAbABDAHUAcgByAGUAbgB0AEkAbgBjAG8AbQBlAEIAYQBzAGUAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcAByAGUAdgBJAEIALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0AG0AZQBuAHQALAAgAEkAbgBjAG8AbQBlAEIAYQBzAGUAQQBkAGoAdQBzAHQAbQBlAG4AdAAoAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIALABwAHIAZQB2AEkAQgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAGQAagB1AHMAdABtAGUAbgB0AD4AMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUAKABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALABwAHIAZQB2AEkAQwBCACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAIABJAG4AYwBvAG0AZQBCAGEAcwBlACgAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsAGEAZABqAHUAcwB0AG0AZQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQB3AGEALAAgAE0AYQB4AEEAbABsAG8AdwBhAGIAbABlAFcAZABBAG0AbwB1AG4AdAAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABtAGEAdwBkAFIAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAYwB2ACwAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAG0AYQB3AGEALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAIABhAGQAagB1AHMAdABtAGUAbgB0ACwAIABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApADsAXABuAFwAbgAvAC8AUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQAOgAgAFQAaABlACAAYQBtAG8AdQBuAHQAIAB0AG8AIABiAGUAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALABcAG4ALwAvAGkAZgAgAGEAbgBkACAAdwBoAGUAbgAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAcgBlAGQAdQBjAGUAZAAgAHQAbwAgAHoAZQByAG8ALAAgAGIAdQB0ACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABzAHQAaQBsAGwAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8AIABvAHIAIABpAGYAIAB0AGgAZQAgAEwAYQB0AGUAcwB0ACAAQQBuAG4AdQBpAHQAeQAgAEQAYQB0AGUAIABoAGEAcwAgAGIAZQBlAG4AIAByAGUAYQBjAGgAZQBkAC4AXABuAC8ALwBQAHIAbwB0AGUAYwB0AGUAZAAgAEkAbgBjAG8AbQBlACAAUABhAHkAbQBlAG4AdAAgAFAAZQByAGMAZQBuAHQAYQBnAGUAOgAgAFQAaABlACAAcABlAHIAYwBlAG4AdABhAGcAZQAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQALgBcAG4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUAUABhAHkAbQBlAG4AdAAgAD0AIABMAEEATQBCAEQAQQAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABwAGkAcABfAHIAYQB0AGUALABJAEYAKABjAHYAPQAwACwAcABpAHAAXwByAGEAdABlACoAaQBuAGMAbwBtAGUAQgBhAHMAZQAsADAAKQApADsAXABuAFwAbgBJAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABwAGEAeQBQAGUAcgBpAG8AZAAtAEkATgBUACgAcABhAHkAUABlAHIAaQBvAGQAKQA9ADAAKQA7AFwAbgBcAG4ASQBzAEEAYwB0AGkAdgBhAHQAZQBkACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABhAGMAdABpAHYAYQB0AGkAbwBuAFAAZQByAGkAbwBkACwAcABhAHkAUABlAHIAaQBvAGQAPgA9AGEAYwB0AGkAdgBhAHQAaQBvAG4AUABlAHIAaQBvAGQAKQA7AFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvACAAUABvAGwAYQByAGkAcwAgAE0AYQB4ACAARABhAGkAbAB5ACAALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBZAGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAeQBlAGEAcgAsAHMAVQBwAFYAYQBsAHUAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbQB2ACAAIAAsAGkAZgAoAHAAcgBlAHYAWQBlAGEAcgA8AD4AeQBlAGEAcgAsAHMAVQBwAFYAYQBsAHUAZQAsAE0AQQBYACgAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABzAFUAcABWAGEAbAB1AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHkAbQB2ACwAaQBmACgAcAByAGUAdgBZAGUAYQByADwAPgB5AGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAG0AdgAsAHAAeQBtAHYAKQApACkAOwBcAG4AXABuAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAHcAZABUAGEAawBlAG4ALABDAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgApACwAdwBkAFQAYQBrAGUAbgAvAEMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALAAwACkAKQA7AFwAbgBcAG4AVwBkAEgAYQBpAHIAYwB1AHQAQQBmAHQAZQByAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABwAHIAZQB2AE0AYQB3AGEALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAVABhAGsAZQBuACwAYwB2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGgAYQBpAHIAYwB1AHQALAAoAHcAZABUAGEAawBlAG4ALQBwAHIAZQB2AE0AYQB3AGEAKQAvACgAYwB2AC0AcAByAGUAdgBNAGEAdwBhACkALABJAEYAKABBAE4ARAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4APgBwAHIAZQB2AE0AYQB3AGEAKQAsAGgAYQBpAHIAYwB1AHQALAAwACkAKQApADsAXABuAFwAbgBJAG4AdABlAHIAZQBzAHQATwBuAFAAYQB5AG0AZQBuAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYAWQBlAGEAcgAsAGEAYwBjAHUAbQBQAGEAeQAsAEYAdgBUAG8AdABhAGwALAB5AGUAYQByACwAcABhAHkALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAbQBpAGIAUABlAHIAYwBlAG4AdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYQBwACwAYQBjAGMAdQBtAFAAYQB5ACsAcABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgB0AGUAcgBlAHMAdABQAGEAeQAsAEkARgAoAHAAcgBlAHYAWQBlAGEAcgA8AD4AeQBlAGEAcgAsAGEAcAAqAG0AaQBiAFAAZQByAGMAZQBuAHQALAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAdgAsAEkARgAoAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAAwACwARgB2AFQAbwB0AGEAbAArAGkAbgB0AGUAcgBlAHMAdABQAGEAeQArAHAAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAGEAcAAsAGYAdgApACkAKQA7AFwAbgBcAG4AUwB0AGUAcABVAHAAVgBhAGwAdQBlACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALABwAHAASQBuAHYAZQBzAHQAZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALQBwAHAASQBuAHYAZQBzAHQAZQBkAD4ATQBBAFgAKABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACkALABjAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAMAApACkAOwBcAG4AXABuAFAAcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAGEAYwBjAHUAbQBQAGUAbgBhAGwAdAB5ACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAYQB5ACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsAHcAZABQAGUAbgBhAGwAdAB5ACwAYwB2ACwAZgB2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABhAHcAcAAsAGEAYwBjAHUAbQBQAGUAbgBhAGwAdAB5ACoAdwBkAFAAZQBuAGEAbAB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AaQBuAEkAYgAsAGYAdgAqAGEAdwBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAFUAcABWAGEAbAB1AGUALABTAHQAZQBwAFUAcABWAGEAbAB1AGUAKABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAYwB2ACwAcABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAQQBjAHQASQBCACwASQBGACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsADAALABNAEEAWAAoAHAAYQB5ACsAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAcwBVAHAAVgBhAGwAdQBlACwAbQBpAG4ASQBiACkAKgB3AGQAUABlAG4AYQBsAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAGEAdwBwACwAUAByAGUAQQBjAHQASQBCACwAcwBVAHAAVgBhAGwAdQBlACwAbQBpAG4ASQBiACkAKQApADsAXABuAFwAbgBQAG8AcwB0AEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYASQBCACwAdABpAG0AZQBGAHIAbwBtAFYAYQBsACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAGUAZABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABjAHYALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAUABlAG4AYQBsAHQAeQAsAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAWQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAHQAaQBtAGUARgByAG8AbQBWAGEAbAA9ADAALgAwACwAMAAuADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEATgBEACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAGUAZABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAGMAdgAsAHAAcgBlAHYASQBCACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUABZACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAcAByAGUAdgBJAEIALAAwACkAKgB3AGQAUABlAG4AYQBsAHQAeQApACkAKQA7AFwAbgBcAG4AVwBpAHQAaABkAHIAYQB3AGEAbABQAGUAbgBhAGwAdAB5AEQAYQBpAGwAeQAgAD0AIABMAEEATQBCAEQAQQAoAGgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwAdwBkAFQAYQBrAGUAbgAsAEkAcwBBAGMAdABpAHYAYQB0AGkAbwBuACwAQwBvAG4AdAByAGEAYwB0AFYAYQBsAHUAZQAsAHAAcgBlAHYATQBhAHcAYQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAtAEkARgAoAEEATgBEACgATgBPAFQAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAApACwAdwBkAFQAYQBrAGUAbgA+ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAHcAZABUAGEAawBlAG4ALABDAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAZABIAGEAaQByAGMAdQB0AEEAZgB0AGUAcgBBAGMAdABpAHYAYQB0AGkAbwBuACgAcAByAGUAdgBNAGEAdwBhACwASQBzAEEAYwB0AGkAdgBhAHQAaQBvAG4ALAB3AGQAVABhAGsAZQBuACwAQwBvAG4AdAByAGEAYwB0AFYAYQBsAHUAZQApACwAMAApACkAOwBcAG4AXABuAE0AYQB4AEEAbABsAG8AdwBXAGQAQQBtAG8AdQBuAHQARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALABJAEIALABtAGEAdwBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAApACwASQBCACoAbQBhAHcAZAAsADAAKQApADsAXABuAFwAbgBNAGEAdwBTAHQAYQBjAGsARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBZAGUAYQByACwAYQBjAGMAdQBtAFAAZQBuAGEAbAB0AHkALABwAHIAZQB2AEkAbgBjAG8AbQBlAEIAYQBzAGUALABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAcAByAGUAdgBNAGEAdwBhACwAeQBlAGEAcgAsAHAAYQB5ACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsAGMAdgAsAHQAaQBtAGUARgByAG8AbQBWAGEAbAAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABmAHYALABtAGEAdwBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAdwBkAFAAZQBuAGEAbAB0AHkALABXAGkAdABoAGQAcgBhAHcAYQBsAFAAZQBuAGEAbAB0AHkARABhAGkAbAB5ACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALAB3AGQAVABhAGsAZQBuACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAYwB2ACwAcAByAGUAdgBNAGEAdwBhACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAZQBBAGMAdABJAEIAQQBsAGwALABQAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAKABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHAAcgBlAHYAUwB0AGUAcABVAHAALABwAGEAeQAsAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAB3AGQAUABlAG4AYQBsAHQAeQAsAGMAdgAsAGYAdgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQB3AHAALABDAEgATwBPAFMARQBDAE8ATABTACgAcAByAGUAQQBjAHQASQBCAEEAbABsACwAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAGUAQQBjAHQASQBCACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAHAAcgBlAEEAYwB0AEkAQgBBAGwAbAAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABlAHAAVQBwAFYAYQBsAHUAZQAsAEMASABPAE8AUwBFAEMATwBMAFMAKABwAHIAZQBBAGMAdABJAEIAQQBsAGwALAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUALABDAEgATwBPAFMARQBDAE8ATABTACgAcAByAGUAQQBjAHQASQBCAEEAbABsACwANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAcwAsAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACgAcAByAGUAdgBZAGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAeQBlAGEAcgAsAHMAdABlAHAAVQBwAFYAYQBsAHUAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQB2ACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAHMALAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBQAFkALABDAEgATwBPAFMARQBDAE8ATABTACgAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAcwAsADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAbwBzAHQAQQBjAHQASQBCACwAUABvAHMAdABBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAKABwAHIAZQB2AEkAbgBjAG8AbQBlAEIAYQBzAGUALAB0AGkAbQBlAEYAcgBvAG0AVgBhAGwALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGMAdgAsAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABQAGUAbgBhAGwAdAB5ACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUABZACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAGUAQQBjAHQASQBCACsAcABvAHMAdABBAGMAdABJAEIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAdwBhACwATQBhAHgAQQBsAGwAbwB3AFcAZABBAG0AbwB1AG4AdABEAGEAaQBsAHkAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABtAGEAdwBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAHkAZQBhAHIALABhAHcAcAAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABzAHQAZQBwAFUAcABWAGEAbAB1AGUALABtAHYALABtAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBQAFkALABtAGEAdwBhACwAdwBkAFAAZQBuAGEAbAB0AHkALABtAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUAKQApACkAOwAgAFwAbgBcAG4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgASABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALABJAHMAQQBuAG4ALABJAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAG8AdABlAGMAdABlAGQASQBuAGMAUABlAHIALABJAEYAKABBAE4ARAAoAEgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwASQBzAEEAbgBuACkALABwAHIAbwB0AGUAYwB0AGUAZABJAG4AYwBQAGUAcgAqAEkAbgBjAG8AbQBlAEIAYQBzAGUALAAwACkAKQA7ACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8AVQB0AGkAbABzACIALAAiAHQAZQB4AHQAIgA6ACIALwAvAEYAaQBuAGQAcwAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAgAGEAIABwAG8AbAB5AG4AbwBtAGkAYQBsACAAZwBpAHYAZQBuACAAYQBuACAAaQBuAGkAdABpAGEAbAAgAGcAdQBlAHMAcwAsACAAdABoAGUAIABwAG8AbAB5AG4AbwBtAGkAYQBsACwAIABpAHQAcwAgAGQAZQByAGkAdgBhAHQAaQB2AGUALAAgAGEAbgBkACAAYQAgAHQAbwBsAGUAcgBhAG4AYwBlACAAXABuAC8ALwBFAHgAYQBtAHAAbABlACAAQwBhAGwAbAA6ACAATgBlAHcAdABvAG4AUgBhAHAAaABzAG8AbgAoADMALABMAEEATQBCAEQAQQAoAHgALAAoAHgALQAxACkAXgAyACkALABMAEEATQBCAEQAQQAoAHgALAAyACoAKAB4AC0AMQApACkALAAwAC4AMAAwADAAMAAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwBOAGUAdwB0AG8AbgBSAGEAcABoAHMAbwBuACgAMwAsAEwAQQBNAEIARABBACgAeAAsACgAeAAtADEAKQBeADIAKQAsAEwAQQBNAEIARABBACgAeAAsADIAKgAoAHgALQAxACkAKQAsACkAIAAgAFwAbgBOAGUAdwB0AG8AbgBSAGEAcABoAHMAbwBuACAAPQAgAEwAYQBtAGIAZABhACgAZwB1AGUAcwBzACwAeQAsAGQAeQAsAHQAbwBsAGUAcgBhAG4AYwBlAF8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABlAHQAKAB4AG4ALAAgAGcAdQBlAHMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAbwBsAGUAcgBhAG4AYwBlACwASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB0AG8AbABlAHIAYQBuAGMAZQBfACkALAAwAC4AMAAwADAAMQAsAHQAbwBsAGUAcgBhAG4AYwBlAF8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHgAbgBfADEALAAgAHgAbgAgAC0AIAB5ACgAeABuACkALwBkAHkAKAB4AG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAZgAoAEEAQgBTACgAeABuAF8AMQAgAC0AIAB4AG4AKQA8ACAAdABvAGwAZQByAGEAbgBjAGUALAB4AG4ALAAgAE4AZQB3AHQAbwBuAFIAYQBwAGgAcwBvAG4AKAB4AG4AXwAxACwAeQAsAGQAeQAsAHQAbwBsAGUAcgBhAG4AYwBlACkAKQApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACAAPQAgAFwAIgBoAHQAdABwAHMAOgAvAC8AbQBvAHIAdAAuAHMAbwBhAC4AbwByAGcALwBkAGEAdABhAC8AXAAiADsAXABuAGUAcgByAG8AcgBNAGUAcwBzAGEAZwBlACAAPQAgAFwAIgBEAG8AZQBzACAATgBvAHQAIABFAHgAaQBzAHQAXAAiADsAXABuAFwAbgAvAC8ARQB4AGEAbQBwAGwAZQAgAEMAYQBsAGwAcwA6AFwAbgAvAC8AIAAgACAAIAA9AEcAZQB0AE0AbwByAHQAUwBvAGEATwByAGcAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAoADEAKQAgAHQAbwAgAGcAZQB0ACAAdABoAGUAIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAaQBkACAAYQBuAGQAIABuAGEAbQBlAC4AXABuAC8ALwAgACAAIAAgAD0ARwBlAHQATQBvAHIAdABTAG8AYQBPAHIAZwBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACgAUwBFAFEAVQBFAE4AQwBFACgAMQAwADAALAAsADEAKQApACAAdABvACAAZwBlAHQAIABhACAAbABpAHMAdAAgAG8AZgAgAHQAYQBiAGwAZQAgAGkAZABzACAAYQBuAGQAIABuAGEAbQBlAHMALgAgACAAIAAgACAAIAAgAFwAbgBHAGUAdABNAG8AcgB0AFMAbwBhAE8AcgBnAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAIAAgAD0AIABMAEEATQBCAEQAQQAoAHQAYQBiAGwAZQBOAHUAbQBiAGUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoACAAIAAgAGYAaQBsAGUATgBhAG0AZQAsACAATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACAAJgAgAFwAIgB0AFwAIgAmAHQAYQBiAGwAZQBOAHUAbQBiAGUAcgAmAFwAIgAuAHgAbQBsAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHgAcABhAHQAaAAsAFwAIgAvAC8AVABhAGIAbABlAE4AYQBtAGUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBpAGwAdABlAHIAZQBkAFgAbQBsACwARgBJAEwAVABFAFIAWABNAEwAKABXAEUAQgBTAEUAUgBWAEkAQwBFACgARgBpAGwAZQBOAGEAbQBlACkALAB4AHAAYQB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAdABlAG0AMQAsACAAdABhAGIAbABlAE4AdQBtAGIAZQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQB0AGUAbQAyACwAIABJAEYARQBSAFIATwBSACgAZgBpAGwAdABlAHIAZQBkAFgAbQBsACwAZQByAHIAbwByAE0AZQBzAHMAYQBnAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAaQB0AGUAbQAxACwAaQB0AGUAbQAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQApADsAXABuAC8ALwBFAHgAYQBtAHAAbABlACAAQwBhAGwAbAA6AFwAbgAvAC8AIAAgACAAIABGAGkAbAB0AGUAcgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAYwB0AGkAdgBlAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAKAAkAEEAJAAyACMAKQAgAHQAbwAgAGYAaQBsAHQAZQByACAAdABoAGUAIABsAGkAcwB0ACAAbwBmACAAdABhAGIAbABlAHMAIABkAG8AdwBuACAAdABoAGUAIABvAG4AZQBzACAAdABoAGEAdAAgAGUAeABpAHMAdAAsACAAdwBoAGUAcgBlACAAQQAyACMAIABjAG8AbgB0AGEAaQBuAHMAIAAvAC8AIAAvAC8APQBHAGUAdABNAG8AcgB0AFMAbwBhAE8AcgBnAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAKABTAEUAUQBVAEUATgBDAEUAKAAxADAAMAAsACwAMQApACkAXABuAEYAaQBsAHQAZQByAE0AbwByAHQAUwBvAGEATwByAGcAQQBjAHQAaQB2AGUAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAgAD0AIABMAGEAbQBiAGQAYQAoAHQAdwBvAEMAbwBsAHUAbQBuAEEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAAgAHIALAB0AHcAbwBDAG8AbAB1AG0AbgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKAByACwATwBGAEYAUwBFAFQAKAByACwAMAAsADEALAAsADEAKQAgADwAPgBlAHIAcgBvAHIATQBlAHMAcwBhAGcAZQApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ALwAvAEUAeABhAG0AcABsAGUAIABDAGEAbABsADoAXABuAC8ALwAgACAAIAAgAEcAZQB0AE0AbwByAHQAYQBsAGkAdAB5AFQAYQBiAGwAZQAoADEANAAsACwAKQAgAHQAbwAgAHIAZQB0AHIAaQBlAHYAZQAgAHQAaABlACAAdABhAGIAbABlACAAdwBpAHQAaAAgAEkAZAAgADEANAAsACAAbQBpAG4AIABhAGcAZQAgADAALAAgAGEAbgBkACAAbQBhAHgAIABhAGcAZQAgADEAMgAwAC4AXABuAC8ALwAgACAAIAAgAEcAZQB0AE0AbwByAHQAYQBsAGkAdAB5AFQAYQBiAGwAZQAoADEAMwAsADEAMAAsADEAMAAwACkAIAB0AG8AIAByAGUAdAByAGkAZQB2AGUAIAB0AGgAZQAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABJAGQAIAAxADMALAAgAG0AaQBuACAAYQBnAGUAIAAxADAALAAgAGEAbgBkACAAbQBhAHgAIABhAGcAZQAgADEAMAAuAFwAdABcAHQAXAB0AFwAdABcAHQAXAB0ACAAIABcAG4ARwBlAHQATQBvAHIAdABhAGwAaQB0AHkAVABhAGIAbABlACAAPQBMAEEATQBCAEQAQQAoAFQAYQBiAGwAZQBJAEQALABNAGkAbgBBAGcAZQBfACwATQBhAHgAQQBnAGUAXwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgATQBpAG4AQQBnAGUALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgATQBpAG4AQQBnAGUAXwApACwAMAAsAE0AaQBuAEEAZwBlAF8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBhAHgAQQBnAGUALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgATQBhAHgAQQBnAGUAXwApACwAMQAyADAALABNAGEAeABBAGcAZQBfACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAaQBsAGUAVAB5AHAAZQAsAFwAIgAuAHgAbQBsAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBlAGEAcgBjAGgAUwB0AHIAaQBuAGcALABcACIALwAvAEAAdAAgAHwAIAAvAC8AWQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAYQBiAGwAZQBOAGEAbQBlACwARQBOAEMATwBEAEUAVQBSAEwAKABcACIAdABcACIAJgBUAGEAYgBsAGUASQBEACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AbwByAHQAVABiAGwALAAgAFcAUgBBAFAAUgBPAFcAUwAoAEYASQBMAFQARQBSAFgATQBMACgAVwBFAEIAUwBFAFIAVgBJAEMARQAoAE0AbwByAHQAUwBvAGEATwByAGcAQQBkAGQAcgBlAHMAcwAgACYAVABhAGIAbABlAE4AYQBtAGUAIAAmACAARgBpAGwAZQBUAHkAcABlACkALAAgAFMAZQBhAHIAYwBoAFMAdAByAGkAbgBnACkALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABNAG8AcgB0AFQAYgBsACwAIAAoAEkATgBEAEUAWAAoAE0AbwByAHQAVABiAGwALAAgADAALAAgADIAKQAgAD4AIABNAGkAbgBBAGcAZQApACAAKgAgACgASQBOAEQARQBYACgATQBvAHIAdABUAGIAbAAsACAAMAAsACAAMgApACAAPAAgAE0AYQB4AEEAZwBlACkAKQApACkAOwBcAG4ALwAvAEMAbwBtAGIAbwBTAGMAYQBuACAAdwBpAGwAbAAgAGEAbABsACAAcwBjAGEAbgAgAG0AdQBsAHQAaQBwAGwAZQAgAGEAcgByAGEAeQBzAC4AIABUAGgAZQAgAHMAdQBwAHAAbABpAGUAZAAgAGYAdQBuAGMAdABpAG8AbgAgAHMAaABvAHUAbABkACAAaABhAHYAZQAgADEAIABtAG8AcgBlACAAcABhAHIAYQBtAGUAdABlAHIAIAB0AGgAYQBuACAAdABoAGUAIABhAHIAcgBhAHkAcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AVABoAGUAIABwAGEAcgBhAG0AZQB0AGUAcgAgAHQAaABhAHQAIAB0AGEAawBlAHMAIAB0AGgAZQAgAHAAcgBlAHYAaQBvAHUAcwAgAHYAYQBsAHUAZQAgAHMAaABvAHUAbABkACAAYQBsAHcAYQB5AHMAIABiAGUAIAB0AGgAZQAgAGwAYQBzAHQAIABvAG4AZQAgAGkAbgAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuAC4AXABuAFwAbgAvAC8AUwBjAGEAbgAgADIAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAAzACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4AMgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABhACwAYgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGMALABmAHUAbgBjAHQAaQBvAG4AKABhACwAYgAsAGMAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADMAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA0ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4AMwAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGYAdQBuAGMAdABpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYwBsAG8AcwB1AHIAZQAsACAATQBBAFAAKABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAZAAsAGYAdQBuAGMAdABpAG8AbgAoAGEALABiACwAYwAsAGQAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADQAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA1ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANAAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAZgB1AG4AYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABjAGwAbwBzAHUAcgBlACwAIABNAEEAUAAoAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGEALABiACwAYwAsAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABlACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACwAZAAsAGUAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADUAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA2ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANQAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAYQByAHIAYQB5ADUALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAGEAcgByAGEAeQAzACwAYQByAHIAYQB5ADQALABhAHIAcgBhAHkANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABhACwAYgAsAGMALABkACwAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGYALABmAHUAbgBjAHQAaQBvAG4AKABhACwAYgAsAGMALABkACwAZQAsAGYAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADYAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA3ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAYQByAHIAYQB5ADUALABhAHIAcgBhAHkANgAsAGYAdQBuAGMAdABpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYwBsAG8AcwB1AHIAZQAsACAATQBBAFAAKABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABhAHIAcgBhAHkANAAsAGEAcgByAGEAeQA1ACwAYQByAHIAYQB5ADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABjACwAZAAsAGUALABmACwATABBAE0AQgBEAEEAKABnACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACwAZAAsAGUALABmACwAZwApACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACwATABBAE0AQgBEAEEAKABwAHIAZQB2AFYAYQBsAHUAZQAsAGYAdQBuAGMALABmAHUAbgBjACgAcAByAGUAdgBWAGEAbAB1AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBDAEEATgAoAGkAbgBpAHQAVgBhAGwAdQBlACwAYwBsAG8AcwB1AHIAZQAsAHAAcgBvAGMAZQBzAHMAUwBlAHIAaQBlAHMAKQApACkAOwBcAG4AXABuAFwAbgAvAC8AUwBoAG8AcgB0ACAAYwB1AHQAIABmAG8AcgAgAEMASABPAE8AUwBFAEMATwBMAFMAXABuAEMAQwAgAD0AIABMAEEATQBCAEQAQQAoAEEAcgByAGEAeQAsAGkAbgBkAGUAeAAsAEMASABPAE8AUwBFAEMATwBMAFMAKABBAHIAcgBhAHkALABpAG4AZABlAHgAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGIAcgBlAGEAawBzACAAYQAgAHIAbwB3ACAAaQBuAHQAbwAgAHAAYQByAGEAbQBlAHQAZQByAHMAIABpAG4AdABvACAAYQAgAGYAdQBuAGMAdABpAG8AbgAuAFwAbgAvAC8AVABoAGkAcwAgAG0AYQB5ACAAbgBlAGUAZAAgAHQAbwAgAGIAZQAgAHUAcABkAGEAdABlAGQAIABpAGYAIABhACAAZgB1AG4AYwB0AGkAbwBuACAAaABhAHMAIABtAG8AcgBlACAAdABoAGEAbgAgADEANQAgAHAAYQByAGEAbQBlAHQAZQByAHMALgBcAG4AQwB1AHIAcgB5ACAAPQAgAEwAQQBNAEIARABBACgAYQByAHIAYQB5ACwAZgB1AG4AYwB0AGkAbwBuACwATABFAFQAKABmACwAZgB1AG4AYwB0AGkAbwBuACwAdgAsAEMASABPAE8AUwBFAFIATwBXAFMAKABhAHIAcgBhAHkALAAxACkALABTAFcASQBUAEMASAAoAEMATwBMAFUATQBOAFMAKABhAHIAcgBhAHkAKQAsAFwAbgAwACwAZgAoACkALABcAG4AMQAsAGYAKABDAEMAKAB2ACwAMQApACkALABcAG4AMgAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQApACwAXABuADMALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACkALABcAG4ANAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACkALABcAG4ANQAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQApACwAXABuADYALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACkALABcAG4ANwAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACkALABcAG4AOAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQApACwAXABuADkALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACkALABcAG4AMQAwACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQApACwAXABuADEAMQAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkAKQAsAFwAbgAxADIALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACkALABcAG4AMQAzACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQApACwAXABuADEANAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkAKQAsAFwAbgAxADUALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACkALABcAG4AMQA2ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQAsAEMAQwAoAHYALAAxADYAKQApACwAXABuADEANwAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkALABDAEMAKAB2ACwAMQA3ACkAKQAsAFwAbgAxADgALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACwAQwBDACgAdgAsADEANgApACwAQwBDACgAdgAsADEANwApACwAQwBDACgAdgAsADEAOAApACkALABcAG4AMQA5ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQAsAEMAQwAoAHYALAAxADYAKQAsAEMAQwAoAHYALAAxADcAKQAsAEMAQwAoAHYALAAxADgAKQAsAEMAQwAoAHYALAAxADkAKQApACwAXABuADIAMAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkALABDAEMAKAB2ACwAMQA3ACkALABDAEMAKAB2ACwAMQA4ACkALABDAEMAKAB2ACwAMQA5ACkALABDAEMAKAB2ACwAMgAwACkAKQAsAFwAbgBcACIATgBlAGUAZAAgAHQAbwAgAGUAeAB0AGUAbgBkACAAdABoAGUAIABjAHUAcgByAHkAIABmAHUAbgBjAHQAaQBvAG4AXAAiACkAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAG0AaQBtAGkAYwBzACAAYQAgAFMAQwBBAE4ALAAgAGIAdQB0ACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlACAAaQBzACAAYQBuACAAYQByAHIAYQB5ACAAYwBhAGwAbABlAGQAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXABuAC8ALwBUAGgAZQAgAGEAcgByAGEAeQAgAGkAcwAgAGEAIABnAHIAbwB1AHAAIABvAGYAIABjAG8AbAB1AG0AbgBzACAAdABvACAAdwBvAHIAawAgAHQAaAByAG8AdQBnAGgAIABhAHQAIABlAGEAYwBoACAAcgBvAHcALgBcAG4ALwAvAFQAaABlACAATABBAE0AQgBEAEEAIABmAHUAbgBjAHQAaQBvAG4AIABtAHUAcwB0ACAAcgBlAHQAdQByAG4AIABhACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkALgAgAFQAaABlACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIABtAHUAcwB0ACAAYgBlACAAYQB0ACAAbABlAGEAcwB0ACAAYQBzACAAbABvAG4AZwAgAGEAcwAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGkAcwAgAG4AbwB0ACAAbQBlAGEAbgB0ACAAdABvACAAYgBlACAAYwBhAGwAbABlAGQAIABvAG4AIABpAHQAcwAgAG8AdwBuAFwAbgBNAHUAbAB0AGkAUwBjAGEAbgBIAGUAbABwAGUAcgAgAD0AIABMAEEATQBCAEQAQQAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALABvAHUAdABwAHUAdABfACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAHAAcgBlAHYAXwBzAGkAegBlACwAQwBPAEwAVQBNAE4AUwAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABhAHIAcgBfAHMAaQB6AGUALABSAE8AVwBTACgAYQByAHIAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABhAHIAYQBfAHYAZQBjAHQAbwByACwASABTAFQAQQBDAEsAKABDAEgATwBPAFMARQBSAE8AVwBTACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsADEAKQAsAEMASABPAE8AUwBFAFIATwBXAFMAKABhAHIAcgBhAHkALAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAQwB1AHIAcgB5ACgAcABhAHIAYQBfAHYAZQBjAHQAbwByACwAZgB1AG4AYwB0AGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaABvAGwAZABvAHYAZQByACwAVABBAEsARQAoAHIAZQBzAHUAbAB0ACwAMQAsAHAAcgBlAHYAXwBzAGkAegBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbgBlAHgAdABfAG8AdQB0AHAAdQB0ACwASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABvAHUAdABwAHUAdABfACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQALABWAFMAVABBAEMASwAoAG8AdQB0AHAAdQB0AF8ALAByAGUAcwB1AGwAdAApACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAYQByAHIAXwBzAGkAegBlAC0AMQA9ADAALABuAGUAeAB0AF8AbwB1AHQAcAB1AHQALAAgAE0AdQBsAHQAaQBTAGMAYQBuAEgAZQBsAHAAZQByACgAaABvAGwAZABvAHYAZQByACwARABSAE8AUAAoAGEAcgByAGEAeQAsADEAKQAsAGYAdQBuAGMAdABpAG8AbgAsAG4AZQB4AHQAXwBvAHUAdABwAHUAdAApACkAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAG0AaQBtAGkAYwBzACAAYQAgAFMAQwBBAE4ALAAgAGIAdQB0ACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlACAAaQBzACAAYQBuACAAYQByAHIAYQB5ACAAYwBhAGwAbABlAGQAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXABuAC8ALwBUAGgAZQAgAGEAcgByAGEAeQAgAGkAcwAgAGEAIABnAHIAbwB1AHAAIABvAGYAIABjAG8AbAB1AG0AbgBzACAAdABvACAAdwBvAHIAawAgAHQAaAByAG8AdQBnAGgAIABhAHQAIABlAGEAYwBoACAAcgBvAHcALgBcAG4ALwAvAFQAaABlACAATABBAE0AQgBEAEEAIABmAHUAbgBjAHQAaQBvAG4AIABtAHUAcwB0ACAAcgBlAHQAdQByAG4AIABhACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkALgAgAFQAaABlACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIABtAHUAcwB0ACAAYgBlACAAYQB0ACAAbABlAGEAcwB0ACAAYQBzACAAbABvAG4AZwAgAGEAcwAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAdABcAHQAXAB0AFwAdABcAHQAIAAgACAAXABuAE0AdQBsAHQAaQBTAEMAQQBOACAAPQBMAEEATQBCAEQAQQAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALABNAHUAbAB0AGkAUwBjAGEAbgBIAGUAbABwAGUAcgAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALABhAHIAcgBhAHkALABmAHUAbgBjAHQAaQBvAG4ALAApACkAOwBcAG4AXABuAC8ALwBUAGgAaQBzACAAZgB1AG4AYwB0AGkAbwBuACAAbQBpAG0AaQBjAHMAIABhACAAUwBDAEEATgAsACAAYgB1AHQAIAB0AGgAZQAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAIABpAHMAIABhAG4AIABhAHIAcgBhAHkAIABjAGEAbABsAGUAZAAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALgBcAG4ALwAvAFQAaABlACAAYQByAHIAYQB5ACAAaQBzACAAYQAgAGcAcgBvAHUAcAAgAG8AZgAgAGMAbwBsAHUAbQBuAHMAIAB0AG8AIAB3AG8AcgBrACAAdABoAHIAbwB1AGcAaAAgAGEAdAAgAGUAYQBjAGgAIAByAG8AdwAuAFwAbgAvAC8AVABoAGUAIABMAEEATQBCAEQAQQAgAGYAdQBuAGMAdABpAG8AbgAgAG0AdQBzAHQAIAByAGUAdAB1AHIAbgAgAGEAIABjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAuACAAVABoAGUAIABjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAG0AdQBzAHQAIABiAGUAIABhAHQAIABsAGUAYQBzAHQAIABhAHMAIABsAG8AbgBnACAAYQBzACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXAB0AFwAdABcAHQAXAB0AFwAdAAgACAAIABcAG4ALwAvAEkAbABsAHUAcwB0AHIAYQB0AGUAIAB3AG8AcgBrAHMAIABsAGkAawBlACAATQB1AGwAaQB0AFMAQwBBAE4AIABhAG4AZAAgAGEAZABkAHMAIABhACAAaABlAGEAZABlAHIAIABhAHQAIAB0AGgAZQAgAHQAbwBwAC4AXABuAEkAbABsAHUAcwB0AHIAYQB0AGUAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsAGEAcgByAGEAeQAsAGYAdQBuAGMAdABpAG8AbgAsAGgAZQBhAGQAZQByACwAVgBTAFQAQQBDAEsAKABoAGUAYQBkAGUAcgAsAE0AdQBsAHQAaQBTAGMAYQBuAEgAZQBsAHAAZQByACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsAGEAcgByAGEAeQAsAGYAdQBuAGMAdABpAG8AbgAsACkAKQApADsAIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAVgBBAC4AVwBpAHQAaABkAHIAYQB3AGEAbABQAGUAbgBhAGwAdAB5ACIALAAiAFYAQQAuAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUAIgAsACIAVgBBAC4ASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAIgAsACIAVgBBAC4AQQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAiACwAIgBWAEEALgBJAG4AaQB0AGkAYQBsAEMAdQByAHIAZQBuAHQASQBuAGMAbwBtAGUAQgBhAHMAZQAiACwAIgBWAEEALgBJAG4AYwBvAG0AZQBCAGEAcwBlAEEAZABqAHUAcwB0AG0AZQBuAHQAIgAsACIAVgBBAC4ASQBuAGMAbwBtAGUAQgBhAHMAZQAiACwAIgBWAEEALgBNAGEAeABBAGwAbABvAHcAYQBiAGwAZQBXAGQAQQBtAG8AdQBuAHQAIgAsACIAVgBBAC4ATQBhAHcAUwB0AGEAYwBrACIALAAiAFYAQQAuAFAAcgBvAHQAZQBjAHQAZQBkAEkAbgBjAG8AbQBlAFAAYQB5AG0AZQBuAHQAIgAsACIAVgBBAC4ASQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAiACwAIgBWAEEALgBJAHMAQQBjAHQAaQB2AGEAdABlAGQAIgAsACIAVgBBAC4ATQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUAByAGUAdgBpAG8AdQBzAFkAZQBhAHIAIgAsACIAVgBBAC4AVwBkAEgAYQBpAHIAYwB1AHQAQgBlAGYAbwByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgAiACwAIgBWAEEALgBXAGQASABhAGkAcgBjAHUAdABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAiACwAIgBWAEEALgBJAG4AdABlAHIAZQBzAHQATwBuAFAAYQB5AG0AZQBuAHQAcwAiACwAIgBWAEEALgBTAHQAZQBwAFUAcABWAGEAbAB1AGUAIgAsACIAVgBBAC4AUAByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgBJAG4AYwBvAG0AZQBCAGEAcwBlACIALAAiAFYAQQAuAFAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBJAG4AYwBvAG0AZQBCAGEAcwBlACIALAAiAFYAQQAuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQBEAGEAaQBsAHkAIgAsACIAVgBBAC4ATQBhAHgAQQBsAGwAbwB3AFcAZABBAG0AbwB1AG4AdABEAGEAaQBsAHkAIgAsACIAVgBBAC4ATQBhAHcAUwB0AGEAYwBrAEQAYQBpAGwAeQAiACwAIgBWAEEALgBQAHIAbwB0AGUAYwB0AGUAZABJAG4AYwBvAG0AZQBEAGEAaQBsAHkAIgAsACIAVQB0AGkAbABzAC4ATgBlAHcAdABvAG4AUgBhAHAAaABzAG8AbgAiACwAIgBVAHQAaQBsAHMALgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAZABkAHIAZQBzAHMAIgAsACIAVQB0AGkAbABzAC4AZQByAHIAbwByAE0AZQBzAHMAYQBnAGUAIgAsACIAVQB0AGkAbABzAC4ARwBlAHQATQBvAHIAdABTAG8AYQBPAHIAZwBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACIALAAiAFUAdABpAGwAcwAuAEYAaQBsAHQAZQByAE0AbwByAHQAUwBvAGEATwByAGcAQQBjAHQAaQB2AGUAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAiACwAIgBVAHQAaQBsAHMALgBHAGUAdABNAG8AcgB0AGEAbABpAHQAeQBUAGEAYgBsAGUAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4AMgAiACwAIgBVAHQAaQBsAHMALgBDAG8AbQBiAG8AUwBDAEEATgAzACIALAAiAFUAdABpAGwAcwAuAEMAbwBtAGIAbwBTAEMAQQBOADQAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4ANQAiACwAIgBVAHQAaQBsAHMALgBDAG8AbQBiAG8AUwBDAEEATgA2ACIALAAiAFUAdABpAGwAcwAuAEMAQwAiACwAIgBVAHQAaQBsAHMALgBDAHUAcgByAHkAIgAsACIAVQB0AGkAbABzAC4ATQB1AGwAdABpAFMAYwBhAG4ASABlAGwAcABlAHIAIgAsACIAVQB0AGkAbABzAC4ATQB1AGwAdABpAFMAQwBBAE4AIgAsACIAVQB0AGkAbABzAC4ASQBsAGwAdQBzAHQAcgBhAHQAZQAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAE0ARABZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AIgB9ACwAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBWAEEAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAOgAgAFQAaABlACAAZABhAHQAZQAgAG8AbgAgAHcAaABpAGMAaAAgAHkAbwB1AHIAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGkAcwAgAGEAYwB0AGkAdgBhAHQAZQBkAC4AIABVAHAAbwBuACAAYQBjAHQAaQB2AGEAdABpAG8AbgAgAG8AZgAgAEwAaQBmAGUAdABpAG0AZQAgAEkAbgBjAG8AbQBlACwAIABjAGgAYQBuAGcAZQBzACAAYwBhAG4AbgBvAHQAIABiAGUAIABtAGEAZABlACAAdABvACAAdABoAGUAIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AKABzACkAIABvAHIAIABJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuAHMALgAgAFwAbgAvAC8AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABUAGgAZQAgAGMAbwBuAHQAcgBhAGMAdAAgAHYAYQBsAHUAZQAgAG8AbgAgAGEAbgB5ACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkALgAgAFQAaABlACAAQwBvAG4AdABpAG4AdQBhAHQAaQBvAG4AIABDAG8AbgB0AHIAaQBiAHUAdABpAG8AbgAsACAAaQBmACAAYQBwAHAAbABpAGMAYQBiAGwAZQAsACAAaQBzACAAaQBuAGMAbAB1AGQAZQBkACAAaQBuACAAdABoAGUAIABjAGEAbABjAHUAbABhAHQAaQBvAG4AIABvAGYAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAcwAuACAAUABsAGUAYQBzAGUAIABzAGUAZQAgAFMAUABPAFUAUwBBAEwAIABDAE8ATgBUAEkATgBVAEEAVABJAE8ATgAgAGIAZQBsAG8AdwAuAFwAbgAvAC8AQgBlAG4AZQBmAGkAdAAgAEUAZgBmAGUAYwB0AGkAdgBlACAARABhAHQAZQA6ACAAVABoAGUAIABkAGEAdABlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABpAHMAIABlAGwAZQBjAHQAZQBkAC4AIABUAGgAZQAgAEIAZQBuAGUAZgBpAHQAIABFAGYAZgBlAGMAdABpAHYAZQAgAEQAYQB0AGUAIABpAHMAIAB0AGgAZQAgAHMAYQBtAGUAIABhAHMAIAB0AGgAZQAgAEMAbwBuAHQAcgBhAGMAdAAgAEkAcwBzAHUAZQAgAEQAYQB0AGUALgBcAG4ALwAvAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByADoAIABFAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgADoAVABoAGUAIABkAGEAdABlACAAZgBvAGwAbABvAHcAaQBuAGcAIABlAGEAYwBoACAAYwBvAG4AcwBlAGMAdQB0AGkAdgBlACAAMwAgAG0AbwBuAHQAaAAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AIABJAGYAIAB0AGgAZQAgAG4AZQB4AHQAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGgAYQBzACAAbgBvACAAYwBvAHIAcgBlAHMAcABvAG4AZABpAG4AZwAgAGQAYQB0AGUALAAgAHQAaABlAG4AIAB0AGgAZQAgAEIAZQBuAGUAZgBpAHQAIABRAHUAYQByAHQAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAdwBpAGwAbAAgAGIAZQAgAGQAZQBlAG0AZQBkACAAdABvACAAYgBlACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAGQAYQB5AC4AXABuAC8ALwBGAG8AcgAgAGUAeABhAG0AcABsAGUALAAgAGkAZgAgAGEAIABCAGUAbgBlAGYAaQB0ACAAUQB1AGEAcgB0AGUAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAgAGkAcwAgAE4AbwB2AGUAbQBiAGUAcgAgADIAOQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABGAGUAYgByAHUAYQByAHkAIAAyADkAIABvAGYAIAB0AGgAZQAgAGYAbwBsAGwAbwB3AGkAbgBnACAAeQBlAGEAcgA7ACAAaABvAHcAZQB2AGUAcgAsACAAaQBuACAAYQAgAG4AbwBuAC0ATABlAGEAcAAgAFkAZQBhAHIALAAgAHQAaABlAHIAZQAgAGkAcwAgAG4AbwAgAGMAbwByAHIAZQBzAHAAbwBuAGQAaQBuAGcAIABkAGEAdABlAC4AIABUAGgAZQByAGUAZgBvAHIAZQAsACAAdABoAGUAIABuAGUAeAB0ACAAQgBlAG4AZQBmAGkAdAAgAFEAdQBhAHIAdABlAHIAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIAB3AG8AdQBsAGQAIABiAGUAIABNAGEAcgBjAGgAIAAxAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgA6ACAARQBhAGMAaAAgAGMAbwBuAHMAZQBjAHUAdABpAHYAZQAgAG8AbgBlACAAeQBlAGEAcgAgAHAAZQByAGkAbwBkACAAcwB0AGEAcgB0AGkAbgBnACAAbwBuACAAdABoAGUAIABCAGUAbgBlAGYAaQB0ACAARQBmAGYAZQBjAHQAaQB2AGUAIABEAGEAdABlAC4AXABuAC8ALwBCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQA6ACAAVABoAGUAIABkAGEAdABlACAAbwBuACAAdwBoAGkAYwBoACAAZQBhAGMAaAAgAEIAZQBuAGUAZgBpAHQAIABZAGUAYQByACAAYgBlAGcAaQBuAHMALgBcAG4ALwAvAEMAbwBuAHQAcgBhAGMAdAAgAFkAZQBhAHIAOgAgAEUAYQBjAGgAIABjAG8AbgBzAGUAYwB1AHQAaQB2AGUAIABvAG4AZQAgAHkAZQBhAHIAIABwAGUAcgBpAG8AZAAgAHMAdABhAHIAdABpAG4AZwAgAG8AbgAgAHQAaABlACAAQwBvAG4AdAByAGEAYwB0ACAASQBzAHMAdQBlACAARABhAHQAZQAuAFwAbgAvAC8AQwBvAHYAZQByAGUAZAAgAFAAZQByAHMAbwBuACgAcwApADoAIABUAGgAZQAgAHAAZQByAHMAbwBuACwAIABvAHIAIABwAGUAcgBzAG8AbgBzACwAIAB3AGgAbwBzAGUAIABsAGkAZgBlAHQAaQBtAGUAIAB3AGkAdABoAGQAcgBhAHcAYQBsAHMAIABhAHIAZQAgAGcAdQBhAHIAYQBuAHQAZQBlAGQAIAB1AG4AZABlAHIAIAB0AGgAZQAgAEwAaQB2AGkAbgBnACAAQgBlAG4AZQBmAGkAdAAuACAAXABuAC8ALwBDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AIABDAGgAYQBuAGcAZQBzADoAIABUAGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAG0AYQB5ACAAYgBlACAAYwBoAGEAbgBnAGUAZAAgAGkAbgAgAHQAaABlACAAZQB2AGUAbgB0ACAAbwBmACAATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ACAAcAByAGkAbwByACAAdABvACAAbwByACAAbwBuACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAuACAATgBvACAAZgB1AHIAdABoAGUAcgAgAGMAaABhAG4AZwBlAHMAIABtAGEAeQAgAGIAZQAgAG0AYQBkAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALgBcAG4AXABuAFwAbgBcAG4ALwAvAEUAeABjAGUAcwBzACAAVwBpAHQAaABkAHIAYQB3AGEAbAA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACwAIABvAHIAIABwAG8AcgB0AGkAbwBuACAAbwBmACAAYQAgAHcAaQB0AGgAZAByAGEAdwBhAGwALAAgAHQAaABhAHQAIABpAHMAIAB0AGEAawBlAG4AIABpAG4AIABhACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABhAGYAdABlAHIAIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBuAGQAXABuAC8ALwBlAHgAYwBlAGUAZABzACAAdABoAGUAIABnAHIAZQBhAHQAZQByACAAbwBmACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAHcAaQB0AGgAbwB1AHQAIAByAGUAZAB1AGMAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAFwAbgAvAC8AbwByACAAdABoAGUAIABSAGUAcQB1AGkAcgBlAGQAIABNAGkAbgBpAG0AdQBtACAARABpAHMAdAByAGkAYgB1AHQAaQBvAG4AIABhAG0AbwB1AG4AdAAgAGEAcwAgAGMAYQBsAGMAdQBsAGEAdABlAGQAIABiAHkAIAB0AGgAZQAgAEEAbgBuAHUAaQB0AHkAIABTAGUAcgB2AGkAYwBlACAAQwBlAG4AdABlAHIALgAgAFwAbgAvAC8AQQBuACAARQB4AGMAZQBzAHMAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAdwBpAGwAbAAgAGMAYQB1AHMAZQAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAYQBuAGQAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAHQAbwAgAGIAZQAgAHIAZQBjAGEAbABjAHUAbABhAHQAZQBkAC4AXABuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAEMAdgAsAGMAdgAsAHAATQBhAHcALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbgBvAFcAZAAsACAAMQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAFcAZAAsACAAMQAgAC0AIABNAEEAWAAoADAALAAgAHcAZABUAGEAawBlAG4AIAAtACAAcABNAGEAdwApACAALwAgACgAcABDAHYAIAAtACAAcABNAGEAdwApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgADEAIAAtACAAdwBkAFQAYQBrAGUAbgAgAC8AIABjAHYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAdwBkAFQAYQBrAGUAbgAgADwAPgAgADAALAAgAEkARgAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsACAAcAByAGUAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQALAAgAHAAbwBzAHQAQQBjAHQAaQB2AGEAdABpAG8AbgBXAGQAKQAsACAAbgBvAFcAZAApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ALwAvAEgAaQBnAGgAZQByACAAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAVgBhAGwAdQBlADoAIABGAG8AcgAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACwAIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABBAG4AbgBpAHYAZQByAHMAYQByAHkAIABWAGEAbAB1AGUAIAB0AGgAYQB0ACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB0AGgAZQAgAGMAdQByAHIAZQBuAHQAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAEkAbgBjAG8AbQBlACAAQgBhAHMAZQA6ACAAVABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABhACAAdgBhAGwAdQBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABMAGkAdgBpAG4AZwAgAEIAZQBuAGUAZgBpAHQAIABmAGUAZQAgAGEAbgBkACAAdABoAGUAIABtAGEAeABpAG0AdQBtACAAYQBtAG8AdQBuAHQAIAB0AGgAYQB0ACAAbQBhAHkAIABiAGUAIAB3AGkAdABoAGQAcgBhAHcAbgAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUAIAB3AGkAdABoAG8AdQB0ACAAcgBlAGQAdQBjAGkAbgBnACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUALgBcAG4ALwAvAFQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlACAAaQBzACAAYQBsAHMAbwAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAYQBtAG8AdQBuAHQAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAsACAAaQBmACAAYQBuAGQAIAB3AGgAZQBuACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIAByAGUAZAB1AGMAZQBkACAAdABvACAAegBlAHIAbwAsACAAYgB1AHQAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQgBhAHMAZQAgAGkAcwAgAHMAdABpAGwAbAAgAGcAcgBlAGEAdABlAHIAIAB0AGgAYQBuACAAegBlAHIAbwAsACAAbwByACAAdQBwAG8AbgAgAHQAaABlACAATABhAHQAZQBzAHQAIABBAG4AbgB1AGkAdAB5ACAARABhAHQAZQAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGgAYQBzAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACwAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAHAAdQByAGMAaABhAHMAZQBQAGEAeQBtAGUAbgB0AHMALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABJAEYAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABwAHIAZQB2AEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKwBwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACsAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACkAKgB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAMAApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ADoAIABBAHAAcABsAGkAYwBhAGIAbABlACAAdABvACAAUABvAGwAYQByAGkAcwAgAEkAbgBjAG8AbQBlACAATQBhAHgAIABvAG4AbAB5ACwAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABpAHMAIABhAG4AIABhAG0AbwB1AG4AdAAgAHQAaABhAHQAIABtAGEAeQAgAGIAZQAgAGEAZABkAGUAZAAgAHQAbwAgAHQAaABlACAAXABuAC8ALwBJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlACAAYQBzACAAcwBoAG8AdwBuACAAaQBuACAAdABoAGUAIABmAG8AbABsAG8AdwBpAG4AZwAgAHQAYQBiAGwAZQA6AFwAbgAvAC8ASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAOgAgAEEAcABwAGwAaQBjAGEAYgBsAGUAIAB0AG8AIABQAG8AbABhAHIAaQBzACAASQBuAGMAbwBtAGUAIABNAGEAeAAgAG8AbgBsAHkALAAgAHQAaABlACAASQBuAGMAbwBtAGUAIABDAHIAZQBkAGkAdAAgAEIAYQBzAGUAIABpAHMAIAB1AHMAZQBkACAAcwBvAGwAZQBsAHkAIABhAHMAIABhACAAYgBhAHMAaQBzACAAZgBvAHIAIABjAGEAbABjAHUAbABhAHQAaQBuAGcAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAQQBwAHAAbABpAGMAYQBiAGwAZQAgAHQAbwAgAFAAbwBsAGEAcgBpAHMAIABJAG4AYwBvAG0AZQAgAE0AYQB4ACAAbwBuAGwAeQAsACAAYQAgAHAAZQByAGMAZQBuAHQAYQBnAGUAIABvAGYAIAB0AGgAZQAgAEkAbgBjAG8AbQBlACAAQwByAGUAZABpAHQAIABCAGEAcwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEMAcgBlAGQAaQB0ACAAYQBtAG8AdQBuAHQAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBJAG4AYwBvAG0AZQAgAE8AcAB0AGkAbwBuADoAIABUAGgAZQAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIABpAHMAIABlAGwAZQBjAHQAZQBkACAAYgB5ACAAWQBvAHUAIABhAHQAIABjAG8AbgB0AHIAYQBjAHQAIABpAHMAcwB1AGUALgAgAFQAaABlACAATQBhAHgAaQBtAHUAbQAgAEEAbgBuAHUAYQBsACAAVwBpAHQAaABkAHIAYQB3AGEAbAAgAEEAbQBvAHUAbgB0AHMAIABhAG4AZAAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AHMAIABvAGYAZgBlAHIAZQBkACAAaQBuACAAZQBhAGMAaAAgAEkAbgBjAG8AbQBlACAATwBwAHQAaQBvAG4AIAB2AGEAcgB5ACAAYgB5ACAAYQBnAGUAIABhAG4AZAAgAHcAaABlAHQAaABlAHIAIAB5AG8AdQAgAGUAbABlAGMAdAAgAG8AbgBlACAAbwByACAAdAB3AG8AIABDAG8AdgBlAHIAZQBkACAAUABlAHIAcwBvAG4AcwAuAFwAbgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAAgAD0AIABMAEEATQBCAEQAQQAoAHAAYQB5AFAAZQByAGkAbwBkACwAcAByAGUAdgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAcABpAGMAYgAsAEkARgAoAHAAYQB5AFAAZQByAGkAbwBkAD4AMAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBzAFAAcgBlAFMAeQBzAFcAZABPAG4AQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAQQBOAEQAKABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBQAHIAZQBTAHkAcwBXAGQATwBuAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAaQBjAGIAKgBpAG4AYwBvAG0AZQBDAHIAZQBkAFIAYQB0AGUALAAwACkAKQApADsAXABuAFwAbgBBAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACAAPQAgAEwAQQBNAEIARABBACgAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAHAAYQB5AFAAZQByAGkAbwBkACwAYwB2ACwASQBGACgATwBSACgATgBPAFQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACkALABwAGEAeQBQAGUAcgBpAG8AZAA9ADAAKQAsADAALABjAHYAKQApADsAXABuAFwAbgBJAG4AaQB0AGkAYQBsAEMAdQByAHIAZQBuAHQASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABwAHIAZQB2AEkAQgAsAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYALABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACwAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALAAgAE0AQQBYACgAcAByAGUAdgBJAEIALAAgAGEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAIAArACAAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwApACwAIABwAHIAZQB2AEkAQgAgACsAIABwAHUAcgBjAGgAYQBzAGUAUABhAHkAbQBlAG4AdABzACkAIAAqACAAdwBkAFAAZQBuAGEAbAB0AHkATQB1AGwAdAApADsAXABuAFwAbgBJAG4AYwBvAG0AZQBCAGEAcwBlAEEAZABqAHUAcwB0AG0AZQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAcAByAGUAdgBJAEIALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGQAZQBsAHQAYQAsACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAgAC0AIABwAHIAZQB2AEkAQgAsACAASQBGACgAQQBOAEQAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAIABOAE8AVAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAApACkALAAgAE0AQQBYACgAMAAsACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAIAAtACAAZABlAGwAdABhACkALAAgADAAKQApACkAOwBcAG4AXABuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIAA9ACAATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAEMAdQByAHIASQBCACwAYQBkAGoAdQBzAHQAbQBlAG4AdAAsAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIAIAArACAAYQBkAGoAdQBzAHQAbQBlAG4AdAApADsAXABuAFwAbgBNAGEAeABBAGwAbABvAHcAYQBiAGwAZQBXAGQAQQBtAG8AdQBuAHQAIAA9ACAATABBAE0AQgBEAEEAKABjAHYALABpAG4AYwBvAG0AZQBCAGEAcwBlACwAbQBhAHcAZABSAGEAdABlACwAIABJAEYAKABjAHYAIAA+ACAAMAAsACAAaQBuAGMAbwBtAGUAQgBhAHMAZQAgACoAIABtAGEAdwBkAFIAYQB0AGUALAAgADAAKQApADsAXABuAFwAbgAvAC8ATABpAGYAZQAgAEMAaABhAG4AZwBlACAARQB2AGUAbgB0ADoAIABBACAAYwBoAGEAbgBnAGUAIAB0AG8AIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAHUAcABvAG4AIABtAGEAcgByAGkAYQBnAGUALAAgAGQAaQB2AG8AcgBjAGUAIABvAHIAIABkAGUAYQB0AGgAIABpAGYAIABwAHIAaQBvAHIAIAB0AG8AIAB0AGgAZQAgAEEAYwB0AGkAdgBhAHQAaQBvAG4AIABEAGEAdABlAC4AXABuAC8ALwBMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQA6ACAAQQBuAHkAIAB3AGkAdABoAGQAcgBhAHcAYQBsACAAdABhAGsAZQBuACAAbwBuACAAbwByACAAYQBmAHQAZQByACAAdABoAGUAIABBAGMAdABpAHYAYQB0AGkAbwBuACAARABhAHQAZQAgAHQAaABhAHQAIABpAHMAIABhAGwAbAAgAG8AcgAgAHAAYQByAHQAIABvAGYAIAB0AGgAZQAgAE0AYQB4AGkAbQB1AG0AIABBAG4AbgB1AGEAbAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAIABBAG0AbwB1AG4AdAAgAG8AcgAgAFAAcgBvAHQAZQBjAHQAZQBkACAASQBuAGMAbwBtAGUAIABQAGEAeQBtAGUAbgB0AC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAOgAgAFQAaABlACAAbQBhAHgAaQBtAHUAbQAgAGEAbQBvAHUAbgB0ACAAdABoAGEAdAAgAG0AYQB5ACAAYgBlACAAdwBpAHQAaABkAHIAYQB3AG4AIABlAGEAYwBoACAAQgBlAG4AZQBmAGkAdAAgAFkAZQBhAHIAIABvAG4AIABvAHIAIABhAGYAdABlAHIAIABhAGMAdABpAHYAYQB0AGkAbgBnACAATABpAGYAZQB0AGkAbQBlACAASQBuAGMAbwBtAGUAIABhAG4AZAAgAHcAaABpAGwAZQAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAZwByAGUAYQB0AGUAcgAgAHQAaABhAG4AIAB6AGUAcgBvACAAdwBpAHQAaABvAHUAdAAgAHIAZQBkAHUAYwBpAG4AZwAgAHQAaABlACAASQBuAGMAbwBtAGUAIABCAGEAcwBlAC4AXABuAC8ALwBNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAUABlAHIAYwBlAG4AdABhAGcAZQA6ACAAVABoAGUAIABwAGUAcgBjAGUAbgB0AGEAZwBlACAAdQBzAGUAZAAgAHQAbwAgAGQAZQB0AGUAcgBtAGkAbgBlACAAdABoAGUAIABNAGEAeABpAG0AdQBtACAAQQBuAG4AdQBhAGwAIABXAGkAdABoAGQAcgBhAHcAYQBsACAAQQBtAG8AdQBuAHQAIABhAHYAYQBpAGwAYQBiAGwAZQAgAGYAbwByACAAdwBpAHQAaABkAHIAYQB3AGEAbAAgAGUAYQBjAGgAIABCAGUAbgBlAGYAaQB0ACAAWQBlAGEAcgAgAGEAZgB0AGUAcgAgAGEAYwB0AGkAdgBhAHQAaQBuAGcAIABMAGkAZgBlAHQAaQBtAGUAIABJAG4AYwBvAG0AZQAgAGEAbgBkACAAdwBoAGkAbABlACAAdABoAGUAIABjAG8AbgB0AHIAYQBjAHQAIAB2AGEAbAB1AGUAIABpAHMAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8ALgBcAG4ATQBhAHcAUwB0AGEAYwBrACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBDAHYALABwAHIAZQB2AEkAQgAsAHAAcgBlAHYASQBDAEIALABwAHIAZQB2AE0AYQB3AGEALABwAGEAeQBQAGUAcgBpAG8AZAAsAHcAZABUAGEAawBlAG4ALABjAHYALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAG0AYQB3AGQAUgBhAHQAZQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQAsACAAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYQBuAG4AaQB2AGUAcgBzAGEAcgB5AEMAdgAsAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcABhAHkAUABlAHIAaQBvAGQALABjAHYAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALAAgAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABwAHIAZQB2AEMAdgAsAGMAdgAsAHAAcgBlAHYATQBhAHcAYQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACgAcABhAHkAUABlAHIAaQBvAGQALABwAHIAZQB2AEkAQwBCACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGkAbgBjAG8AbQBlAEMAcgBlAGQAUgBhAHQAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsACAASQBuAGkAdABpAGEAbABDAHUAcgByAGUAbgB0AEkAbgBjAG8AbQBlAEIAYQBzAGUAKABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAcAByAGUAdgBJAEIALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGEAZABqAHUAcwB0AG0AZQBuAHQALAAgAEkAbgBjAG8AbQBlAEIAYQBzAGUAQQBkAGoAdQBzAHQAbQBlAG4AdAAoAGkAbgBpAHQAaQBhAGwAQwB1AHIAcgBJAEIALABwAHIAZQB2AEkAQgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAGQAagB1AHMAdABtAGUAbgB0AD4AMAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUALAAgAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0AEIAYQBzAGUAKABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABpAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACwAaABhAHMASQBuAGMAbwBtAGUAQwByAGUAZABpAHQALABhAG4AbgBpAHYAZQByAHMAYQByAHkAQwB2ACwAcAB1AHIAYwBoAGEAcwBlAFAAYQB5AG0AZQBuAHQAcwAsAHcAZABQAGUAbgBhAGwAdAB5AE0AdQBsAHQALABwAHIAZQB2AEkAQwBCACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAIABJAG4AYwBvAG0AZQBCAGEAcwBlACgAaQBuAGkAdABpAGEAbABDAHUAcgByAEkAQgAsAGEAZABqAHUAcwB0AG0AZQBuAHQAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AYQB3AGEALAAgAE0AYQB4AEEAbABsAG8AdwBhAGIAbABlAFcAZABBAG0AbwB1AG4AdAAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABtAGEAdwBkAFIAYQB0AGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAYwB2ACwAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAaQBuAGMAbwBtAGUAQwByAGUAZABpAHQAQgBhAHMAZQAsAG0AYQB3AGEALAB3AGQAUABlAG4AYQBsAHQAeQBNAHUAbAB0ACwAIABhAGQAagB1AHMAdABtAGUAbgB0ACwAIABpAG4AYwBvAG0AZQBDAHIAZQBkAGkAdAApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAApADsAXABuAFwAbgAvAC8AUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQAOgAgAFQAaABlACAAYQBtAG8AdQBuAHQAIAB0AG8AIABiAGUAIABwAGEAaQBkACAAZQBhAGMAaAAgAHkAZQBhAHIAIABvAHYAZQByACAAdABoAGUAIABsAGkAZgBlAHQAaQBtAGUAIABvAGYAIAB0AGgAZQAgAEMAbwB2AGUAcgBlAGQAIABQAGUAcgBzAG8AbgAoAHMAKQAgAGEAZgB0AGUAcgAgAHQAaABlACAAQQBjAHQAaQB2AGEAdABpAG8AbgAgAEQAYQB0AGUALABcAG4ALwAvAGkAZgAgAGEAbgBkACAAdwBoAGUAbgAgAHQAaABlACAAYwBvAG4AdAByAGEAYwB0ACAAdgBhAGwAdQBlACAAaQBzACAAcgBlAGQAdQBjAGUAZAAgAHQAbwAgAHoAZQByAG8ALAAgAGIAdQB0ACAAdABoAGUAIABJAG4AYwBvAG0AZQAgAEIAYQBzAGUAIABpAHMAIABzAHQAaQBsAGwAIABnAHIAZQBhAHQAZQByACAAdABoAGEAbgAgAHoAZQByAG8AIABvAHIAIABpAGYAIAB0AGgAZQAgAEwAYQB0AGUAcwB0ACAAQQBuAG4AdQBpAHQAeQAgAEQAYQB0AGUAIABoAGEAcwAgAGIAZQBlAG4AIAByAGUAYQBjAGgAZQBkAC4AXABuAC8ALwBQAHIAbwB0AGUAYwB0AGUAZAAgAEkAbgBjAG8AbQBlACAAUABhAHkAbQBlAG4AdAAgAFAAZQByAGMAZQBuAHQAYQBnAGUAOgAgAFQAaABlACAAcABlAHIAYwBlAG4AdABhAGcAZQAgAHUAcwBlAGQAIAB0AG8AIABkAGUAdABlAHIAbQBpAG4AZQAgAHQAaABlACAAUAByAG8AdABlAGMAdABlAGQAIABJAG4AYwBvAG0AZQAgAFAAYQB5AG0AZQBuAHQALgBcAG4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUAUABhAHkAbQBlAG4AdAAgAD0AIABMAEEATQBCAEQAQQAoAGMAdgAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABwAGkAcABfAHIAYQB0AGUALABJAEYAKABjAHYAPQAwACwAcABpAHAAXwByAGEAdABlACoAaQBuAGMAbwBtAGUAQgBhAHMAZQAsADAAKQApADsAXABuAFwAbgBJAHMAQQBuAG4AaQB2AGUAcgBzAGEAcgB5ACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABwAGEAeQBQAGUAcgBpAG8AZAAtAEkATgBUACgAcABhAHkAUABlAHIAaQBvAGQAKQA9ADAAKQA7AFwAbgBcAG4ASQBzAEEAYwB0AGkAdgBhAHQAZQBkACAAPQAgAEwAQQBNAEIARABBACgAcABhAHkAUABlAHIAaQBvAGQALABhAGMAdABpAHYAYQB0AGkAbwBuAFAAZQByAGkAbwBkACwAcABhAHkAUABlAHIAaQBvAGQAPgA9AGEAYwB0AGkAdgBhAHQAaQBvAG4AUABlAHIAaQBvAGQAKQA7AFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvACAAUABvAGwAYQByAGkAcwAgAE0AYQB4ACAARABhAGkAbAB5ACAALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAFwAbgAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8ALwAvAC8AXABuAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBZAGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAeQBlAGEAcgAsAHMAVQBwAFYAYQBsAHUAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAbQB2ACAAIAAsAGkAZgAoAHAAcgBlAHYAWQBlAGEAcgA8AD4AeQBlAGEAcgAsAHMAVQBwAFYAYQBsAHUAZQAsAE0AQQBYACgAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABzAFUAcABWAGEAbAB1AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHkAbQB2ACwAaQBmACgAcAByAGUAdgBZAGUAYQByADwAPgB5AGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAG0AdgAsAHAAeQBtAHYAKQApACkAOwBcAG4AXABuAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAHcAZABUAGEAawBlAG4ALABDAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgApACwAdwBkAFQAYQBrAGUAbgAvAEMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALAAwACkAKQA7AFwAbgBcAG4AVwBkAEgAYQBpAHIAYwB1AHQAQQBmAHQAZQByAEEAYwB0AGkAdgBhAHQAaQBvAG4AIAA9ACAATABBAE0AQgBEAEEAKABwAHIAZQB2AE0AYQB3AGEALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAVABhAGsAZQBuACwAYwB2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGgAYQBpAHIAYwB1AHQALAAoAHcAZABUAGEAawBlAG4ALQBwAHIAZQB2AE0AYQB3AGEAKQAvACgAYwB2AC0AcAByAGUAdgBNAGEAdwBhACkALABJAEYAKABBAE4ARAAoAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABUAGEAawBlAG4APgBwAHIAZQB2AE0AYQB3AGEAKQAsAGgAYQBpAHIAYwB1AHQALAAwACkAKQApADsAXABuAFwAbgBJAG4AdABlAHIAZQBzAHQATwBuAFAAYQB5AG0AZQBuAHQAcwAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYAWQBlAGEAcgAsAGEAYwBjAHUAbQBQAGEAeQAsAEYAdgBUAG8AdABhAGwALAB5AGUAYQByACwAcABhAHkALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAbQBpAGIAUABlAHIAYwBlAG4AdAAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYQBwACwAYQBjAGMAdQBtAFAAYQB5ACsAcABhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAbgB0AGUAcgBlAHMAdABQAGEAeQAsAEkARgAoAHAAcgBlAHYAWQBlAGEAcgA8AD4AeQBlAGEAcgAsAGEAcAAqAG0AaQBiAFAAZQByAGMAZQBuAHQALAAwACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGYAdgAsAEkARgAoAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAAwACwARgB2AFQAbwB0AGEAbAArAGkAbgB0AGUAcgBlAHMAdABQAGEAeQArAHAAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAeQBlAGEAcgAsAGEAcAAsAGYAdgApACkAKQA7AFwAbgBcAG4AUwB0AGUAcABVAHAAVgBhAGwAdQBlACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALABwAHAASQBuAHYAZQBzAHQAZQBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAGMAbwBuAHQAcgBhAGMAdABWAGEAbAB1AGUALQBwAHAASQBuAHYAZQBzAHQAZQBkAD4ATQBBAFgAKABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACkALABjAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACwAMAApACkAOwBcAG4AXABuAFAAcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAGEAYwBjAHUAbQBQAGUAbgBhAGwAdAB5ACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAGUAdgBTAHQAZQBwAFUAcAAsAHAAYQB5ACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsAHcAZABQAGUAbgBhAGwAdAB5ACwAYwB2ACwAZgB2ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABhAHcAcAAsAGEAYwBjAHUAbQBQAGUAbgBhAGwAdAB5ACoAdwBkAFAAZQBuAGEAbAB0AHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAG0AaQBuAEkAYgAsAGYAdgAqAGEAdwBwACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABzAFUAcABWAGEAbAB1AGUALABTAHQAZQBwAFUAcABWAGEAbAB1AGUAKABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAYwB2ACwAcABhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUAByAGUAQQBjAHQASQBCACwASQBGACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsADAALABNAEEAWAAoAHAAYQB5ACsAcAByAGUAdgBJAG4AYwBvAG0AZQBCAGEAcwBlACwAcwBVAHAAVgBhAGwAdQBlACwAbQBpAG4ASQBiACkAKgB3AGQAUABlAG4AYQBsAHQAeQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAGEAdwBwACwAUAByAGUAQQBjAHQASQBCACwAcwBVAHAAVgBhAGwAdQBlACwAbQBpAG4ASQBiACkAKQApADsAXABuAFwAbgBQAG8AcwB0AEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAgAD0AIABMAEEATQBCAEQAQQAoAHAAcgBlAHYASQBCACwAdABpAG0AZQBGAHIAbwBtAFYAYQBsACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAGUAZABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABjAHYALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALAB3AGQAUABlAG4AYQBsAHQAeQAsAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAWQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAHQAaQBtAGUARgByAG8AbQBWAGEAbAA9ADAALgAwACwAMAAuADAALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEEATgBEACgAaABhAHMAVwBkAE8AYwBjAHUAcgByAGUAZABBAGYAdABlAHIAQQBjAHQAaQB2AGEAdABpAG8AbgAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABNAEEAWAAoAGMAdgAsAHAAcgBlAHYASQBCACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUABZACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAcAByAGUAdgBJAEIALAAwACkAKgB3AGQAUABlAG4AYQBsAHQAeQApACkAKQA7AFwAbgBcAG4AVwBpAHQAaABkAHIAYQB3AGEAbABQAGUAbgBhAGwAdAB5AEQAYQBpAGwAeQAgAD0AIABMAEEATQBCAEQAQQAoAGgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwAdwBkAFQAYQBrAGUAbgAsAEkAcwBBAGMAdABpAHYAYQB0AGkAbwBuACwAQwBvAG4AdAByAGEAYwB0AFYAYQBsAHUAZQAsAHAAcgBlAHYATQBhAHcAYQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAMQAtAEkARgAoAEEATgBEACgATgBPAFQAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAApACwAdwBkAFQAYQBrAGUAbgA+ADAAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AKABJAHMAQQBjAHQAaQB2AGEAdABpAG8AbgAsAHcAZABUAGEAawBlAG4ALABDAG8AbgB0AHIAYQBjAHQAVgBhAGwAdQBlACkAIAArAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAZABIAGEAaQByAGMAdQB0AEEAZgB0AGUAcgBBAGMAdABpAHYAYQB0AGkAbwBuACgAcAByAGUAdgBNAGEAdwBhACwASQBzAEEAYwB0AGkAdgBhAHQAaQBvAG4ALAB3AGQAVABhAGsAZQBuACwAQwBvAG4AdAByAGEAYwB0AFYAYQBsAHUAZQApACwAMAApACkAOwBcAG4AXABuAE0AYQB4AEEAbABsAG8AdwBXAGQAQQBtAG8AdQBuAHQARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALABJAEIALABtAGEAdwBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgATgBPAFQAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAApACwASQBCACoAbQBhAHcAZAAsADAAKQApADsAXABuAFwAbgBNAGEAdwBTAHQAYQBjAGsARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgAcAByAGUAdgBZAGUAYQByACwAYQBjAGMAdQBtAFAAZQBuAGEAbAB0AHkALABwAHIAZQB2AEkAbgBjAG8AbQBlAEIAYQBzAGUALABwAHIAZQB2AFMAdABlAHAAVQBwACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAcAByAGUAdgBNAGEAdwBhACwAeQBlAGEAcgAsAHAAYQB5ACwAaABhAHMAVwBkAE8AYwBjAHUAcgByAEEAZgB0AGUAcgBBAGMAdAAsAGMAdgAsAHQAaQBtAGUARgByAG8AbQBWAGEAbAAsAGkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkALABpAHMAQQBjAHQAaQB2AGEAdABlAGQALABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAHcAZABUAGEAawBlAG4ALABmAHYALABtAGEAdwBkACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAdwBkAFAAZQBuAGEAbAB0AHkALABXAGkAdABoAGQAcgBhAHcAYQBsAFAAZQBuAGEAbAB0AHkARABhAGkAbAB5ACgAaABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALAB3AGQAVABhAGsAZQBuACwAaQBzAEEAYwB0AGkAdgBhAHQAZQBkACwAYwB2ACwAcAByAGUAdgBNAGEAdwBhACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAZQBBAGMAdABJAEIAQQBsAGwALABQAHIAZQBBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAKABhAGMAYwB1AG0AUABlAG4AYQBsAHQAeQAsAHAAcgBlAHYASQBuAGMAbwBtAGUAQgBhAHMAZQAsAHAAcgBlAHYAUwB0AGUAcABVAHAALABwAGEAeQAsAGgAYQBzAFcAZABPAGMAYwB1AHIAcgBBAGYAdABlAHIAQQBjAHQALAB3AGQAUABlAG4AYQBsAHQAeQAsAGMAdgAsAGYAdgApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAYQB3AHAALABDAEgATwBPAFMARQBDAE8ATABTACgAcAByAGUAQQBjAHQASQBCAEEAbABsACwAMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAGUAQQBjAHQASQBCACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAHAAcgBlAEEAYwB0AEkAQgBBAGwAbAAsADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHMAdABlAHAAVQBwAFYAYQBsAHUAZQAsAEMASABPAE8AUwBFAEMATwBMAFMAKABwAHIAZQBBAGMAdABJAEIAQQBsAGwALAAzACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUALABDAEgATwBPAFMARQBDAE8ATABTACgAcAByAGUAQQBjAHQASQBCAEEAbABsACwANAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAcwAsAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACgAcAByAGUAdgBZAGUAYQByACwAcAByAGUAdgBNAGEAeABWAGEAbAB1AGUALABwAHIAZQB2AFkAZQBhAHIATQBhAHgAVgBhAGwAdQBlACwAeQBlAGEAcgAsAHMAdABlAHAAVQBwAFYAYQBsAHUAZQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAbQB2ACwAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAG0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAHMALAAyACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBQAFkALABDAEgATwBPAFMARQBDAE8ATABTACgAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAcwAsADMAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHAAbwBzAHQAQQBjAHQASQBCACwAUABvAHMAdABBAGMAdABpAHYAYQB0AGkAbwBuAEkAbgBjAG8AbQBlAEIAYQBzAGUAKABwAHIAZQB2AEkAbgBjAG8AbQBlAEIAYQBzAGUALAB0AGkAbQBlAEYAcgBvAG0AVgBhAGwALABoAGEAcwBXAGQATwBjAGMAdQByAHIAQQBmAHQAZQByAEEAYwB0ACwAaQBzAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQAsAGMAdgAsAGkAcwBBAGMAdABpAHYAYQB0AGUAZAAsAHcAZABQAGUAbgBhAGwAdAB5ACwAbQBhAHgAUwB0AGUAcABWAGEAbAB1AGUAUABZACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABpAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAGUAQQBjAHQASQBCACsAcABvAHMAdABBAGMAdABJAEIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABtAGEAdwBhACwATQBhAHgAQQBsAGwAbwB3AFcAZABBAG0AbwB1AG4AdABEAGEAaQBsAHkAKABoAGEAcwBMAGkAZgBlAHQAaQBtAGUASQBuAGMAbwBtAGUAUwB0AGEAcgB0AGUAZAAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABtAGEAdwBkACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAEMASwAoAHkAZQBhAHIALABhAHcAcAAsAGkAbgBjAG8AbQBlAEIAYQBzAGUALABzAHQAZQBwAFUAcABWAGEAbAB1AGUALABtAHYALABtAGEAeABTAHQAZQBwAFYAYQBsAHUAZQBQAFkALABtAGEAdwBhACwAdwBkAFAAZQBuAGEAbAB0AHkALABtAGkAbgBpAG0AdQBtAEkAbgBjAG8AbQBlAEIAYQBzAGUAKQApACkAOwAgAFwAbgBcAG4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUARABhAGkAbAB5ACAAPQAgAEwAQQBNAEIARABBACgASABhAHMATABpAGYAZQB0AGkAbQBlAEkAbgBjAG8AbQBlAFMAdABhAHIAdABlAGQALABJAHMAQQBuAG4ALABJAG4AYwBvAG0AZQBCAGEAcwBlACwAcAByAG8AdABlAGMAdABlAGQASQBuAGMAUABlAHIALABJAEYAKABBAE4ARAAoAEgAYQBzAEwAaQBmAGUAdABpAG0AZQBJAG4AYwBvAG0AZQBTAHQAYQByAHQAZQBkACwASQBzAEEAbgBuACkALABwAHIAbwB0AGUAYwB0AGUAZABJAG4AYwBQAGUAcgAqAEkAbgBjAG8AbQBlAEIAYQBzAGUALAAwACkAKQA7ACIAfQAsAHsAIgBwAGEAdABoACIAOgAiAC8AcAByAG8AagBlAGMAdABzAC8AVQB0AGkAbABzACIALAAiAHQAZQB4AHQAIgA6ACIALwAvAEYAaQBuAGQAcwAgAHQAaABlACAAcgBvAG8AdAAgAG8AZgAgAGEAIABwAG8AbAB5AG4AbwBtAGkAYQBsACAAZwBpAHYAZQBuACAAYQBuACAAaQBuAGkAdABpAGEAbAAgAGcAdQBlAHMAcwAsACAAdABoAGUAIABwAG8AbAB5AG4AbwBtAGkAYQBsACwAIABpAHQAcwAgAGQAZQByAGkAdgBhAHQAaQB2AGUALAAgAGEAbgBkACAAYQAgAHQAbwBsAGUAcgBhAG4AYwBlACAAXABuAC8ALwBFAHgAYQBtAHAAbABlACAAQwBhAGwAbAA6ACAATgBlAHcAdABvAG4AUgBhAHAAaABzAG8AbgAoADMALABMAEEATQBCAEQAQQAoAHgALAAoAHgALQAxACkAXgAyACkALABMAEEATQBCAEQAQQAoAHgALAAyACoAKAB4AC0AMQApACkALAAwAC4AMAAwADAAMAAxACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAC8ALwBOAGUAdwB0AG8AbgBSAGEAcABoAHMAbwBuACgAMwAsAEwAQQBNAEIARABBACgAeAAsACgAeAAtADEAKQBeADIAKQAsAEwAQQBNAEIARABBACgAeAAsADIAKgAoAHgALQAxACkAKQAsACkAIAAgAFwAbgBOAGUAdwB0AG8AbgBSAGEAcABoAHMAbwBuACAAPQAgAEwAYQBtAGIAZABhACgAZwB1AGUAcwBzACwAeQAsAGQAeQAsAHQAbwBsAGUAcgBhAG4AYwBlAF8ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABlAHQAKAB4AG4ALAAgAGcAdQBlAHMAcwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHQAbwBsAGUAcgBhAG4AYwBlACwASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKAB0AG8AbABlAHIAYQBuAGMAZQBfACkALAAwAC4AMAAwADAAMQAsAHQAbwBsAGUAcgBhAG4AYwBlAF8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHgAbgBfADEALAAgAHgAbgAgAC0AIAB5ACgAeABuACkALwBkAHkAKAB4AG4AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAZgAoAEEAQgBTACgAeABuAF8AMQAgAC0AIAB4AG4AKQA8ACAAdABvAGwAZQByAGEAbgBjAGUALAB4AG4ALAAgAE4AZQB3AHQAbwBuAFIAYQBwAGgAcwBvAG4AKAB4AG4AXwAxACwAeQAsAGQAeQAsAHQAbwBsAGUAcgBhAG4AYwBlACkAKQApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACAAPQAgAFwAIgBoAHQAdABwAHMAOgAvAC8AbQBvAHIAdAAuAHMAbwBhAC4AbwByAGcALwBkAGEAdABhAC8AXAAiADsAXABuAGUAcgByAG8AcgBNAGUAcwBzAGEAZwBlACAAPQAgAFwAIgBEAG8AZQBzACAATgBvAHQAIABFAHgAaQBzAHQAXAAiADsAXABuAFwAbgAvAC8ARQB4AGEAbQBwAGwAZQAgAEMAYQBsAGwAcwA6AFwAbgAvAC8AIAAgACAAIAA9AEcAZQB0AE0AbwByAHQAUwBvAGEATwByAGcAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAoADEAKQAgAHQAbwAgAGcAZQB0ACAAdABoAGUAIAB0AGEAYgBsAGUAIAB3AGkAdABoACAAaQBkACAAYQBuAGQAIABuAGEAbQBlAC4AXABuAC8ALwAgACAAIAAgAD0ARwBlAHQATQBvAHIAdABTAG8AYQBPAHIAZwBUAGEAYgBsAGUASQBkAHMAQQBuAGQATgBhAG0AZQBzACgAUwBFAFEAVQBFAE4AQwBFACgAMQAwADAALAAsADEAKQApACAAdABvACAAZwBlAHQAIABhACAAbABpAHMAdAAgAG8AZgAgAHQAYQBiAGwAZQAgAGkAZABzACAAYQBuAGQAIABuAGEAbQBlAHMALgAgACAAIAAgACAAIAAgAFwAbgBHAGUAdABNAG8AcgB0AFMAbwBhAE8AcgBnAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAIAAgAD0AIABMAEEATQBCAEQAQQAoAHQAYQBiAGwAZQBOAHUAbQBiAGUAcgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoACAAIAAgAGYAaQBsAGUATgBhAG0AZQAsACAATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACAAJgAgAFwAIgB0AFwAIgAmAHQAYQBiAGwAZQBOAHUAbQBiAGUAcgAmAFwAIgAuAHgAbQBsAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHgAcABhAHQAaAAsAFwAIgAvAC8AVABhAGIAbABlAE4AYQBtAGUAXAAiACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAZgBpAGwAdABlAHIAZQBkAFgAbQBsACwARgBJAEwAVABFAFIAWABNAEwAKABXAEUAQgBTAEUAUgBWAEkAQwBFACgARgBpAGwAZQBOAGEAbQBlACkALAB4AHAAYQB0AGgAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAGkAdABlAG0AMQAsACAAdABhAGIAbABlAE4AdQBtAGIAZQByACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaQB0AGUAbQAyACwAIABJAEYARQBSAFIATwBSACgAZgBpAGwAdABlAHIAZQBkAFgAbQBsACwAZQByAHIAbwByAE0AZQBzAHMAYQBnAGUAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAaQB0AGUAbQAxACwAaQB0AGUAbQAyACkAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQApADsAXABuAC8ALwBFAHgAYQBtAHAAbABlACAAQwBhAGwAbAA6AFwAbgAvAC8AIAAgACAAIABGAGkAbAB0AGUAcgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAYwB0AGkAdgBlAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAKAAkAEEAJAAyACMAKQAgAHQAbwAgAGYAaQBsAHQAZQByACAAdABoAGUAIABsAGkAcwB0ACAAbwBmACAAdABhAGIAbABlAHMAIABkAG8AdwBuACAAdABoAGUAIABvAG4AZQBzACAAdABoAGEAdAAgAGUAeABpAHMAdAAsACAAdwBoAGUAcgBlACAAQQAyACMAIABjAG8AbgB0AGEAaQBuAHMAIAAvAC8AIAAvAC8APQBHAGUAdABNAG8AcgB0AFMAbwBhAE8AcgBnAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAKABTAEUAUQBVAEUATgBDAEUAKAAxADAAMAAsACwAMQApACkAXABuAEYAaQBsAHQAZQByAE0AbwByAHQAUwBvAGEATwByAGcAQQBjAHQAaQB2AGUAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAgAD0AIABMAGEAbQBiAGQAYQAoAHQAdwBvAEMAbwBsAHUAbQBuAEEAcgByAGEAeQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKAAgAHIALAB0AHcAbwBDAG8AbAB1AG0AbgBBAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKAByACwATwBGAEYAUwBFAFQAKAByACwAMAAsADEALAAsADEAKQAgADwAPgBlAHIAcgBvAHIATQBlAHMAcwBhAGcAZQApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABcAG4ALwAvAEUAeABhAG0AcABsAGUAIABDAGEAbABsADoAXABuAC8ALwAgACAAIAAgAEcAZQB0AE0AbwByAHQAYQBsAGkAdAB5AFQAYQBiAGwAZQAoADEANAAsACwAKQAgAHQAbwAgAHIAZQB0AHIAaQBlAHYAZQAgAHQAaABlACAAdABhAGIAbABlACAAdwBpAHQAaAAgAEkAZAAgADEANAAsACAAbQBpAG4AIABhAGcAZQAgADAALAAgAGEAbgBkACAAbQBhAHgAIABhAGcAZQAgADEAMgAwAC4AXABuAC8ALwAgACAAIAAgAEcAZQB0AE0AbwByAHQAYQBsAGkAdAB5AFQAYQBiAGwAZQAoADEAMwAsADEAMAAsADEAMAAwACkAIAB0AG8AIAByAGUAdAByAGkAZQB2AGUAIAB0AGgAZQAgAHQAYQBiAGwAZQAgAHcAaQB0AGgAIABJAGQAIAAxADMALAAgAG0AaQBuACAAYQBnAGUAIAAxADAALAAgAGEAbgBkACAAbQBhAHgAIABhAGcAZQAgADEAMAAuAFwAdABcAHQAXAB0AFwAdABcAHQAXAB0ACAAIABcAG4ARwBlAHQATQBvAHIAdABhAGwAaQB0AHkAVABhAGIAbABlACAAPQBMAEEATQBCAEQAQQAoAFQAYQBiAGwAZQBJAEQALABNAGkAbgBBAGcAZQBfACwATQBhAHgAQQBnAGUAXwAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgATQBpAG4AQQBnAGUALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgATQBpAG4AQQBnAGUAXwApACwAMAAsAE0AaQBuAEEAZwBlAF8AKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATQBhAHgAQQBnAGUALAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgATQBhAHgAQQBnAGUAXwApACwAMQAyADAALABNAGEAeABBAGcAZQBfACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEYAaQBsAGUAVAB5AHAAZQAsAFwAIgAuAHgAbQBsAFwAIgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBlAGEAcgBjAGgAUwB0AHIAaQBuAGcALABcACIALwAvAEAAdAAgAHwAIAAvAC8AWQBcACIALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFQAYQBiAGwAZQBOAGEAbQBlACwARQBOAEMATwBEAEUAVQBSAEwAKABcACIAdABcACIAJgBUAGEAYgBsAGUASQBEACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAE0AbwByAHQAVABiAGwALAAgAFcAUgBBAFAAUgBPAFcAUwAoAEYASQBMAFQARQBSAFgATQBMACgAVwBFAEIAUwBFAFIAVgBJAEMARQAoAE0AbwByAHQAUwBvAGEATwByAGcAQQBkAGQAcgBlAHMAcwAgACYAVABhAGIAbABlAE4AYQBtAGUAIAAmACAARgBpAGwAZQBUAHkAcABlACkALAAgAFMAZQBhAHIAYwBoAFMAdAByAGkAbgBnACkALAAgADIAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAARgBJAEwAVABFAFIAKABNAG8AcgB0AFQAYgBsACwAIAAoAEkATgBEAEUAWAAoAE0AbwByAHQAVABiAGwALAAgADAALAAgADIAKQAgAD4AIABNAGkAbgBBAGcAZQApACAAKgAgACgASQBOAEQARQBYACgATQBvAHIAdABUAGIAbAAsACAAMAAsACAAMgApACAAPAAgAE0AYQB4AEEAZwBlACkAKQApACkAOwBcAG4ALwAvAEMAbwBtAGIAbwBTAGMAYQBuACAAdwBpAGwAbAAgAGEAbABsACAAcwBjAGEAbgAgAG0AdQBsAHQAaQBwAGwAZQAgAGEAcgByAGEAeQBzAC4AIABUAGgAZQAgAHMAdQBwAHAAbABpAGUAZAAgAGYAdQBuAGMAdABpAG8AbgAgAHMAaABvAHUAbABkACAAaABhAHYAZQAgADEAIABtAG8AcgBlACAAcABhAHIAYQBtAGUAdABlAHIAIAB0AGgAYQBuACAAdABoAGUAIABhAHIAcgBhAHkAcwAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAvAC8AVABoAGUAIABwAGEAcgBhAG0AZQB0AGUAcgAgAHQAaABhAHQAIAB0AGEAawBlAHMAIAB0AGgAZQAgAHAAcgBlAHYAaQBvAHUAcwAgAHYAYQBsAHUAZQAgAHMAaABvAHUAbABkACAAYQBsAHcAYQB5AHMAIABiAGUAIAB0AGgAZQAgAGwAYQBzAHQAIABvAG4AZQAgAGkAbgAgAHQAaABlACAAZgB1AG4AYwB0AGkAbwBuAC4AXABuAFwAbgAvAC8AUwBjAGEAbgAgADIAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAAzACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4AMgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABhACwAYgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGMALABmAHUAbgBjAHQAaQBvAG4AKABhACwAYgAsAGMAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADMAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA0ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4AMwAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGYAdQBuAGMAdABpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYwBsAG8AcwB1AHIAZQAsACAATQBBAFAAKABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABjACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAZAAsAGYAdQBuAGMAdABpAG8AbgAoAGEALABiACwAYwAsAGQAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADQAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA1ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANAAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAZgB1AG4AYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABFAFQAKABjAGwAbwBzAHUAcgBlACwAIABNAEEAUAAoAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGEALABiACwAYwAsAGQALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABlACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACwAZAAsAGUAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADUAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA2ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANQAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAYQByAHIAYQB5ADUALABmAHUAbgBjAHQAaQBvAG4ALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAGMAbABvAHMAdQByAGUALAAgAE0AQQBQACgAYQByAHIAYQB5ADEALABhAHIAcgBhAHkAMgAsAGEAcgByAGEAeQAzACwAYQByAHIAYQB5ADQALABhAHIAcgBhAHkANQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAATABBAE0AQgBEAEEAKABhACwAYgAsAGMALABkACwAZQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEEATQBCAEQAQQAoAGYALABmAHUAbgBjAHQAaQBvAG4AKABhACwAYgAsAGMALABkACwAZQAsAGYAKQApACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcAByAG8AYwBlAHMAcwBTAGUAcgBpAGUAcwAsAEwAQQBNAEIARABBACgAcAByAGUAdgBWAGEAbAB1AGUALABmAHUAbgBjACwAZgB1AG4AYwAoAHAAcgBlAHYAVgBhAGwAdQBlACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFMAQwBBAE4AKABpAG4AaQB0AFYAYQBsAHUAZQAsAGMAbABvAHMAdQByAGUALABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACkAKQApADsAXABuAFwAbgAvAC8AUwBjAGEAbgAgADYAIABhAHIAcgBhAHkAcwAgAGEAbgBkACAAdABoAGUAIABmAHUAbgBjAHQAaQBvAG4AIAByAGUAcQB1AGkAcgBlAHMAIAA3ACAAcABhAHIAYQBtAGUAdABlAHIAcwBcAG4AQwBvAG0AYgBvAFMAQwBBAE4ANgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AFYAYQBsAHUAZQAsAGEAcgByAGEAeQAxACwAYQByAHIAYQB5ADIALABhAHIAcgBhAHkAMwAsAGEAcgByAGEAeQA0ACwAYQByAHIAYQB5ADUALABhAHIAcgBhAHkANgAsAGYAdQBuAGMAdABpAG8AbgAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwARQBUACgAYwBsAG8AcwB1AHIAZQAsACAATQBBAFAAKABhAHIAcgBhAHkAMQAsAGEAcgByAGEAeQAyACwAYQByAHIAYQB5ADMALABhAHIAcgBhAHkANAAsAGEAcgByAGEAeQA1ACwAYQByAHIAYQB5ADYALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEwAQQBNAEIARABBACgAYQAsAGIALABjACwAZAAsAGUALABmACwATABBAE0AQgBEAEEAKABnACwAZgB1AG4AYwB0AGkAbwBuACgAYQAsAGIALABjACwAZAAsAGUALABmACwAZwApACkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABwAHIAbwBjAGUAcwBzAFMAZQByAGkAZQBzACwATABBAE0AQgBEAEEAKABwAHIAZQB2AFYAYQBsAHUAZQAsAGYAdQBuAGMALABmAHUAbgBjACgAcAByAGUAdgBWAGEAbAB1AGUAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAUwBDAEEATgAoAGkAbgBpAHQAVgBhAGwAdQBlACwAYwBsAG8AcwB1AHIAZQAsAHAAcgBvAGMAZQBzAHMAUwBlAHIAaQBlAHMAKQApACkAOwBcAG4AXABuAFwAbgAvAC8AUwBoAG8AcgB0ACAAYwB1AHQAIABmAG8AcgAgAEMASABPAE8AUwBFAEMATwBMAFMAXABuAEMAQwAgAD0AIABMAEEATQBCAEQAQQAoAEEAcgByAGEAeQAsAGkAbgBkAGUAeAAsAEMASABPAE8AUwBFAEMATwBMAFMAKABBAHIAcgBhAHkALABpAG4AZABlAHgAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAGIAcgBlAGEAawBzACAAYQAgAHIAbwB3ACAAaQBuAHQAbwAgAHAAYQByAGEAbQBlAHQAZQByAHMAIABpAG4AdABvACAAYQAgAGYAdQBuAGMAdABpAG8AbgAuAFwAbgAvAC8AVABoAGkAcwAgAG0AYQB5ACAAbgBlAGUAZAAgAHQAbwAgAGIAZQAgAHUAcABkAGEAdABlAGQAIABpAGYAIABhACAAZgB1AG4AYwB0AGkAbwBuACAAaABhAHMAIABtAG8AcgBlACAAdABoAGEAbgAgADEANQAgAHAAYQByAGEAbQBlAHQAZQByAHMALgBcAG4AQwB1AHIAcgB5ACAAPQAgAEwAQQBNAEIARABBACgAYQByAHIAYQB5ACwAZgB1AG4AYwB0AGkAbwBuACwATABFAFQAKABmACwAZgB1AG4AYwB0AGkAbwBuACwAdgAsAEMASABPAE8AUwBFAFIATwBXAFMAKABhAHIAcgBhAHkALAAxACkALABTAFcASQBUAEMASAAoAEMATwBMAFUATQBOAFMAKABhAHIAcgBhAHkAKQAsAFwAbgAwACwAZgAoACkALABcAG4AMQAsAGYAKABDAEMAKAB2ACwAMQApACkALABcAG4AMgAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQApACwAXABuADMALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACkALABcAG4ANAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACkALABcAG4ANQAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQApACwAXABuADYALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACkALABcAG4ANwAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACkALABcAG4AOAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQApACwAXABuADkALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACkALABcAG4AMQAwACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQApACwAXABuADEAMQAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkAKQAsAFwAbgAxADIALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACkALABcAG4AMQAzACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQApACwAXABuADEANAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkAKQAsAFwAbgAxADUALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACkALABcAG4AMQA2ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQAsAEMAQwAoAHYALAAxADYAKQApACwAXABuADEANwAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkALABDAEMAKAB2ACwAMQA3ACkAKQAsAFwAbgAxADgALABmACgAQwBDACgAdgAsADEAKQAsAEMAQwAoAHYALAAyACkALABDAEMAKAB2ACwAMwApACwAQwBDACgAdgAsADQAKQAsAEMAQwAoAHYALAA1ACkALABDAEMAKAB2ACwANgApACwAQwBDACgAdgAsADcAKQAsAEMAQwAoAHYALAA4ACkALABDAEMAKAB2ACwAOQApACwAQwBDACgAdgAsADEAMAApACwAQwBDACgAdgAsADEAMQApACwAQwBDACgAdgAsADEAMgApACwAQwBDACgAdgAsADEAMwApACwAQwBDACgAdgAsADEANAApACwAQwBDACgAdgAsADEANQApACwAQwBDACgAdgAsADEANgApACwAQwBDACgAdgAsADEANwApACwAQwBDACgAdgAsADEAOAApACkALABcAG4AMQA5ACwAZgAoAEMAQwAoAHYALAAxACkALABDAEMAKAB2ACwAMgApACwAQwBDACgAdgAsADMAKQAsAEMAQwAoAHYALAA0ACkALABDAEMAKAB2ACwANQApACwAQwBDACgAdgAsADYAKQAsAEMAQwAoAHYALAA3ACkALABDAEMAKAB2ACwAOAApACwAQwBDACgAdgAsADkAKQAsAEMAQwAoAHYALAAxADAAKQAsAEMAQwAoAHYALAAxADEAKQAsAEMAQwAoAHYALAAxADIAKQAsAEMAQwAoAHYALAAxADMAKQAsAEMAQwAoAHYALAAxADQAKQAsAEMAQwAoAHYALAAxADUAKQAsAEMAQwAoAHYALAAxADYAKQAsAEMAQwAoAHYALAAxADcAKQAsAEMAQwAoAHYALAAxADgAKQAsAEMAQwAoAHYALAAxADkAKQApACwAXABuADIAMAAsAGYAKABDAEMAKAB2ACwAMQApACwAQwBDACgAdgAsADIAKQAsAEMAQwAoAHYALAAzACkALABDAEMAKAB2ACwANAApACwAQwBDACgAdgAsADUAKQAsAEMAQwAoAHYALAA2ACkALABDAEMAKAB2ACwANwApACwAQwBDACgAdgAsADgAKQAsAEMAQwAoAHYALAA5ACkALABDAEMAKAB2ACwAMQAwACkALABDAEMAKAB2ACwAMQAxACkALABDAEMAKAB2ACwAMQAyACkALABDAEMAKAB2ACwAMQAzACkALABDAEMAKAB2ACwAMQA0ACkALABDAEMAKAB2ACwAMQA1ACkALABDAEMAKAB2ACwAMQA2ACkALABDAEMAKAB2ACwAMQA3ACkALABDAEMAKAB2ACwAMQA4ACkALABDAEMAKAB2ACwAMQA5ACkALABDAEMAKAB2ACwAMgAwACkAKQAsAFwAbgBcACIATgBlAGUAZAAgAHQAbwAgAGUAeAB0AGUAbgBkACAAdABoAGUAIABjAHUAcgByAHkAIABmAHUAbgBjAHQAaQBvAG4AXAAiACkAKQApADsAXABuAFwAbgAvAC8AVABoAGkAcwAgAGYAdQBuAGMAdABpAG8AbgAgAG0AaQBtAGkAYwBzACAAYQAgAFMAQwBBAE4ALAAgAGIAdQB0ACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlACAAaQBzACAAYQBuACAAYQByAHIAYQB5ACAAYwBhAGwAbABlAGQAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXABuAC8ALwBUAGgAZQAgAGEAcgByAGEAeQAgAGkAcwAgAGEAIABnAHIAbwB1AHAAIABvAGYAIABjAG8AbAB1AG0AbgBzACAAdABvACAAdwBvAHIAawAgAHQAaAByAG8AdQBnAGgAIABhAHQAIABlAGEAYwBoACAAcgBvAHcALgBcAG4ALwAvAFQAaABlACAATABBAE0AQgBEAEEAIABmAHUAbgBjAHQAaQBvAG4AIABtAHUAcwB0ACAAcgBlAHQAdQByAG4AIABhACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkALgAgAFQAaABlACAAYwBvAGwAdQBtAG4AIABhAHIAcgBhAHkAIABtAHUAcwB0ACAAYgBlACAAYQB0ACAAbABlAGEAcwB0ACAAYQBzACAAbABvAG4AZwAgAGEAcwAgAHQAaABlACAAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAuAFwAbgBNAHUAbAB0AGkAUwBDAEEATgAgAD0ATABBAE0AQgBEAEEAKABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5ACwAYQByAHIAYQB5ACwAZgB1AG4AYwB0AGkAbwBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABMAEUAVAAoAHAAcgBlAHYAXwBzAGkAegBlACwAQwBPAEwAVQBNAE4AUwAoAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABhAHIAcgBfAHMAaQB6AGUALABSAE8AVwBTACgAYQByAHIAYQB5ACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcABhAHIAYQBfAHYAZQBjAHQAbwByACwASABTAFQAQQBDAEsAKABDAEgATwBPAFMARQBSAE8AVwBTACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsADEAKQAsAEMASABPAE8AUwBFAFIATwBXAFMAKABhAHIAcgBhAHkALAAxACkAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAAsACAAQwB1AHIAcgB5ACgAcABhAHIAYQBfAHYAZQBjAHQAbwByACwAZgB1AG4AYwB0AGkAbwBuACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAaABvAGwAZABvAHYAZQByACwAVABBAEsARQAoAHIAZQBzAHUAbAB0ACwAMQAsAHAAcgBlAHYAXwBzAGkAegBlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBGACgAYQByAHIAXwBzAGkAegBlAC0AMQA9ADAALAByAGUAcwB1AGwAdAAsAFYAUwBUAEEAQwBLACgAcgBlAHMAdQBsAHQALAAgAE0AdQBsAHQAaQBTAGMAYQBuACgAaABvAGwAZABvAHYAZQByACwARABSAE8AUAAoAGEAcgByAGEAeQAsADEAKQAsAGYAdQBuAGMAdABpAG8AbgApACkAKQApACkAOwBcAG4AXABuAC8ALwBUAGgAaQBzACAAZgB1AG4AYwB0AGkAbwBuACAAbQBpAG0AaQBjAHMAIABhACAAUwBDAEEATgAsACAAYgB1AHQAIAB0AGgAZQAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAIABpAHMAIABhAG4AIABhAHIAcgBhAHkAIABjAGEAbABsAGUAZAAgAGkAbgBpAHQAaQBhAGwAXwB2AGEAbAB1AGUAXwBhAHIAcgBhAHkALgBcAG4ALwAvAFQAaABlACAAYQByAHIAYQB5ACAAaQBzACAAYQAgAGcAcgBvAHUAcAAgAG8AZgAgAGMAbwBsAHUAbQBuAHMAIAB0AG8AIAB3AG8AcgBrACAAdABoAHIAbwB1AGcAaAAgAGEAdAAgAGUAYQBjAGgAIAByAG8AdwAuAFwAbgAvAC8AVABoAGUAIABMAEEATQBCAEQAQQAgAGYAdQBuAGMAdABpAG8AbgAgAG0AdQBzAHQAIAByAGUAdAB1AHIAbgAgAGEAIABjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAuACAAVABoAGUAIABjAG8AbAB1AG0AbgAgAGEAcgByAGEAeQAgAG0AdQBzAHQAIABiAGUAIABhAHQAIABsAGUAYQBzAHQAIABhAHMAIABsAG8AbgBnACAAYQBzACAAdABoAGUAIABpAG4AaQB0AGkAYQBsAF8AdgBhAGwAdQBlAF8AYQByAHIAYQB5AC4AXAB0AFwAdABcAHQAXAB0AFwAdAAgACAAIABcAG4ALwAvAEkAbABsAHUAcwB0AHIAYQB0AGUAIAB3AG8AcgBrAHMAIABsAGkAawBlACAATQB1AGwAaQB0AFMAQwBBAE4AIABhAG4AZAAgAGEAZABkAHMAIABhACAAaABlAGEAZABlAHIAIABhAHQAIAB0AGgAZQAgAHQAbwBwAC4AXABuAEkAbABsAHUAcwB0AHIAYQB0AGUAIAA9AEwAQQBNAEIARABBACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsAGEAcgByAGEAeQAsAGYAdQBuAGMAdABpAG8AbgAsAGgAZQBhAGQAZQByACwAVgBTAFQAQQBDAEsAKABoAGUAYQBkAGUAcgAsAE0AdQBsAHQAaQBTAGMAYQBuACgAaQBuAGkAdABpAGEAbABfAHYAYQBsAHUAZQBfAGEAcgByAGEAeQAsAGEAcgByAGEAeQAsAGYAdQBuAGMAdABpAG8AbgApACkAKQA7ACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAFYAQQAuAFcAaQB0AGgAZAByAGEAdwBhAGwAUABlAG4AYQBsAHQAeQAiACwAIgBWAEEALgBJAG4AYwBvAG0AZQBDAHIAZQBkAGkAdABCAGEAcwBlACIALAAiAFYAQQAuAEkAbgBjAG8AbQBlAEMAcgBlAGQAaQB0ACIALAAiAFYAQQAuAEEAbgBuAGkAdgBlAHIAcwBhAHIAeQBDAHYAIgAsACIAVgBBAC4ASQBuAGkAdABpAGEAbABDAHUAcgByAGUAbgB0AEkAbgBjAG8AbQBlAEIAYQBzAGUAIgAsACIAVgBBAC4ASQBuAGMAbwBtAGUAQgBhAHMAZQBBAGQAagB1AHMAdABtAGUAbgB0ACIALAAiAFYAQQAuAEkAbgBjAG8AbQBlAEIAYQBzAGUAIgAsACIAVgBBAC4ATQBhAHgAQQBsAGwAbwB3AGEAYgBsAGUAVwBkAEEAbQBvAHUAbgB0ACIALAAiAFYAQQAuAE0AYQB3AFMAdABhAGMAawAiACwAIgBWAEEALgBQAHIAbwB0AGUAYwB0AGUAZABJAG4AYwBvAG0AZQBQAGEAeQBtAGUAbgB0ACIALAAiAFYAQQAuAEkAcwBBAG4AbgBpAHYAZQByAHMAYQByAHkAIgAsACIAVgBBAC4ASQBzAEEAYwB0AGkAdgBhAHQAZQBkACIALAAiAFYAQQAuAE0AYQB4AFMAdABlAHAAVgBhAGwAdQBlAFAAcgBlAHYAaQBvAHUAcwBZAGUAYQByACIALAAiAFYAQQAuAFcAZABIAGEAaQByAGMAdQB0AEIAZQBmAG8AcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4AIgAsACIAVgBBAC4AVwBkAEgAYQBpAHIAYwB1AHQAQQBmAHQAZQByAEEAYwB0AGkAdgBhAHQAaQBvAG4AIgAsACIAVgBBAC4ASQBuAHQAZQByAGUAcwB0AE8AbgBQAGEAeQBtAGUAbgB0AHMAIgAsACIAVgBBAC4AUwB0AGUAcABVAHAAVgBhAGwAdQBlACIALAAiAFYAQQAuAFAAcgBlAEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAiACwAIgBWAEEALgBQAG8AcwB0AEEAYwB0AGkAdgBhAHQAaQBvAG4ASQBuAGMAbwBtAGUAQgBhAHMAZQAiACwAIgBWAEEALgBXAGkAdABoAGQAcgBhAHcAYQBsAFAAZQBuAGEAbAB0AHkARABhAGkAbAB5ACIALAAiAFYAQQAuAE0AYQB4AEEAbABsAG8AdwBXAGQAQQBtAG8AdQBuAHQARABhAGkAbAB5ACIALAAiAFYAQQAuAE0AYQB3AFMAdABhAGMAawBEAGEAaQBsAHkAIgAsACIAVgBBAC4AUAByAG8AdABlAGMAdABlAGQASQBuAGMAbwBtAGUARABhAGkAbAB5ACIALAAiAFUAdABpAGwAcwAuAE4AZQB3AHQAbwBuAFIAYQBwAGgAcwBvAG4AIgAsACIAVQB0AGkAbABzAC4ATQBvAHIAdABTAG8AYQBPAHIAZwBBAGQAZAByAGUAcwBzACIALAAiAFUAdABpAGwAcwAuAGUAcgByAG8AcgBNAGUAcwBzAGEAZwBlACIALAAiAFUAdABpAGwAcwAuAEcAZQB0AE0AbwByAHQAUwBvAGEATwByAGcAVABhAGIAbABlAEkAZABzAEEAbgBkAE4AYQBtAGUAcwAiACwAIgBVAHQAaQBsAHMALgBGAGkAbAB0AGUAcgBNAG8AcgB0AFMAbwBhAE8AcgBnAEEAYwB0AGkAdgBlAFQAYQBiAGwAZQBJAGQAcwBBAG4AZABOAGEAbQBlAHMAIgAsACIAVQB0AGkAbABzAC4ARwBlAHQATQBvAHIAdABhAGwAaQB0AHkAVABhAGIAbABlACIALAAiAFUAdABpAGwAcwAuAEMAbwBtAGIAbwBTAEMAQQBOADIAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4AMwAiACwAIgBVAHQAaQBsAHMALgBDAG8AbQBiAG8AUwBDAEEATgA0ACIALAAiAFUAdABpAGwAcwAuAEMAbwBtAGIAbwBTAEMAQQBOADUAIgAsACIAVQB0AGkAbABzAC4AQwBvAG0AYgBvAFMAQwBBAE4ANgAiACwAIgBVAHQAaQBsAHMALgBDAEMAIgAsACIAVQB0AGkAbABzAC4AQwB1AHIAcgB5ACIALAAiAFUAdABpAGwAcwAuAE0AdQBsAHQAaQBTAEMAQQBOACIALAAiAFUAdABpAGwAcwAuAEkAbABsAHUAcwB0AHIAYQB0AGUAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiACwAIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBQAG8AcwBpAHQAaQBvAG4AcwAiADoAWwAzAF0ALAAiAGQAZQBjAGkAbQBhAGwAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALgAiACwAIgBkAGEAdABlAE8AcgBkAGUAcgAiADoAIgBNAEQAWQAiACwAIgBjAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwAIgA6ACIAJAAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAZgBhAGwAcwBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBSACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAEMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgBbACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgBdACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBlAG4ALQB1AHMAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
